--- a/SpecFramework/FeatureFiles/DataResources/TridTestScenarios.xlsx
+++ b/SpecFramework/FeatureFiles/DataResources/TridTestScenarios.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="673" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7260" tabRatio="673" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoanEstimate - NOT USED" sheetId="6" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ClosingDisclosure!$A$1:$CA$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -928,7 +928,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -13184,10 +13184,10 @@
   <dimension ref="A1:CA163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD72" sqref="AD72:AD79"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18627,7 +18627,7 @@
         <v>1377.3</v>
       </c>
       <c r="BH28" s="139">
-        <f t="shared" ref="BH28:BH43" si="1">L28-BG28</f>
+        <f t="shared" ref="BH28:BH35" si="1">L28-BG28</f>
         <v>129622.7</v>
       </c>
       <c r="BI28" s="78">
@@ -18712,7 +18712,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="113">
-        <f t="shared" ref="W28:W35" si="2">T29+BM29</f>
+        <f t="shared" ref="W29:W32" si="2">T29+BM29</f>
         <v>303.33999999999997</v>
       </c>
       <c r="X29" s="149" t="s">
@@ -18993,7 +18993,7 @@
         <v>270</v>
       </c>
       <c r="BB30" s="81">
-        <f t="shared" ref="BB29:BB43" si="3">AY30+AW30</f>
+        <f t="shared" ref="BB30:BB43" si="3">AY30+AW30</f>
         <v>303.33999999999997</v>
       </c>
       <c r="BC30" s="78">
@@ -21419,7 +21419,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="113">
-        <f t="shared" ref="W47:W61" si="4">T47+U47</f>
+        <f t="shared" ref="W47:W50" si="4">T47+U47</f>
         <v>321.97999999999996</v>
       </c>
       <c r="X47" s="149">
@@ -21704,7 +21704,7 @@
         <v>42430</v>
       </c>
       <c r="BB48" s="114">
-        <f t="shared" ref="BB47:BB53" si="6">AY48+AZ48</f>
+        <f t="shared" ref="BB48:BB53" si="6">AY48+AZ48</f>
         <v>323.53999999999996</v>
       </c>
       <c r="BC48" s="78">
@@ -24364,7 +24364,7 @@
         <v>270</v>
       </c>
       <c r="BB66" s="114">
-        <f t="shared" ref="BB64:BB79" si="9">AY66+AZ66</f>
+        <f t="shared" ref="BB66:BB71" si="9">AY66+AZ66</f>
         <v>303.33999999999997</v>
       </c>
       <c r="BC66" s="78">
@@ -26845,7 +26845,7 @@
         <v>126.93</v>
       </c>
       <c r="W83" s="113">
-        <f t="shared" ref="W83:W89" si="10">T83+U83</f>
+        <f t="shared" ref="W83:W86" si="10">T83+U83</f>
         <v>321.97999999999996</v>
       </c>
       <c r="X83" s="149">
@@ -27134,7 +27134,7 @@
         <v>42430</v>
       </c>
       <c r="BB84" s="114">
-        <f t="shared" ref="BB83:BB89" si="12">AY84+AZ84</f>
+        <f t="shared" ref="BB84:BB89" si="12">AY84+AZ84</f>
         <v>323.53999999999996</v>
       </c>
       <c r="BC84" s="78">

--- a/SpecFramework/FeatureFiles/DataResources/TridTestScenarios.xlsx
+++ b/SpecFramework/FeatureFiles/DataResources/TridTestScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="673" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="673" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoanEstimate - NOT USED" sheetId="6" state="hidden" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="301">
   <si>
     <t xml:space="preserve">30 Over 360 </t>
   </si>
@@ -981,6 +981,51 @@
   </si>
   <si>
     <t>RETEST</t>
+  </si>
+  <si>
+    <t>TRID-509</t>
+  </si>
+  <si>
+    <t>MISMATCH</t>
+  </si>
+  <si>
+    <t>TRID-512</t>
+  </si>
+  <si>
+    <t>TRID-517</t>
+  </si>
+  <si>
+    <t>TRID-518</t>
+  </si>
+  <si>
+    <t>TRID-520</t>
+  </si>
+  <si>
+    <t>TRID-522</t>
+  </si>
+  <si>
+    <t>TRID-525</t>
+  </si>
+  <si>
+    <t>TRID-526</t>
+  </si>
+  <si>
+    <t>TRID-531</t>
+  </si>
+  <si>
+    <t>TRID-534</t>
+  </si>
+  <si>
+    <t>TRID-536</t>
+  </si>
+  <si>
+    <t>TRID-537</t>
+  </si>
+  <si>
+    <t>TRID-535</t>
+  </si>
+  <si>
+    <t>DISCUSS</t>
   </si>
 </sst>
 </file>
@@ -13239,11 +13284,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA163"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19090,7 +19135,7 @@
         <v>53</v>
       </c>
       <c r="B31" s="160" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="C31" s="74" t="s">
         <v>258</v>
@@ -21384,8 +21429,8 @@
       <c r="A47" s="74">
         <v>71</v>
       </c>
-      <c r="B47" s="160" t="s">
-        <v>218</v>
+      <c r="B47" s="162" t="s">
+        <v>197</v>
       </c>
       <c r="C47" s="74" t="s">
         <v>275</v>
@@ -21581,8 +21626,8 @@
       <c r="A48" s="74">
         <v>72</v>
       </c>
-      <c r="B48" s="160" t="s">
-        <v>218</v>
+      <c r="B48" s="162" t="s">
+        <v>197</v>
       </c>
       <c r="C48" s="74" t="s">
         <v>276</v>
@@ -21771,8 +21816,8 @@
       <c r="A49" s="74">
         <v>73</v>
       </c>
-      <c r="B49" s="160" t="s">
-        <v>218</v>
+      <c r="B49" s="162" t="s">
+        <v>197</v>
       </c>
       <c r="C49" s="74" t="s">
         <v>278</v>
@@ -21964,9 +22009,11 @@
         <v>74</v>
       </c>
       <c r="B50" s="160" t="s">
-        <v>218</v>
-      </c>
-      <c r="C50" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="C50" s="74" t="s">
+        <v>286</v>
+      </c>
       <c r="D50" s="66" t="s">
         <v>134</v>
       </c>
@@ -22157,10 +22204,12 @@
       <c r="A51" s="74">
         <v>75</v>
       </c>
-      <c r="B51" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C51" s="74"/>
+      <c r="B51" s="162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="74" t="s">
+        <v>289</v>
+      </c>
       <c r="D51" s="108" t="s">
         <v>134</v>
       </c>
@@ -22345,10 +22394,12 @@
       <c r="A52" s="74">
         <v>76</v>
       </c>
-      <c r="B52" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C52" s="74"/>
+      <c r="B52" s="160" t="s">
+        <v>281</v>
+      </c>
+      <c r="C52" s="74" t="s">
+        <v>290</v>
+      </c>
       <c r="D52" s="108" t="s">
         <v>0</v>
       </c>
@@ -22535,10 +22586,12 @@
       <c r="A53" s="74">
         <v>77</v>
       </c>
-      <c r="B53" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C53" s="74"/>
+      <c r="B53" s="162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="74" t="s">
+        <v>288</v>
+      </c>
       <c r="D53" s="108" t="s">
         <v>0</v>
       </c>
@@ -22605,7 +22658,7 @@
         <v>306.75</v>
       </c>
       <c r="AA53" s="110">
-        <v>222945.17</v>
+        <v>221632.17</v>
       </c>
       <c r="AB53" s="109" t="s">
         <v>105</v>
@@ -22685,16 +22738,16 @@
         <v>323.40999999999997</v>
       </c>
       <c r="BC53" s="78">
-        <v>4.0160999999999998</v>
+        <v>3.9474999999999998</v>
       </c>
       <c r="BD53" s="110">
         <v>306.75</v>
       </c>
       <c r="BE53" s="110">
-        <v>222945.17</v>
+        <v>221632.17</v>
       </c>
       <c r="BF53" s="110">
-        <v>91945.17</v>
+        <v>90632.17</v>
       </c>
       <c r="BG53" s="4">
         <v>1378.23</v>
@@ -24239,10 +24292,12 @@
       <c r="A66" s="74">
         <v>92</v>
       </c>
-      <c r="B66" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C66" s="74"/>
+      <c r="B66" s="160" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66" s="74" t="s">
+        <v>291</v>
+      </c>
       <c r="D66" s="105" t="s">
         <v>88</v>
       </c>
@@ -24433,10 +24488,12 @@
       <c r="A67" s="74">
         <v>93</v>
       </c>
-      <c r="B67" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C67" s="74"/>
+      <c r="B67" s="162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="74" t="s">
+        <v>292</v>
+      </c>
       <c r="D67" s="108" t="s">
         <v>134</v>
       </c>
@@ -24629,10 +24686,12 @@
       <c r="A68" s="74">
         <v>94</v>
       </c>
-      <c r="B68" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C68" s="74"/>
+      <c r="B68" s="162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="74" t="s">
+        <v>293</v>
+      </c>
       <c r="D68" s="108" t="s">
         <v>134</v>
       </c>
@@ -24823,10 +24882,12 @@
       <c r="A69" s="74">
         <v>95</v>
       </c>
-      <c r="B69" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C69" s="74"/>
+      <c r="B69" s="162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="74" t="s">
+        <v>294</v>
+      </c>
       <c r="D69" s="108" t="s">
         <v>134</v>
       </c>
@@ -24847,7 +24908,7 @@
       </c>
       <c r="J69" s="108"/>
       <c r="K69" s="108">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L69" s="75">
         <v>131000</v>
@@ -25017,10 +25078,12 @@
       <c r="A70" s="74">
         <v>96</v>
       </c>
-      <c r="B70" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C70" s="74"/>
+      <c r="B70" s="160" t="s">
+        <v>300</v>
+      </c>
+      <c r="C70" s="74" t="s">
+        <v>295</v>
+      </c>
       <c r="D70" s="108" t="s">
         <v>0</v>
       </c>
@@ -25213,10 +25276,12 @@
       <c r="A71" s="74">
         <v>97</v>
       </c>
-      <c r="B71" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" s="74"/>
+      <c r="B71" s="160" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="74" t="s">
+        <v>296</v>
+      </c>
       <c r="D71" s="108" t="s">
         <v>0</v>
       </c>
@@ -27009,10 +27074,12 @@
       <c r="A84" s="74">
         <v>112</v>
       </c>
-      <c r="B84" s="160" t="s">
-        <v>218</v>
-      </c>
-      <c r="C84" s="74"/>
+      <c r="B84" s="162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="74" t="s">
+        <v>299</v>
+      </c>
       <c r="D84" s="105" t="s">
         <v>88</v>
       </c>
@@ -27595,10 +27662,12 @@
       <c r="A87" s="74">
         <v>115</v>
       </c>
-      <c r="B87" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C87" s="74"/>
+      <c r="B87" s="162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" s="74" t="s">
+        <v>297</v>
+      </c>
       <c r="D87" s="108" t="s">
         <v>134</v>
       </c>
@@ -27985,10 +28054,12 @@
       <c r="A89" s="74">
         <v>117</v>
       </c>
-      <c r="B89" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89" s="74"/>
+      <c r="B89" s="162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="74" t="s">
+        <v>298</v>
+      </c>
       <c r="D89" s="108" t="s">
         <v>0</v>
       </c>
@@ -28057,7 +28128,7 @@
         <v>306.75</v>
       </c>
       <c r="AA89" s="110">
-        <v>222945.17</v>
+        <v>221632.17</v>
       </c>
       <c r="AB89" s="109" t="s">
         <v>80</v>
@@ -28141,16 +28212,16 @@
         <v>460.90999999999997</v>
       </c>
       <c r="BC89" s="78">
-        <v>4.0160999999999998</v>
+        <v>3.9474999999999998</v>
       </c>
       <c r="BD89" s="110">
         <v>306.75</v>
       </c>
       <c r="BE89" s="110">
-        <v>222945.17</v>
+        <v>221632.17</v>
       </c>
       <c r="BF89" s="110">
-        <v>91945.17</v>
+        <v>90632.17</v>
       </c>
       <c r="BG89" s="4">
         <v>1378.23</v>
@@ -31183,11 +31254,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42:XFD42"/>
+      <selection pane="bottomRight" activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39057,8 +39128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39728,7 +39799,7 @@
         <v>161</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="109">
         <v>155000</v>
@@ -39757,7 +39828,7 @@
         <v>168</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="109">
         <v>155000</v>
@@ -39815,7 +39886,7 @@
         <v>161</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="109">
         <v>155000</v>
@@ -39844,7 +39915,7 @@
         <v>168</v>
       </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="109">
         <v>155000</v>
@@ -39902,7 +39973,7 @@
         <v>161</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="109">
         <v>155000</v>
@@ -40160,7 +40231,7 @@
         <v>161</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="109">
         <v>155000</v>
@@ -40189,7 +40260,7 @@
         <v>168</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="109">
         <v>155000</v>
@@ -40247,7 +40318,7 @@
         <v>161</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="109">
         <v>155000</v>
@@ -40276,7 +40347,7 @@
         <v>168</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="109">
         <v>155000</v>
@@ -40334,7 +40405,7 @@
         <v>161</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="109">
         <v>155000</v>

--- a/SpecFramework/FeatureFiles/DataResources/TridTestScenarios.xlsx
+++ b/SpecFramework/FeatureFiles/DataResources/TridTestScenarios.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4485" windowHeight="4545" tabRatio="673" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="8148" tabRatio="673" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoanEstimate - NOT USED" sheetId="6" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ClosingDisclosure!$A$1:$DB$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="373">
   <si>
     <t xml:space="preserve">30 Over 360 </t>
   </si>
@@ -1322,7 +1322,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -2725,38 +2725,38 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="2"/>
+    <col min="27" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>66.72</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2984,7 +2984,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3126,7 +3126,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -3350,20 +3350,20 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="203" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="158" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="203" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="158" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="145" t="s">
         <v>142</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="145" t="s">
         <v>143</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="145" t="s">
         <v>150</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="145" t="s">
         <v>151</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="145" t="s">
         <v>144</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="145" t="s">
         <v>161</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="145" t="s">
         <v>162</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="145" t="s">
         <v>164</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="145" t="s">
         <v>145</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="145" t="s">
         <v>165</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="145" t="s">
         <v>166</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="166" t="s">
         <v>167</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="166" t="s">
         <v>146</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="144" t="s">
         <v>168</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="148" t="s">
         <v>169</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="148" t="s">
         <v>170</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="148" t="s">
         <v>189</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="145" t="s">
         <v>197</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="145" t="s">
         <v>235</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="145" t="s">
         <v>220</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="145" t="s">
         <v>222</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="145" t="s">
         <v>226</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="145" t="s">
         <v>224</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="145" t="s">
         <v>225</v>
       </c>
@@ -4013,13 +4013,13 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="145"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="145">
         <v>50</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="145">
         <v>51</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="145">
         <v>52</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="145">
         <v>53</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="145">
         <v>54</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="145">
         <v>55</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="145">
         <v>56</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="145">
         <v>57</v>
       </c>
@@ -4227,50 +4227,50 @@
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="88">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="88">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="88">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="88">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="88">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="88">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="88">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="88">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="145">
         <v>70</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="145">
         <v>71</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="145">
         <v>72</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="145">
         <v>73</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="145">
         <v>74</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="145">
         <v>75</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="145">
         <v>76</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="145">
         <v>77</v>
       </c>
@@ -4478,50 +4478,50 @@
         <v>372</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="88">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="88">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="88">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="88">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="88">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="88">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="88">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="88">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="145">
         <v>90</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="145">
         <v>91</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="145">
         <v>92</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="145">
         <v>93</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="145">
         <v>94</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="145">
         <v>95</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="145">
         <v>96</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="145">
         <v>97</v>
       </c>
@@ -4729,50 +4729,50 @@
         <v>372</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="88">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="88">
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="88">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="88">
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="88">
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="88">
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="88">
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="88">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="12"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="145">
         <v>110</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="145">
         <v>111</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="145">
         <v>112</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="145">
         <v>113</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="145">
         <v>114</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="145">
         <v>115</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="145">
         <v>116</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="145">
         <v>117</v>
       </c>
@@ -4980,125 +4980,125 @@
         <v>372</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="88">
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="88">
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="88">
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="88">
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="88">
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="88">
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="88">
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="88">
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="12"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="88">
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="88">
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="88">
         <v>132</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="88">
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="88">
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="88">
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="88">
         <v>136</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="88">
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="88">
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="88">
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="88">
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="88">
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="88">
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="88">
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="88">
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="88">
         <v>145</v>
       </c>
@@ -5120,69 +5120,69 @@
       <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="54" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="54" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" style="54" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="16.42578125" style="54" customWidth="1"/>
-    <col min="31" max="31" width="26.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.33203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.88671875" style="54" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="16.44140625" style="54" customWidth="1"/>
+    <col min="31" max="31" width="26.88671875" style="54" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="21" style="54" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="34.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="31.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.88671875" style="54" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="27.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="34.5546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.33203125" style="54" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="48" style="54" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="31.28515625" style="54" customWidth="1"/>
+    <col min="39" max="40" width="31.33203125" style="54" customWidth="1"/>
     <col min="41" max="41" width="48" style="54" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="16.42578125" style="54" customWidth="1"/>
-    <col min="45" max="45" width="22.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="16.42578125" style="54" customWidth="1"/>
-    <col min="49" max="49" width="31.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="16.44140625" style="54" customWidth="1"/>
+    <col min="45" max="45" width="22.88671875" style="54" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="16.44140625" style="54" customWidth="1"/>
+    <col min="49" max="49" width="31.5546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.88671875" style="54" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="6" style="54" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="7" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.109375" style="54" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="15" style="54" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.140625" customWidth="1"/>
+    <col min="59" max="59" width="16.33203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.109375" customWidth="1"/>
     <col min="61" max="61" width="19" style="54" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="17" style="54" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.88671875" style="54" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.109375" style="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J1" s="210" t="s">
         <v>186</v>
       </c>
@@ -5222,7 +5222,7 @@
       <c r="AN1" s="211"/>
       <c r="AO1" s="211"/>
     </row>
-    <row r="2" spans="1:66" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>33</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
         <v>142</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="4" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
         <v>143</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>630.78</v>
       </c>
     </row>
-    <row r="5" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
         <v>150</v>
       </c>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="BM5" s="76"/>
     </row>
-    <row r="6" spans="1:66" s="75" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" s="75" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
         <v>151</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>157.69999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
         <v>144</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
         <v>161</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>630.78</v>
       </c>
     </row>
-    <row r="9" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="70" t="s">
         <v>162</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>145.57</v>
       </c>
     </row>
-    <row r="10" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="70" t="s">
         <v>164</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>157.69999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="70" t="s">
         <v>145</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="12" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="70" t="s">
         <v>165</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>630.78</v>
       </c>
     </row>
-    <row r="13" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="70" t="s">
         <v>166</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>145.57</v>
       </c>
     </row>
-    <row r="14" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
         <v>167</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>157.69999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="70" t="s">
         <v>146</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>168</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>169</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>170</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>189</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="20" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -8766,7 +8766,7 @@
       <c r="BK20" s="56"/>
       <c r="BL20" s="56"/>
     </row>
-    <row r="21" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -8834,7 +8834,7 @@
       <c r="BK21" s="56"/>
       <c r="BL21" s="56"/>
     </row>
-    <row r="22" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -8902,7 +8902,7 @@
       <c r="BK22" s="56"/>
       <c r="BL22" s="56"/>
     </row>
-    <row r="23" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -8970,7 +8970,7 @@
       <c r="BK23" s="56"/>
       <c r="BL23" s="56"/>
     </row>
-    <row r="24" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -9038,7 +9038,7 @@
       <c r="BK24" s="56"/>
       <c r="BL24" s="56"/>
     </row>
-    <row r="25" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -9106,7 +9106,7 @@
       <c r="BK25" s="56"/>
       <c r="BL25" s="56"/>
     </row>
-    <row r="26" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -9174,7 +9174,7 @@
       <c r="BK26" s="56"/>
       <c r="BL26" s="56"/>
     </row>
-    <row r="27" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="70">
         <v>1</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>355.78</v>
       </c>
     </row>
-    <row r="28" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="70">
         <v>2</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>711.56</v>
       </c>
     </row>
-    <row r="29" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="70">
         <v>3</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>164.20999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="70">
         <v>4</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>177.89999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="70">
         <v>5</v>
       </c>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="BL31" s="56"/>
     </row>
-    <row r="32" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="70">
         <v>6</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>355.78</v>
       </c>
     </row>
-    <row r="33" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="70">
         <v>7</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>711.56</v>
       </c>
     </row>
-    <row r="34" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="70">
         <v>8</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>164.20999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="70">
         <v>9</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>177.89999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="70">
         <v>10</v>
       </c>
@@ -10827,7 +10827,7 @@
       <c r="BK36" s="56"/>
       <c r="BL36" s="56"/>
     </row>
-    <row r="37" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="70">
         <v>11</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>355.78</v>
       </c>
     </row>
-    <row r="38" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="70">
         <v>12</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>711.56</v>
       </c>
     </row>
-    <row r="39" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="70">
         <v>13</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>164.20999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="70">
         <v>14</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>177.89999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="70">
         <v>15</v>
       </c>
@@ -11649,7 +11649,7 @@
       <c r="BK41" s="58"/>
       <c r="BL41" s="58"/>
     </row>
-    <row r="42" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="70">
         <v>16</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>17</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>18</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>19</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>20</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="70"/>
       <c r="B47" s="70"/>
       <c r="C47" s="70"/>
@@ -12425,7 +12425,7 @@
       <c r="BK47" s="68"/>
       <c r="BL47" s="64"/>
     </row>
-    <row r="48" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="70"/>
       <c r="B48" s="70"/>
       <c r="C48" s="70"/>
@@ -12491,7 +12491,7 @@
       <c r="BK48" s="68"/>
       <c r="BL48" s="64"/>
     </row>
-    <row r="49" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="70"/>
       <c r="B49" s="70"/>
       <c r="C49" s="70"/>
@@ -12557,7 +12557,7 @@
       <c r="BK49" s="68"/>
       <c r="BL49" s="64"/>
     </row>
-    <row r="50" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="70" t="s">
         <v>197</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="51" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="70" t="s">
         <v>220</v>
       </c>
@@ -12894,7 +12894,7 @@
       </c>
       <c r="BL51" s="65"/>
     </row>
-    <row r="52" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="70" t="s">
         <v>222</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>21</v>
       </c>
@@ -13188,7 +13188,7 @@
       <c r="BK53" s="53"/>
       <c r="BL53" s="53"/>
     </row>
-    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>22</v>
       </c>
@@ -13304,7 +13304,7 @@
       <c r="BK54" s="53"/>
       <c r="BL54" s="53"/>
     </row>
-    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>23</v>
       </c>
@@ -13418,7 +13418,7 @@
       <c r="BK55" s="53"/>
       <c r="BL55" s="53"/>
     </row>
-    <row r="56" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>24</v>
       </c>
@@ -13532,7 +13532,7 @@
       <c r="BK56" s="53"/>
       <c r="BL56" s="53"/>
     </row>
-    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>25</v>
       </c>
@@ -13646,7 +13646,7 @@
       <c r="BK57" s="53"/>
       <c r="BL57" s="53"/>
     </row>
-    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>26</v>
       </c>
@@ -13760,7 +13760,7 @@
       <c r="BK58" s="53"/>
       <c r="BL58" s="53"/>
     </row>
-    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>27</v>
       </c>
@@ -13876,7 +13876,7 @@
       <c r="BK59" s="53"/>
       <c r="BL59" s="53"/>
     </row>
-    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>28</v>
       </c>
@@ -13990,7 +13990,7 @@
       <c r="BK60" s="53"/>
       <c r="BL60" s="53"/>
     </row>
-    <row r="61" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>29</v>
       </c>
@@ -14104,7 +14104,7 @@
       <c r="BK61" s="53"/>
       <c r="BL61" s="53"/>
     </row>
-    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>30</v>
       </c>
@@ -14218,7 +14218,7 @@
       <c r="BK62" s="53"/>
       <c r="BL62" s="53"/>
     </row>
-    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>31</v>
       </c>
@@ -14332,7 +14332,7 @@
       <c r="BK63" s="53"/>
       <c r="BL63" s="53"/>
     </row>
-    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>32</v>
       </c>
@@ -14448,7 +14448,7 @@
       <c r="BK64" s="53"/>
       <c r="BL64" s="53"/>
     </row>
-    <row r="65" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>33</v>
       </c>
@@ -14562,7 +14562,7 @@
       <c r="BK65" s="53"/>
       <c r="BL65" s="53"/>
     </row>
-    <row r="66" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>34</v>
       </c>
@@ -14676,7 +14676,7 @@
       <c r="BK66" s="53"/>
       <c r="BL66" s="53"/>
     </row>
-    <row r="67" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>35</v>
       </c>
@@ -14790,7 +14790,7 @@
       <c r="BK67" s="53"/>
       <c r="BL67" s="53"/>
     </row>
-    <row r="68" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>36</v>
       </c>
@@ -14904,7 +14904,7 @@
       <c r="BK68" s="53"/>
       <c r="BL68" s="53"/>
     </row>
-    <row r="69" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>37</v>
       </c>
@@ -15020,7 +15020,7 @@
       <c r="BK69" s="53"/>
       <c r="BL69" s="53"/>
     </row>
-    <row r="70" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>38</v>
       </c>
@@ -15134,7 +15134,7 @@
       <c r="BK70" s="53"/>
       <c r="BL70" s="53"/>
     </row>
-    <row r="71" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>39</v>
       </c>
@@ -15248,7 +15248,7 @@
       <c r="BK71" s="53"/>
       <c r="BL71" s="53"/>
     </row>
-    <row r="72" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>40</v>
       </c>
@@ -15362,7 +15362,7 @@
       <c r="BK72" s="53"/>
       <c r="BL72" s="53"/>
     </row>
-    <row r="73" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="J1:S1"/>
@@ -15380,14 +15380,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="134" t="s">
         <v>253</v>
       </c>
@@ -15395,31 +15395,31 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="107"/>
       <c r="D4" s="112" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="108"/>
       <c r="D5" s="112" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="109"/>
       <c r="D6" s="112" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="110"/>
       <c r="D7" s="112" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="111"/>
       <c r="D8" s="113" t="s">
         <v>252</v>
@@ -15435,118 +15435,118 @@
   <dimension ref="A1:DB153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AT17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU25" sqref="AU25"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="38.85546875" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="128" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="128" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" style="128" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="128" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" style="128" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="38.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" style="128" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="128" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" style="128" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="128" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" style="128" customWidth="1"/>
     <col min="15" max="15" width="15" style="128" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="128" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" style="125" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="128" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" style="125" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="28.28515625" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" style="128" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" style="128" customWidth="1"/>
-    <col min="23" max="23" width="28.28515625" style="128" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" style="128" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="128" customWidth="1"/>
-    <col min="26" max="26" width="17.7109375" style="128" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" style="125" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" style="125" customWidth="1"/>
-    <col min="29" max="29" width="32.5703125" style="128" customWidth="1"/>
-    <col min="30" max="30" width="18.85546875" style="128" customWidth="1"/>
-    <col min="31" max="31" width="25.7109375" style="128" customWidth="1"/>
-    <col min="32" max="32" width="25.28515625" style="128" customWidth="1"/>
-    <col min="33" max="33" width="27.42578125" style="128" customWidth="1"/>
-    <col min="34" max="34" width="16.42578125" style="128" customWidth="1"/>
-    <col min="35" max="35" width="25.28515625" style="128" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" style="128" customWidth="1"/>
-    <col min="37" max="37" width="31.5703125" style="128" customWidth="1"/>
-    <col min="38" max="38" width="15.28515625" customWidth="1"/>
-    <col min="39" max="40" width="15.42578125" customWidth="1"/>
+    <col min="19" max="19" width="28.33203125" customWidth="1"/>
+    <col min="20" max="20" width="20.5546875" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" style="128" customWidth="1"/>
+    <col min="22" max="22" width="26.6640625" style="128" customWidth="1"/>
+    <col min="23" max="23" width="28.33203125" style="128" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" style="128" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="128" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" style="128" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" style="125" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" style="125" customWidth="1"/>
+    <col min="29" max="29" width="32.5546875" style="128" customWidth="1"/>
+    <col min="30" max="30" width="18.88671875" style="128" customWidth="1"/>
+    <col min="31" max="31" width="25.6640625" style="128" customWidth="1"/>
+    <col min="32" max="32" width="25.33203125" style="128" customWidth="1"/>
+    <col min="33" max="33" width="27.44140625" style="128" customWidth="1"/>
+    <col min="34" max="34" width="16.44140625" style="128" customWidth="1"/>
+    <col min="35" max="35" width="25.33203125" style="128" customWidth="1"/>
+    <col min="36" max="36" width="11.44140625" style="128" customWidth="1"/>
+    <col min="37" max="37" width="31.5546875" style="128" customWidth="1"/>
+    <col min="38" max="38" width="15.33203125" customWidth="1"/>
+    <col min="39" max="40" width="15.44140625" customWidth="1"/>
     <col min="41" max="41" width="20" customWidth="1"/>
-    <col min="42" max="42" width="29.140625" customWidth="1"/>
+    <col min="42" max="42" width="29.109375" customWidth="1"/>
     <col min="43" max="45" width="23" customWidth="1"/>
-    <col min="46" max="46" width="35.28515625" style="209" customWidth="1"/>
+    <col min="46" max="46" width="35.33203125" style="209" customWidth="1"/>
     <col min="47" max="47" width="21" customWidth="1"/>
-    <col min="48" max="48" width="27.85546875" customWidth="1"/>
-    <col min="49" max="49" width="16.85546875" customWidth="1"/>
-    <col min="50" max="50" width="17.5703125" customWidth="1"/>
-    <col min="51" max="51" width="14.28515625" customWidth="1"/>
-    <col min="52" max="52" width="27.85546875" customWidth="1"/>
-    <col min="53" max="53" width="17.5703125" customWidth="1"/>
-    <col min="54" max="54" width="14.28515625" customWidth="1"/>
-    <col min="55" max="55" width="27.85546875" style="128" customWidth="1"/>
-    <col min="56" max="56" width="18.5703125" style="128" customWidth="1"/>
-    <col min="57" max="57" width="15.28515625" style="128" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" style="128" customWidth="1"/>
-    <col min="59" max="59" width="18.5703125" style="128" customWidth="1"/>
-    <col min="60" max="60" width="15.28515625" style="128" customWidth="1"/>
-    <col min="61" max="61" width="18.42578125" style="128" customWidth="1"/>
-    <col min="62" max="63" width="23.42578125" style="128" customWidth="1"/>
+    <col min="48" max="48" width="27.88671875" customWidth="1"/>
+    <col min="49" max="49" width="16.88671875" customWidth="1"/>
+    <col min="50" max="50" width="17.5546875" customWidth="1"/>
+    <col min="51" max="51" width="14.33203125" customWidth="1"/>
+    <col min="52" max="52" width="27.88671875" customWidth="1"/>
+    <col min="53" max="53" width="17.5546875" customWidth="1"/>
+    <col min="54" max="54" width="14.33203125" customWidth="1"/>
+    <col min="55" max="55" width="27.88671875" style="128" customWidth="1"/>
+    <col min="56" max="56" width="18.5546875" style="128" customWidth="1"/>
+    <col min="57" max="57" width="15.33203125" style="128" customWidth="1"/>
+    <col min="58" max="58" width="18.44140625" style="128" customWidth="1"/>
+    <col min="59" max="59" width="18.5546875" style="128" customWidth="1"/>
+    <col min="60" max="60" width="15.33203125" style="128" customWidth="1"/>
+    <col min="61" max="61" width="18.44140625" style="128" customWidth="1"/>
+    <col min="62" max="63" width="23.44140625" style="128" customWidth="1"/>
     <col min="64" max="64" width="23" style="128" customWidth="1"/>
-    <col min="65" max="65" width="22.42578125" style="128" customWidth="1"/>
-    <col min="66" max="66" width="33.85546875" style="128" customWidth="1"/>
-    <col min="67" max="67" width="44.42578125" style="128" customWidth="1"/>
-    <col min="68" max="68" width="14.85546875" style="128" customWidth="1"/>
-    <col min="69" max="69" width="18.28515625" style="128" customWidth="1"/>
-    <col min="70" max="70" width="29.28515625" style="116" customWidth="1"/>
-    <col min="71" max="71" width="30.7109375" style="128" customWidth="1"/>
-    <col min="72" max="72" width="9.85546875" style="128" customWidth="1"/>
-    <col min="73" max="73" width="17.7109375" style="128" customWidth="1"/>
-    <col min="74" max="74" width="15.42578125" style="128" customWidth="1"/>
-    <col min="75" max="75" width="19.140625" style="128" customWidth="1"/>
-    <col min="76" max="76" width="14.140625" style="128" customWidth="1"/>
+    <col min="65" max="65" width="22.44140625" style="128" customWidth="1"/>
+    <col min="66" max="66" width="33.88671875" style="128" customWidth="1"/>
+    <col min="67" max="67" width="44.44140625" style="128" customWidth="1"/>
+    <col min="68" max="68" width="14.88671875" style="128" customWidth="1"/>
+    <col min="69" max="69" width="18.33203125" style="128" customWidth="1"/>
+    <col min="70" max="70" width="29.33203125" style="116" customWidth="1"/>
+    <col min="71" max="71" width="30.6640625" style="128" customWidth="1"/>
+    <col min="72" max="72" width="9.88671875" style="128" customWidth="1"/>
+    <col min="73" max="73" width="17.6640625" style="128" customWidth="1"/>
+    <col min="74" max="74" width="15.44140625" style="128" customWidth="1"/>
+    <col min="75" max="75" width="19.109375" style="128" customWidth="1"/>
+    <col min="76" max="76" width="14.109375" style="128" customWidth="1"/>
     <col min="77" max="77" width="15" style="128" customWidth="1"/>
-    <col min="78" max="78" width="16.28515625" style="128" customWidth="1"/>
+    <col min="78" max="78" width="16.33203125" style="128" customWidth="1"/>
     <col min="79" max="79" width="8" style="128" customWidth="1"/>
-    <col min="80" max="81" width="36.28515625" style="128" customWidth="1"/>
-    <col min="82" max="82" width="18.85546875" style="128" customWidth="1"/>
-    <col min="83" max="83" width="31.140625" style="128" customWidth="1"/>
-    <col min="84" max="84" width="16.140625" style="128" customWidth="1"/>
-    <col min="85" max="85" width="37.28515625" style="128" customWidth="1"/>
-    <col min="86" max="86" width="12.42578125" style="128" customWidth="1"/>
-    <col min="87" max="87" width="19.28515625" style="128" customWidth="1"/>
-    <col min="88" max="88" width="20.28515625" style="128" customWidth="1"/>
-    <col min="89" max="89" width="21.42578125" style="128" customWidth="1"/>
-    <col min="90" max="90" width="24.42578125" style="128" customWidth="1"/>
-    <col min="91" max="91" width="24.28515625" style="128" customWidth="1"/>
-    <col min="92" max="92" width="7.5703125" style="128" customWidth="1"/>
-    <col min="93" max="93" width="18.5703125" style="128" customWidth="1"/>
-    <col min="94" max="94" width="19.5703125" style="128" customWidth="1"/>
-    <col min="95" max="95" width="17.28515625" style="128" customWidth="1"/>
-    <col min="96" max="96" width="18.140625" style="128" customWidth="1"/>
-    <col min="97" max="97" width="19.42578125" style="128" customWidth="1"/>
-    <col min="98" max="98" width="7.7109375" style="128" customWidth="1"/>
-    <col min="99" max="100" width="39.42578125" style="128" customWidth="1"/>
-    <col min="101" max="101" width="20.140625" style="128" customWidth="1"/>
-    <col min="102" max="102" width="28.28515625" style="128" customWidth="1"/>
-    <col min="103" max="103" width="19.28515625" style="128" customWidth="1"/>
-    <col min="104" max="104" width="38.85546875" style="128" customWidth="1"/>
-    <col min="105" max="105" width="13.42578125" style="128" customWidth="1"/>
-    <col min="106" max="106" width="22.85546875" style="128" customWidth="1"/>
-    <col min="107" max="107" width="22.85546875" customWidth="1"/>
+    <col min="80" max="81" width="36.33203125" style="128" customWidth="1"/>
+    <col min="82" max="82" width="18.88671875" style="128" customWidth="1"/>
+    <col min="83" max="83" width="31.109375" style="128" customWidth="1"/>
+    <col min="84" max="84" width="16.109375" style="128" customWidth="1"/>
+    <col min="85" max="85" width="37.33203125" style="128" customWidth="1"/>
+    <col min="86" max="86" width="12.44140625" style="128" customWidth="1"/>
+    <col min="87" max="87" width="19.33203125" style="128" customWidth="1"/>
+    <col min="88" max="88" width="20.33203125" style="128" customWidth="1"/>
+    <col min="89" max="89" width="21.44140625" style="128" customWidth="1"/>
+    <col min="90" max="90" width="24.44140625" style="128" customWidth="1"/>
+    <col min="91" max="91" width="24.33203125" style="128" customWidth="1"/>
+    <col min="92" max="92" width="7.5546875" style="128" customWidth="1"/>
+    <col min="93" max="93" width="18.5546875" style="128" customWidth="1"/>
+    <col min="94" max="94" width="19.5546875" style="128" customWidth="1"/>
+    <col min="95" max="95" width="17.33203125" style="128" customWidth="1"/>
+    <col min="96" max="96" width="18.109375" style="128" customWidth="1"/>
+    <col min="97" max="97" width="19.44140625" style="128" customWidth="1"/>
+    <col min="98" max="98" width="7.6640625" style="128" customWidth="1"/>
+    <col min="99" max="100" width="39.44140625" style="128" customWidth="1"/>
+    <col min="101" max="101" width="20.109375" style="128" customWidth="1"/>
+    <col min="102" max="102" width="28.33203125" style="128" customWidth="1"/>
+    <col min="103" max="103" width="19.33203125" style="128" customWidth="1"/>
+    <col min="104" max="104" width="38.88671875" style="128" customWidth="1"/>
+    <col min="105" max="105" width="13.44140625" style="128" customWidth="1"/>
+    <col min="106" max="106" width="22.88671875" style="128" customWidth="1"/>
+    <col min="107" max="107" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="190" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:106" s="190" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="145" t="s">
         <v>142</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>12996.63</v>
       </c>
       <c r="AJ2" s="74">
-        <v>3.8658999999999999</v>
+        <v>3.8660000000000001</v>
       </c>
       <c r="AK2" s="74">
         <v>66.783100000000005</v>
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
         <v>143</v>
       </c>
@@ -16295,7 +16295,7 @@
         <v>13008.15</v>
       </c>
       <c r="AJ3" s="74">
-        <v>3.8654999999999999</v>
+        <v>3.8660000000000001</v>
       </c>
       <c r="AK3" s="74">
         <v>66.921899999999994</v>
@@ -16325,7 +16325,7 @@
         <v>0</v>
       </c>
       <c r="AT3" s="207">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="AU3" s="160">
         <v>1</v>
@@ -16382,7 +16382,7 @@
         <v>600</v>
       </c>
       <c r="BM3" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="BN3" s="114">
         <v>550</v>
@@ -16433,7 +16433,7 @@
         <v>3300</v>
       </c>
       <c r="CD3" s="132">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="CE3" s="114">
         <v>600</v>
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
         <v>150</v>
       </c>
@@ -16615,7 +16615,7 @@
         <v>16414.12</v>
       </c>
       <c r="AJ4" s="74">
-        <v>3.8422000000000001</v>
+        <v>3.8420000000000001</v>
       </c>
       <c r="AK4" s="74">
         <v>56.376100000000001</v>
@@ -16693,10 +16693,10 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="132">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="BK4" s="114">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="BL4" s="132">
         <v>0</v>
@@ -16747,10 +16747,10 @@
         <v>56.376100000000001</v>
       </c>
       <c r="CB4" s="132">
-        <v>3300</v>
-      </c>
-      <c r="CC4" s="114">
-        <v>3300</v>
+        <v>3300.18</v>
+      </c>
+      <c r="CC4" s="132">
+        <v>3300.18</v>
       </c>
       <c r="CD4" s="114">
         <v>798.43</v>
@@ -16829,7 +16829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
         <v>151</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>12891.92</v>
       </c>
       <c r="AJ5" s="74">
-        <v>3.8656000000000001</v>
+        <v>3.8660000000000001</v>
       </c>
       <c r="AK5" s="74">
         <v>66.579700000000003</v>
@@ -17014,9 +17014,11 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="132">
-        <v>3162.5</v>
+        <f>137.5*24</f>
+        <v>3300</v>
       </c>
       <c r="BK5" s="114">
+        <f>137.5*24</f>
         <v>3300</v>
       </c>
       <c r="BL5" s="132">
@@ -17068,7 +17070,7 @@
         <v>66.579700000000003</v>
       </c>
       <c r="CB5" s="132">
-        <v>3162.5</v>
+        <v>3300</v>
       </c>
       <c r="CC5" s="114">
         <v>3300</v>
@@ -17149,7 +17151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
         <v>144</v>
       </c>
@@ -17256,7 +17258,7 @@
         <v>13008.6</v>
       </c>
       <c r="AJ6" s="74">
-        <v>3.8631000000000002</v>
+        <v>3.863</v>
       </c>
       <c r="AK6" s="74">
         <v>66.726799999999997</v>
@@ -17469,7 +17471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
         <v>161</v>
       </c>
@@ -17576,7 +17578,7 @@
         <v>13020.15</v>
       </c>
       <c r="AJ7" s="74">
-        <v>3.8679000000000001</v>
+        <v>3.8679999999999999</v>
       </c>
       <c r="AK7" s="74">
         <v>66.865399999999994</v>
@@ -17606,7 +17608,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="207">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="AU7" s="160">
         <v>1</v>
@@ -17663,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="BN7" s="114">
         <v>550</v>
@@ -17714,7 +17716,7 @@
         <v>3300</v>
       </c>
       <c r="CD7" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="CE7" s="114">
         <v>0</v>
@@ -17789,7 +17791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
         <v>162</v>
       </c>
@@ -17895,8 +17897,8 @@
       <c r="AI8" s="114">
         <v>16439.52</v>
       </c>
-      <c r="AJ8" s="143">
-        <v>3.8393999999999999</v>
+      <c r="AJ8" s="74">
+        <v>3.84</v>
       </c>
       <c r="AK8" s="74">
         <v>56.295299999999997</v>
@@ -17974,10 +17976,10 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="132">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="BK8" s="132">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="BL8" s="132">
         <v>0</v>
@@ -18028,10 +18030,10 @@
         <v>56.295299999999997</v>
       </c>
       <c r="CB8" s="132">
-        <v>3300</v>
-      </c>
-      <c r="CC8" s="114">
-        <v>3300</v>
+        <v>3300.18</v>
+      </c>
+      <c r="CC8" s="132">
+        <v>3300.18</v>
       </c>
       <c r="CD8" s="114">
         <v>798.43</v>
@@ -18109,7 +18111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A9" s="70" t="s">
         <v>164</v>
       </c>
@@ -18216,7 +18218,7 @@
         <v>12889.07</v>
       </c>
       <c r="AJ9" s="74">
-        <v>3.8633000000000002</v>
+        <v>3.863</v>
       </c>
       <c r="AK9" s="74">
         <v>66.542100000000005</v>
@@ -18294,7 +18296,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="132">
-        <v>3162.5</v>
+        <v>3300</v>
       </c>
       <c r="BK9" s="132">
         <v>3300</v>
@@ -18348,7 +18350,7 @@
         <v>66.542100000000005</v>
       </c>
       <c r="CB9" s="132">
-        <v>3162.5</v>
+        <v>3300</v>
       </c>
       <c r="CC9" s="114">
         <v>3300</v>
@@ -18429,7 +18431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A10" s="70" t="s">
         <v>145</v>
       </c>
@@ -18537,7 +18539,7 @@
         <v>12894.35</v>
       </c>
       <c r="AJ10" s="74">
-        <v>3.9182999999999999</v>
+        <v>3.9180000000000001</v>
       </c>
       <c r="AK10" s="74">
         <v>67.850499999999997</v>
@@ -18751,7 +18753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A11" s="70" t="s">
         <v>165</v>
       </c>
@@ -18858,7 +18860,7 @@
         <v>12906.1</v>
       </c>
       <c r="AJ11" s="74">
-        <v>3.9230999999999998</v>
+        <v>3.923</v>
       </c>
       <c r="AK11" s="74">
         <v>67.990799999999993</v>
@@ -18888,7 +18890,7 @@
         <v>0</v>
       </c>
       <c r="AT11" s="207">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="AU11" s="160">
         <v>1</v>
@@ -18945,7 +18947,7 @@
         <v>0</v>
       </c>
       <c r="BM11" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="BN11" s="114">
         <v>550</v>
@@ -18996,7 +18998,7 @@
         <v>3300</v>
       </c>
       <c r="CD11" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="CE11" s="114">
         <v>0</v>
@@ -19071,7 +19073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A12" s="70" t="s">
         <v>166</v>
       </c>
@@ -19178,7 +19180,7 @@
         <v>16061.61</v>
       </c>
       <c r="AJ12" s="74">
-        <v>3.8957999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="AK12" s="74">
         <v>57.895899999999997</v>
@@ -19256,10 +19258,11 @@
         <v>0</v>
       </c>
       <c r="BJ12" s="132">
-        <v>3300</v>
+        <f>126.93*26</f>
+        <v>3300.1800000000003</v>
       </c>
       <c r="BK12" s="132">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="BL12" s="132">
         <v>0</v>
@@ -19310,10 +19313,10 @@
         <v>57.895899999999997</v>
       </c>
       <c r="CB12" s="132">
-        <v>3300</v>
-      </c>
-      <c r="CC12" s="114">
-        <v>3300</v>
+        <v>3300.18</v>
+      </c>
+      <c r="CC12" s="132">
+        <v>3300.18</v>
       </c>
       <c r="CD12" s="114">
         <v>798.43</v>
@@ -19391,7 +19394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="129" t="s">
         <v>167</v>
       </c>
@@ -19498,7 +19501,7 @@
         <v>12767.98</v>
       </c>
       <c r="AJ13" s="74">
-        <v>3.9184999999999999</v>
+        <v>3.919</v>
       </c>
       <c r="AK13" s="74">
         <v>67.688100000000006</v>
@@ -19630,7 +19633,7 @@
         <v>67.688100000000006</v>
       </c>
       <c r="CB13" s="132">
-        <v>3162.5</v>
+        <v>3300</v>
       </c>
       <c r="CC13" s="114">
         <v>3300</v>
@@ -19711,7 +19714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A14" s="129" t="s">
         <v>146</v>
       </c>
@@ -19815,10 +19818,10 @@
         <v>38339.519999999997</v>
       </c>
       <c r="AI14" s="114">
-        <v>12998.68</v>
+        <v>12998.59</v>
       </c>
       <c r="AJ14" s="74">
-        <v>3.8628999999999998</v>
+        <v>3.863</v>
       </c>
       <c r="AK14" s="74">
         <v>66.721900000000005</v>
@@ -19971,7 +19974,7 @@
         <v>38339.519999999997</v>
       </c>
       <c r="CI14" s="114">
-        <v>12998.68</v>
+        <v>12998.59</v>
       </c>
       <c r="CJ14" s="180">
         <v>0</v>
@@ -20031,7 +20034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>168</v>
       </c>
@@ -20132,13 +20135,13 @@
         <v>130919.22</v>
       </c>
       <c r="AH15" s="114">
-        <v>38451.089999999997</v>
+        <v>38451.199999999997</v>
       </c>
       <c r="AI15" s="114">
-        <v>13010.18</v>
-      </c>
-      <c r="AJ15" s="7">
-        <v>3.8677999999999999</v>
+        <v>13010.29</v>
+      </c>
+      <c r="AJ15" s="74">
+        <v>3.8679999999999999</v>
       </c>
       <c r="AK15" s="7">
         <v>66.861900000000006</v>
@@ -20168,7 +20171,7 @@
         <v>0</v>
       </c>
       <c r="AT15" s="207">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="AU15" s="159">
         <v>1</v>
@@ -20225,7 +20228,7 @@
         <v>0</v>
       </c>
       <c r="BM15" s="127">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="BN15" s="114">
         <v>550</v>
@@ -20276,7 +20279,7 @@
         <v>3300</v>
       </c>
       <c r="CD15" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="CE15" s="127">
         <v>0</v>
@@ -20287,11 +20290,11 @@
       <c r="CG15" s="192">
         <v>650</v>
       </c>
-      <c r="CH15" s="171">
-        <v>38451.089999999997</v>
-      </c>
-      <c r="CI15" s="171">
-        <v>13010.18</v>
+      <c r="CH15" s="114">
+        <v>38451.199999999997</v>
+      </c>
+      <c r="CI15" s="114">
+        <v>13010.29</v>
       </c>
       <c r="CJ15" s="180">
         <v>0</v>
@@ -20351,7 +20354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>169</v>
       </c>
@@ -20452,13 +20455,13 @@
         <v>131000</v>
       </c>
       <c r="AH16" s="114">
-        <v>38021.51</v>
+        <v>38021.19</v>
       </c>
       <c r="AI16" s="114">
         <v>12874.28</v>
       </c>
-      <c r="AJ16" s="7">
-        <v>3.8639000000000001</v>
+      <c r="AJ16" s="74">
+        <v>3.8639999999999999</v>
       </c>
       <c r="AK16" s="7">
         <v>66.652500000000003</v>
@@ -20536,7 +20539,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="132">
-        <v>3162.5</v>
+        <v>3300</v>
       </c>
       <c r="BK16" s="127">
         <v>3300</v>
@@ -20590,7 +20593,7 @@
         <v>66.652500000000003</v>
       </c>
       <c r="CB16" s="132">
-        <v>3162.5</v>
+        <v>3300</v>
       </c>
       <c r="CC16" s="114">
         <v>3300</v>
@@ -20608,7 +20611,7 @@
         <v>137.5</v>
       </c>
       <c r="CH16" s="171">
-        <v>38021.51</v>
+        <v>38021.19</v>
       </c>
       <c r="CI16" s="171">
         <v>12874.28</v>
@@ -20671,7 +20674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>170</v>
       </c>
@@ -20777,8 +20780,8 @@
       <c r="AI17" s="114">
         <v>0</v>
       </c>
-      <c r="AJ17" s="7">
-        <v>3.4704999999999999</v>
+      <c r="AJ17" s="74">
+        <v>3.4710000000000001</v>
       </c>
       <c r="AK17" s="7">
         <v>58.396999999999998</v>
@@ -20991,7 +20994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>189</v>
       </c>
@@ -21097,8 +21100,8 @@
       <c r="AI18" s="114">
         <v>0</v>
       </c>
-      <c r="AJ18" s="7">
-        <v>3.2625000000000002</v>
+      <c r="AJ18" s="74">
+        <v>3.2629999999999999</v>
       </c>
       <c r="AK18" s="7">
         <v>55.273000000000003</v>
@@ -21311,7 +21314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A19" s="70" t="s">
         <v>197</v>
       </c>
@@ -21418,7 +21421,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="74">
-        <v>3.8534999999999999</v>
+        <v>3.8540000000000001</v>
       </c>
       <c r="AK19" s="74">
         <v>65.518000000000001</v>
@@ -21631,7 +21634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A20" s="70" t="s">
         <v>235</v>
       </c>
@@ -21738,7 +21741,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="74">
-        <v>3.7197</v>
+        <v>3.72</v>
       </c>
       <c r="AK20" s="74">
         <v>62.408999999999999</v>
@@ -21951,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A21" s="70" t="s">
         <v>220</v>
       </c>
@@ -22059,7 +22062,7 @@
         <v>12996.63</v>
       </c>
       <c r="AJ21" s="74">
-        <v>3.8658999999999999</v>
+        <v>3.8660000000000001</v>
       </c>
       <c r="AK21" s="74">
         <v>66.783100000000005</v>
@@ -22273,7 +22276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
         <v>222</v>
       </c>
@@ -22593,7 +22596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A23" s="70" t="s">
         <v>226</v>
       </c>
@@ -22701,7 +22704,7 @@
         <v>12996.63</v>
       </c>
       <c r="AJ23" s="74">
-        <v>3.8447</v>
+        <v>3.8450000000000002</v>
       </c>
       <c r="AK23" s="74">
         <v>66.783100000000005</v>
@@ -22915,7 +22918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
         <v>224</v>
       </c>
@@ -23022,7 +23025,7 @@
         <v>12996.63</v>
       </c>
       <c r="AJ24" s="74">
-        <v>3.9497</v>
+        <v>3.95</v>
       </c>
       <c r="AK24" s="74">
         <v>66.783100000000005</v>
@@ -23237,7 +23240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A25" s="70" t="s">
         <v>225</v>
       </c>
@@ -23344,7 +23347,7 @@
         <v>12996.63</v>
       </c>
       <c r="AJ25" s="74">
-        <v>3.8447</v>
+        <v>3.8450000000000002</v>
       </c>
       <c r="AK25" s="74">
         <v>66.783100000000005</v>
@@ -23373,9 +23376,7 @@
       <c r="AS25" s="160">
         <v>0</v>
       </c>
-      <c r="AT25" s="207" t="s">
-        <v>256</v>
-      </c>
+      <c r="AT25" s="207"/>
       <c r="AU25" s="102">
         <v>1</v>
       </c>
@@ -23557,7 +23558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A26" s="70"/>
       <c r="B26" s="70"/>
       <c r="C26" s="70"/>
@@ -23665,7 +23666,7 @@
       <c r="DA26" s="183"/>
       <c r="DB26" s="183"/>
     </row>
-    <row r="27" spans="1:106" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="215" t="s">
         <v>236</v>
       </c>
@@ -23775,7 +23776,7 @@
       <c r="DA27" s="183"/>
       <c r="DB27" s="183"/>
     </row>
-    <row r="28" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="70">
         <v>50</v>
       </c>
@@ -23882,7 +23883,7 @@
         <v>13028.53</v>
       </c>
       <c r="AJ28" s="74">
-        <v>3.8351000000000002</v>
+        <v>3.835</v>
       </c>
       <c r="AK28" s="74">
         <v>66.902000000000001</v>
@@ -24096,7 +24097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="70">
         <v>51</v>
       </c>
@@ -24417,7 +24418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="70">
         <v>52</v>
       </c>
@@ -24524,7 +24525,7 @@
         <v>12861.83</v>
       </c>
       <c r="AJ30" s="74">
-        <v>3.8355000000000001</v>
+        <v>3.8359999999999999</v>
       </c>
       <c r="AK30" s="74">
         <v>66.738</v>
@@ -24738,7 +24739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="70">
         <v>53</v>
       </c>
@@ -24845,7 +24846,7 @@
         <v>12926.22</v>
       </c>
       <c r="AJ31" s="74">
-        <v>3.8875000000000002</v>
+        <v>3.8879999999999999</v>
       </c>
       <c r="AK31" s="74">
         <v>67.971000000000004</v>
@@ -25059,7 +25060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="70">
         <v>54</v>
       </c>
@@ -25166,7 +25167,7 @@
         <v>16061.6</v>
       </c>
       <c r="AJ32" s="74">
-        <v>3.8834</v>
+        <v>3.883</v>
       </c>
       <c r="AK32" s="74">
         <v>57.896000000000001</v>
@@ -25380,7 +25381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="70">
         <v>55</v>
       </c>
@@ -25487,7 +25488,7 @@
         <v>12506.39</v>
       </c>
       <c r="AJ33" s="74">
-        <v>3.8872</v>
+        <v>3.887</v>
       </c>
       <c r="AK33" s="74">
         <v>68.739999999999995</v>
@@ -25701,7 +25702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="70">
         <v>56</v>
       </c>
@@ -25802,13 +25803,13 @@
         <v>129621.77</v>
       </c>
       <c r="AH34" s="114">
-        <v>37741.589999999997</v>
+        <v>37809.93</v>
       </c>
       <c r="AI34" s="114">
-        <v>13010.18</v>
+        <v>13010.29</v>
       </c>
       <c r="AJ34" s="74">
-        <v>3.8321000000000001</v>
+        <v>3.8319999999999999</v>
       </c>
       <c r="AK34" s="74">
         <v>66.914000000000001</v>
@@ -25959,10 +25960,10 @@
         <v>550</v>
       </c>
       <c r="CH34" s="114">
-        <v>37741.589999999997</v>
+        <v>37809.93</v>
       </c>
       <c r="CI34" s="114">
-        <v>13010.18</v>
+        <v>13010.29</v>
       </c>
       <c r="CJ34" s="180">
         <v>0</v>
@@ -26022,7 +26023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="70">
         <v>57</v>
       </c>
@@ -26129,7 +26130,7 @@
         <v>12873.96</v>
       </c>
       <c r="AJ35" s="74">
-        <v>3.8331</v>
+        <v>3.8330000000000002</v>
       </c>
       <c r="AK35" s="74">
         <v>66.704599999999999</v>
@@ -26343,7 +26344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="88">
         <v>58</v>
       </c>
@@ -26523,7 +26524,7 @@
       <c r="DA36" s="186"/>
       <c r="DB36" s="186"/>
     </row>
-    <row r="37" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="88">
         <v>59</v>
       </c>
@@ -26703,7 +26704,7 @@
       <c r="DA37" s="186"/>
       <c r="DB37" s="186"/>
     </row>
-    <row r="38" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="88">
         <v>60</v>
       </c>
@@ -26883,7 +26884,7 @@
       <c r="DA38" s="186"/>
       <c r="DB38" s="186"/>
     </row>
-    <row r="39" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="88">
         <v>61</v>
       </c>
@@ -27063,7 +27064,7 @@
       <c r="DA39" s="186"/>
       <c r="DB39" s="186"/>
     </row>
-    <row r="40" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="88">
         <v>62</v>
       </c>
@@ -27243,7 +27244,7 @@
       <c r="DA40" s="186"/>
       <c r="DB40" s="186"/>
     </row>
-    <row r="41" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="88">
         <v>63</v>
       </c>
@@ -27423,7 +27424,7 @@
       <c r="DA41" s="186"/>
       <c r="DB41" s="186"/>
     </row>
-    <row r="42" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="88">
         <v>64</v>
       </c>
@@ -27603,7 +27604,7 @@
       <c r="DA42" s="186"/>
       <c r="DB42" s="186"/>
     </row>
-    <row r="43" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="88">
         <v>65</v>
       </c>
@@ -27783,7 +27784,7 @@
       <c r="DA43" s="186"/>
       <c r="DB43" s="186"/>
     </row>
-    <row r="44" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH44" s="181"/>
       <c r="CI44" s="181"/>
       <c r="CJ44" s="183"/>
@@ -27806,7 +27807,7 @@
       <c r="DA44" s="183"/>
       <c r="DB44" s="183"/>
     </row>
-    <row r="45" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A45" s="212" t="s">
         <v>237</v>
       </c>
@@ -27916,7 +27917,7 @@
       <c r="DA45" s="183"/>
       <c r="DB45" s="183"/>
     </row>
-    <row r="46" spans="1:106" s="75" customFormat="1" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:106" s="75" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="70">
         <v>70</v>
       </c>
@@ -28021,7 +28022,7 @@
         <v>13028.53</v>
       </c>
       <c r="AJ46" s="74">
-        <v>3.9544000000000001</v>
+        <v>3.9540000000000002</v>
       </c>
       <c r="AK46" s="74">
         <v>66.902000000000001</v>
@@ -28234,7 +28235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="70">
         <v>71</v>
       </c>
@@ -28341,7 +28342,7 @@
         <v>16414.12</v>
       </c>
       <c r="AJ47" s="74">
-        <v>3.9358</v>
+        <v>3.9359999999999999</v>
       </c>
       <c r="AK47" s="74">
         <v>56.375999999999998</v>
@@ -28554,7 +28555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="70">
         <v>72</v>
       </c>
@@ -28873,7 +28874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="70">
         <v>73</v>
       </c>
@@ -28954,7 +28955,7 @@
         <v>42430</v>
       </c>
       <c r="AB49" s="122">
-        <v>42064</v>
+        <v>42005</v>
       </c>
       <c r="AC49" s="114">
         <v>1019.06</v>
@@ -29192,7 +29193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="70">
         <v>74</v>
       </c>
@@ -29290,7 +29291,7 @@
         <v>1325.55</v>
       </c>
       <c r="AG50" s="114">
-        <v>126674.45</v>
+        <v>129674.45</v>
       </c>
       <c r="AH50" s="114">
         <v>42325.51</v>
@@ -29299,7 +29300,7 @@
         <v>16061.61</v>
       </c>
       <c r="AJ50" s="74">
-        <v>3.9889999999999999</v>
+        <v>3.99</v>
       </c>
       <c r="AK50" s="74">
         <v>57.896000000000001</v>
@@ -29512,7 +29513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="70">
         <v>75</v>
       </c>
@@ -29617,7 +29618,7 @@
         <v>12756.35</v>
       </c>
       <c r="AJ51" s="74">
-        <v>4.0026000000000002</v>
+        <v>4.0030000000000001</v>
       </c>
       <c r="AK51" s="74">
         <v>67.817999999999998</v>
@@ -29831,7 +29832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="70">
         <v>76</v>
       </c>
@@ -29930,13 +29931,13 @@
         <v>129540.99</v>
       </c>
       <c r="AH52" s="171">
-        <v>39829.31</v>
+        <v>38829.43</v>
       </c>
       <c r="AI52" s="171">
-        <v>13010.18</v>
+        <v>13010.29</v>
       </c>
       <c r="AJ52" s="74">
-        <v>3.9514</v>
+        <v>3.9510000000000001</v>
       </c>
       <c r="AK52" s="74">
         <v>66.914000000000001</v>
@@ -30087,10 +30088,10 @@
         <v>550</v>
       </c>
       <c r="CH52" s="171">
-        <v>39829.31</v>
+        <v>38829.43</v>
       </c>
       <c r="CI52" s="171">
-        <v>13010.18</v>
+        <v>13010.29</v>
       </c>
       <c r="CJ52" s="180">
         <v>0</v>
@@ -30150,7 +30151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:106" s="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="70">
         <v>77</v>
       </c>
@@ -30255,7 +30256,7 @@
         <v>12873.96</v>
       </c>
       <c r="AJ53" s="74">
-        <v>3.9474999999999998</v>
+        <v>3.948</v>
       </c>
       <c r="AK53" s="74">
         <v>66.704599999999999</v>
@@ -30469,7 +30470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:106" s="97" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:106" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="88">
         <v>78</v>
       </c>
@@ -30645,7 +30646,7 @@
       <c r="DA54" s="186"/>
       <c r="DB54" s="186"/>
     </row>
-    <row r="55" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="88">
         <v>79</v>
       </c>
@@ -30821,7 +30822,7 @@
       <c r="DA55" s="186"/>
       <c r="DB55" s="186"/>
     </row>
-    <row r="56" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="88">
         <v>80</v>
       </c>
@@ -30997,7 +30998,7 @@
       <c r="DA56" s="186"/>
       <c r="DB56" s="186"/>
     </row>
-    <row r="57" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="88">
         <v>81</v>
       </c>
@@ -31173,7 +31174,7 @@
       <c r="DA57" s="186"/>
       <c r="DB57" s="186"/>
     </row>
-    <row r="58" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="88">
         <v>82</v>
       </c>
@@ -31349,7 +31350,7 @@
       <c r="DA58" s="186"/>
       <c r="DB58" s="186"/>
     </row>
-    <row r="59" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="88">
         <v>83</v>
       </c>
@@ -31525,7 +31526,7 @@
       <c r="DA59" s="186"/>
       <c r="DB59" s="186"/>
     </row>
-    <row r="60" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="88">
         <v>84</v>
       </c>
@@ -31701,7 +31702,7 @@
       <c r="DA60" s="186"/>
       <c r="DB60" s="186"/>
     </row>
-    <row r="61" spans="1:106" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="88">
         <v>85</v>
       </c>
@@ -31877,7 +31878,7 @@
       <c r="DA61" s="186"/>
       <c r="DB61" s="186"/>
     </row>
-    <row r="62" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:106" x14ac:dyDescent="0.3">
       <c r="AH62" s="205"/>
       <c r="AI62" s="205"/>
       <c r="CH62" s="171"/>
@@ -31902,7 +31903,7 @@
       <c r="DA62" s="183"/>
       <c r="DB62" s="183"/>
     </row>
-    <row r="63" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A63" s="212" t="s">
         <v>238</v>
       </c>
@@ -32012,7 +32013,7 @@
       <c r="DA63" s="183"/>
       <c r="DB63" s="183"/>
     </row>
-    <row r="64" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="70">
         <v>90</v>
       </c>
@@ -32119,7 +32120,7 @@
         <v>13028.53</v>
       </c>
       <c r="AJ64" s="74">
-        <v>3.8351000000000002</v>
+        <v>3.835</v>
       </c>
       <c r="AK64" s="74">
         <v>66.902000000000001</v>
@@ -32206,7 +32207,7 @@
         <v>1500</v>
       </c>
       <c r="BM64" s="114">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="BN64" s="114">
         <v>400</v>
@@ -32258,7 +32259,7 @@
         <v>2400</v>
       </c>
       <c r="CD64" s="114">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="CE64" s="114">
         <v>1500</v>
@@ -32333,7 +32334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="70">
         <v>91</v>
       </c>
@@ -32518,10 +32519,10 @@
         <v>0</v>
       </c>
       <c r="BJ65" s="132">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="BK65" s="132">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="BL65" s="132">
         <v>0</v>
@@ -32573,10 +32574,10 @@
         <v>56.375999999999998</v>
       </c>
       <c r="CB65" s="132">
-        <v>3300</v>
-      </c>
-      <c r="CC65" s="114">
-        <v>3300</v>
+        <v>3300.18</v>
+      </c>
+      <c r="CC65" s="132">
+        <v>3300.18</v>
       </c>
       <c r="CD65" s="114">
         <v>798.43</v>
@@ -32654,7 +32655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="70">
         <v>92</v>
       </c>
@@ -32761,7 +32762,7 @@
         <v>12861.83</v>
       </c>
       <c r="AJ66" s="74">
-        <v>3.8355000000000001</v>
+        <v>3.8359999999999999</v>
       </c>
       <c r="AK66" s="74">
         <v>66.738</v>
@@ -32975,7 +32976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="70">
         <v>93</v>
       </c>
@@ -33082,7 +33083,7 @@
         <v>12926.22</v>
       </c>
       <c r="AJ67" s="74">
-        <v>3.8875000000000002</v>
+        <v>3.8879999999999999</v>
       </c>
       <c r="AK67" s="74">
         <v>67.971000000000004</v>
@@ -33169,7 +33170,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="BN67" s="114">
         <v>550</v>
@@ -33221,7 +33222,7 @@
         <v>3300</v>
       </c>
       <c r="CD67" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="CE67" s="114">
         <v>0</v>
@@ -33296,7 +33297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="70">
         <v>94</v>
       </c>
@@ -33403,7 +33404,7 @@
         <v>16061.6</v>
       </c>
       <c r="AJ68" s="74">
-        <v>3.8834</v>
+        <v>3.883</v>
       </c>
       <c r="AK68" s="74">
         <v>57.896000000000001</v>
@@ -33481,10 +33482,10 @@
         <v>0</v>
       </c>
       <c r="BJ68" s="132">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="BK68" s="132">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="BL68" s="132">
         <v>0</v>
@@ -33536,10 +33537,10 @@
         <v>57.896000000000001</v>
       </c>
       <c r="CB68" s="132">
-        <v>3300</v>
-      </c>
-      <c r="CC68" s="114">
-        <v>3300</v>
+        <v>3300.18</v>
+      </c>
+      <c r="CC68" s="132">
+        <v>3300.18</v>
       </c>
       <c r="CD68" s="114">
         <v>798.43</v>
@@ -33617,7 +33618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="70">
         <v>95</v>
       </c>
@@ -33724,7 +33725,7 @@
         <v>12506.39</v>
       </c>
       <c r="AJ69" s="74">
-        <v>3.8872</v>
+        <v>3.887</v>
       </c>
       <c r="AK69" s="74">
         <v>68.739999999999995</v>
@@ -33938,7 +33939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="70">
         <v>96</v>
       </c>
@@ -34045,7 +34046,7 @@
         <v>13010.18</v>
       </c>
       <c r="AJ70" s="74">
-        <v>3.8321000000000001</v>
+        <v>3.8319999999999999</v>
       </c>
       <c r="AK70" s="74">
         <v>66.914000000000001</v>
@@ -34132,7 +34133,7 @@
         <v>0</v>
       </c>
       <c r="BM70" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="BN70" s="114">
         <v>550</v>
@@ -34184,7 +34185,7 @@
         <v>3300</v>
       </c>
       <c r="CD70" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="CE70" s="114">
         <v>0</v>
@@ -34259,7 +34260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="70">
         <v>97</v>
       </c>
@@ -34366,7 +34367,7 @@
         <v>12873.96</v>
       </c>
       <c r="AJ71" s="74">
-        <v>3.8331</v>
+        <v>3.8330000000000002</v>
       </c>
       <c r="AK71" s="74">
         <v>66.704599999999999</v>
@@ -34580,7 +34581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:106" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:106" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="88">
         <v>98</v>
       </c>
@@ -34762,7 +34763,7 @@
       <c r="DA72" s="186"/>
       <c r="DB72" s="186"/>
     </row>
-    <row r="73" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="88">
         <v>99</v>
       </c>
@@ -34944,7 +34945,7 @@
       <c r="DA73" s="186"/>
       <c r="DB73" s="186"/>
     </row>
-    <row r="74" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="88">
         <v>100</v>
       </c>
@@ -35126,7 +35127,7 @@
       <c r="DA74" s="186"/>
       <c r="DB74" s="186"/>
     </row>
-    <row r="75" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="88">
         <v>101</v>
       </c>
@@ -35308,7 +35309,7 @@
       <c r="DA75" s="186"/>
       <c r="DB75" s="186"/>
     </row>
-    <row r="76" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="88">
         <v>102</v>
       </c>
@@ -35490,7 +35491,7 @@
       <c r="DA76" s="186"/>
       <c r="DB76" s="186"/>
     </row>
-    <row r="77" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="88">
         <v>103</v>
       </c>
@@ -35672,7 +35673,7 @@
       <c r="DA77" s="186"/>
       <c r="DB77" s="186"/>
     </row>
-    <row r="78" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="88">
         <v>104</v>
       </c>
@@ -35854,7 +35855,7 @@
       <c r="DA78" s="186"/>
       <c r="DB78" s="186"/>
     </row>
-    <row r="79" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="88">
         <v>105</v>
       </c>
@@ -36036,7 +36037,7 @@
       <c r="DA79" s="186"/>
       <c r="DB79" s="186"/>
     </row>
-    <row r="80" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:106" x14ac:dyDescent="0.3">
       <c r="AH80" s="205"/>
       <c r="AI80" s="205"/>
       <c r="CH80" s="171"/>
@@ -36061,7 +36062,7 @@
       <c r="DA80" s="183"/>
       <c r="DB80" s="183"/>
     </row>
-    <row r="81" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A81" s="212" t="s">
         <v>239</v>
       </c>
@@ -36171,7 +36172,7 @@
       <c r="DA81" s="183"/>
       <c r="DB81" s="183"/>
     </row>
-    <row r="82" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="70">
         <v>110</v>
       </c>
@@ -36254,7 +36255,7 @@
         <v>42430</v>
       </c>
       <c r="AB82" s="122">
-        <v>42064</v>
+        <v>42005</v>
       </c>
       <c r="AC82" s="114">
         <v>1008.19</v>
@@ -36278,7 +36279,7 @@
         <v>13028.53</v>
       </c>
       <c r="AJ82" s="74">
-        <v>3.9544000000000001</v>
+        <v>3.9540000000000002</v>
       </c>
       <c r="AK82" s="74">
         <v>66.902000000000001</v>
@@ -36365,7 +36366,7 @@
         <v>0</v>
       </c>
       <c r="BM82" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="BN82" s="114">
         <v>550</v>
@@ -36416,7 +36417,7 @@
         <v>3300</v>
       </c>
       <c r="CD82" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="CE82" s="114">
         <v>0</v>
@@ -36491,7 +36492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="70">
         <v>111</v>
       </c>
@@ -36598,7 +36599,7 @@
         <v>16414.12</v>
       </c>
       <c r="AJ83" s="74">
-        <v>3.9358</v>
+        <v>3.9359999999999999</v>
       </c>
       <c r="AK83" s="74">
         <v>56.375999999999998</v>
@@ -36676,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="BJ83" s="132">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="BK83" s="132">
         <v>3300</v>
@@ -36730,10 +36731,10 @@
         <v>56.375999999999998</v>
       </c>
       <c r="CB83" s="132">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="CC83" s="114">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="CD83" s="114">
         <v>798.43</v>
@@ -36811,7 +36812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:106" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:106" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="70">
         <v>112</v>
       </c>
@@ -37132,7 +37133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="70">
         <v>113</v>
       </c>
@@ -37215,7 +37216,7 @@
         <v>42430</v>
       </c>
       <c r="AB85" s="122">
-        <v>42064</v>
+        <v>42005</v>
       </c>
       <c r="AC85" s="114">
         <v>1019.06</v>
@@ -37326,7 +37327,7 @@
         <v>0</v>
       </c>
       <c r="BM85" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="BN85" s="114">
         <v>550</v>
@@ -37378,7 +37379,7 @@
         <v>3300</v>
       </c>
       <c r="CD85" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="CE85" s="114">
         <v>0</v>
@@ -37453,7 +37454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="70">
         <v>114</v>
       </c>
@@ -37551,16 +37552,16 @@
         <v>1325.55</v>
       </c>
       <c r="AG86" s="114">
-        <v>126674.45</v>
+        <v>129674.45</v>
       </c>
       <c r="AH86" s="114">
-        <v>42328.6</v>
+        <v>42325.51</v>
       </c>
       <c r="AI86" s="114">
         <v>16061.61</v>
       </c>
       <c r="AJ86" s="74">
-        <v>3.9889999999999999</v>
+        <v>3.99</v>
       </c>
       <c r="AK86" s="74">
         <v>57.896000000000001</v>
@@ -37638,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="BJ86" s="132">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="BK86" s="132">
         <v>3300</v>
@@ -37692,10 +37693,10 @@
         <v>57.896000000000001</v>
       </c>
       <c r="CB86" s="132">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="CC86" s="114">
-        <v>3300</v>
+        <v>3300.18</v>
       </c>
       <c r="CD86" s="114">
         <v>798.43</v>
@@ -37710,7 +37711,7 @@
         <v>126.93</v>
       </c>
       <c r="CH86" s="114">
-        <v>42328.6</v>
+        <v>42325.51</v>
       </c>
       <c r="CI86" s="114">
         <v>16061.61</v>
@@ -37773,7 +37774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="70">
         <v>115</v>
       </c>
@@ -37880,7 +37881,7 @@
         <v>12756.35</v>
       </c>
       <c r="AJ87" s="74">
-        <v>4.0026000000000002</v>
+        <v>4.0030000000000001</v>
       </c>
       <c r="AK87" s="74">
         <v>67.817999999999998</v>
@@ -38094,7 +38095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="70">
         <v>116</v>
       </c>
@@ -38201,7 +38202,7 @@
         <v>13010.18</v>
       </c>
       <c r="AJ88" s="74">
-        <v>3.9514</v>
+        <v>3.9510000000000001</v>
       </c>
       <c r="AK88" s="74">
         <v>66.914000000000001</v>
@@ -38288,7 +38289,7 @@
         <v>0</v>
       </c>
       <c r="BM88" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="BN88" s="114">
         <v>550</v>
@@ -38340,7 +38341,7 @@
         <v>3300</v>
       </c>
       <c r="CD88" s="114">
-        <v>790.39</v>
+        <v>750</v>
       </c>
       <c r="CE88" s="114">
         <v>0</v>
@@ -38415,7 +38416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="70">
         <v>117</v>
       </c>
@@ -38522,7 +38523,7 @@
         <v>12873.96</v>
       </c>
       <c r="AJ89" s="74">
-        <v>3.9474999999999998</v>
+        <v>3.948</v>
       </c>
       <c r="AK89" s="74">
         <v>66.704599999999999</v>
@@ -38736,7 +38737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="88">
         <v>118</v>
       </c>
@@ -38956,7 +38957,7 @@
       <c r="DA90" s="186"/>
       <c r="DB90" s="186"/>
     </row>
-    <row r="91" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="88">
         <v>119</v>
       </c>
@@ -39176,7 +39177,7 @@
       <c r="DA91" s="186"/>
       <c r="DB91" s="186"/>
     </row>
-    <row r="92" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="88">
         <v>120</v>
       </c>
@@ -39396,7 +39397,7 @@
       <c r="DA92" s="186"/>
       <c r="DB92" s="186"/>
     </row>
-    <row r="93" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="88">
         <v>121</v>
       </c>
@@ -39616,7 +39617,7 @@
       <c r="DA93" s="186"/>
       <c r="DB93" s="186"/>
     </row>
-    <row r="94" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="88">
         <v>122</v>
       </c>
@@ -39836,7 +39837,7 @@
       <c r="DA94" s="186"/>
       <c r="DB94" s="186"/>
     </row>
-    <row r="95" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="88">
         <v>123</v>
       </c>
@@ -40056,7 +40057,7 @@
       <c r="DA95" s="186"/>
       <c r="DB95" s="186"/>
     </row>
-    <row r="96" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="88">
         <v>124</v>
       </c>
@@ -40278,7 +40279,7 @@
       <c r="DA96" s="186"/>
       <c r="DB96" s="186"/>
     </row>
-    <row r="97" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="88">
         <v>125</v>
       </c>
@@ -40500,7 +40501,7 @@
       <c r="DA97" s="186"/>
       <c r="DB97" s="186"/>
     </row>
-    <row r="98" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH98" s="181"/>
       <c r="CI98" s="181"/>
       <c r="CJ98" s="183"/>
@@ -40523,7 +40524,7 @@
       <c r="DA98" s="183"/>
       <c r="DB98" s="183"/>
     </row>
-    <row r="99" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A99" s="212" t="s">
         <v>240</v>
       </c>
@@ -40633,7 +40634,7 @@
       <c r="DA99" s="183"/>
       <c r="DB99" s="183"/>
     </row>
-    <row r="100" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="88">
         <v>130</v>
       </c>
@@ -40761,7 +40762,7 @@
       <c r="DA100" s="186"/>
       <c r="DB100" s="186"/>
     </row>
-    <row r="101" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="88">
         <v>131</v>
       </c>
@@ -40889,7 +40890,7 @@
       <c r="DA101" s="186"/>
       <c r="DB101" s="186"/>
     </row>
-    <row r="102" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="88">
         <v>132</v>
       </c>
@@ -41017,7 +41018,7 @@
       <c r="DA102" s="186"/>
       <c r="DB102" s="186"/>
     </row>
-    <row r="103" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="88">
         <v>133</v>
       </c>
@@ -41145,7 +41146,7 @@
       <c r="DA103" s="186"/>
       <c r="DB103" s="186"/>
     </row>
-    <row r="104" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="88">
         <v>134</v>
       </c>
@@ -41273,7 +41274,7 @@
       <c r="DA104" s="186"/>
       <c r="DB104" s="186"/>
     </row>
-    <row r="105" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="88">
         <v>135</v>
       </c>
@@ -41401,7 +41402,7 @@
       <c r="DA105" s="186"/>
       <c r="DB105" s="186"/>
     </row>
-    <row r="106" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="88">
         <v>136</v>
       </c>
@@ -41529,7 +41530,7 @@
       <c r="DA106" s="186"/>
       <c r="DB106" s="186"/>
     </row>
-    <row r="107" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="88">
         <v>137</v>
       </c>
@@ -41657,7 +41658,7 @@
       <c r="DA107" s="186"/>
       <c r="DB107" s="186"/>
     </row>
-    <row r="108" spans="1:106" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:106" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="88">
         <v>138</v>
       </c>
@@ -41785,7 +41786,7 @@
       <c r="DA108" s="186"/>
       <c r="DB108" s="186"/>
     </row>
-    <row r="109" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="88">
         <v>139</v>
       </c>
@@ -41913,7 +41914,7 @@
       <c r="DA109" s="186"/>
       <c r="DB109" s="186"/>
     </row>
-    <row r="110" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="88">
         <v>140</v>
       </c>
@@ -42041,7 +42042,7 @@
       <c r="DA110" s="186"/>
       <c r="DB110" s="186"/>
     </row>
-    <row r="111" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="88">
         <v>141</v>
       </c>
@@ -42169,7 +42170,7 @@
       <c r="DA111" s="186"/>
       <c r="DB111" s="186"/>
     </row>
-    <row r="112" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="88">
         <v>142</v>
       </c>
@@ -42297,7 +42298,7 @@
       <c r="DA112" s="186"/>
       <c r="DB112" s="186"/>
     </row>
-    <row r="113" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="88">
         <v>143</v>
       </c>
@@ -42425,7 +42426,7 @@
       <c r="DA113" s="186"/>
       <c r="DB113" s="186"/>
     </row>
-    <row r="114" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="88">
         <v>144</v>
       </c>
@@ -42553,7 +42554,7 @@
       <c r="DA114" s="186"/>
       <c r="DB114" s="186"/>
     </row>
-    <row r="115" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="88">
         <v>145</v>
       </c>
@@ -42681,155 +42682,155 @@
       <c r="DA115" s="186"/>
       <c r="DB115" s="186"/>
     </row>
-    <row r="116" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH116" s="189"/>
       <c r="CI116" s="189"/>
     </row>
-    <row r="117" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH117" s="189"/>
       <c r="CI117" s="189"/>
     </row>
-    <row r="118" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH118" s="189"/>
       <c r="CI118" s="189"/>
     </row>
-    <row r="119" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH119" s="189"/>
       <c r="CI119" s="189"/>
     </row>
-    <row r="120" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH120" s="189"/>
       <c r="CI120" s="189"/>
     </row>
-    <row r="121" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH121" s="189"/>
       <c r="CI121" s="189"/>
     </row>
-    <row r="122" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH122" s="189"/>
       <c r="CI122" s="189"/>
     </row>
-    <row r="123" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH123" s="189"/>
       <c r="CI123" s="189"/>
     </row>
-    <row r="124" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH124" s="189"/>
       <c r="CI124" s="189"/>
     </row>
-    <row r="125" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH125" s="189"/>
       <c r="CI125" s="189"/>
     </row>
-    <row r="126" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH126" s="189"/>
       <c r="CI126" s="189"/>
     </row>
-    <row r="127" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH127" s="189"/>
       <c r="CI127" s="189"/>
     </row>
-    <row r="128" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:106" x14ac:dyDescent="0.3">
       <c r="CH128" s="189"/>
       <c r="CI128" s="189"/>
     </row>
-    <row r="129" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="129" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH129" s="189"/>
       <c r="CI129" s="189"/>
     </row>
-    <row r="130" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="130" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH130" s="189"/>
       <c r="CI130" s="189"/>
     </row>
-    <row r="131" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="131" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH131" s="189"/>
       <c r="CI131" s="189"/>
     </row>
-    <row r="132" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="132" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH132" s="189"/>
       <c r="CI132" s="189"/>
     </row>
-    <row r="133" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="133" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH133" s="189"/>
       <c r="CI133" s="189"/>
     </row>
-    <row r="134" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="134" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH134" s="189"/>
       <c r="CI134" s="189"/>
     </row>
-    <row r="135" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="135" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH135" s="189"/>
       <c r="CI135" s="189"/>
     </row>
-    <row r="136" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="136" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH136" s="189"/>
       <c r="CI136" s="189"/>
     </row>
-    <row r="137" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="137" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH137" s="189"/>
       <c r="CI137" s="189"/>
     </row>
-    <row r="138" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="138" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH138" s="189"/>
       <c r="CI138" s="189"/>
     </row>
-    <row r="139" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="139" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH139" s="189"/>
       <c r="CI139" s="189"/>
     </row>
-    <row r="140" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="140" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH140" s="189"/>
       <c r="CI140" s="189"/>
     </row>
-    <row r="141" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="141" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH141" s="189"/>
       <c r="CI141" s="189"/>
     </row>
-    <row r="142" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="142" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH142" s="189"/>
       <c r="CI142" s="189"/>
     </row>
-    <row r="143" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="143" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH143" s="189"/>
       <c r="CI143" s="189"/>
     </row>
-    <row r="144" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="144" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH144" s="189"/>
       <c r="CI144" s="189"/>
     </row>
-    <row r="145" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="145" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH145" s="189"/>
       <c r="CI145" s="189"/>
     </row>
-    <row r="146" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="146" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH146" s="189"/>
       <c r="CI146" s="189"/>
     </row>
-    <row r="147" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="147" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH147" s="189"/>
       <c r="CI147" s="189"/>
     </row>
-    <row r="148" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="148" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH148" s="189"/>
       <c r="CI148" s="189"/>
     </row>
-    <row r="149" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="149" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH149" s="189"/>
       <c r="CI149" s="189"/>
     </row>
-    <row r="150" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="150" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH150" s="189"/>
       <c r="CI150" s="189"/>
     </row>
-    <row r="151" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="151" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH151" s="189"/>
       <c r="CI151" s="189"/>
     </row>
-    <row r="152" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="152" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH152" s="189"/>
       <c r="CI152" s="189"/>
     </row>
-    <row r="153" spans="86:87" x14ac:dyDescent="0.25">
+    <row r="153" spans="86:87" x14ac:dyDescent="0.3">
       <c r="CH153" s="189"/>
       <c r="CI153" s="189"/>
     </row>
@@ -42851,36 +42852,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F53:F54"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="158" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="25.5703125" style="158" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="158" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.5546875" style="158" customWidth="1"/>
     <col min="7" max="7" width="6" style="158" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="158" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="158" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" style="158" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15" style="158" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.5703125" style="158" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="158" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5546875" style="158" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" style="158" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="158" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.140625" style="158" customWidth="1"/>
+    <col min="16" max="18" width="11.109375" style="158" customWidth="1"/>
     <col min="19" max="20" width="15" style="158" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5703125" style="158" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.140625" style="158" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" style="158" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5546875" style="158" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.109375" style="158" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.88671875" style="158" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17" style="158" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="34.85546875" style="158" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="34.88671875" style="158" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="197" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="197" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="199" t="s">
         <v>33</v>
       </c>
@@ -42961,7 +42962,7 @@
       </c>
       <c r="AA1" s="198"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="145" t="s">
         <v>142</v>
       </c>
@@ -43022,7 +43023,9 @@
       <c r="T2" s="146">
         <v>0</v>
       </c>
-      <c r="U2" s="146"/>
+      <c r="U2" s="146">
+        <v>0</v>
+      </c>
       <c r="V2" s="146">
         <v>0</v>
       </c>
@@ -43039,7 +43042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="145" t="s">
         <v>143</v>
       </c>
@@ -43100,7 +43103,9 @@
       <c r="T3" s="146">
         <v>0</v>
       </c>
-      <c r="U3" s="146"/>
+      <c r="U3" s="146">
+        <v>0</v>
+      </c>
       <c r="V3" s="146">
         <v>0</v>
       </c>
@@ -43117,7 +43122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="145" t="s">
         <v>150</v>
       </c>
@@ -43178,7 +43183,9 @@
       <c r="T4" s="146">
         <v>0</v>
       </c>
-      <c r="U4" s="146"/>
+      <c r="U4" s="146">
+        <v>0</v>
+      </c>
       <c r="V4" s="146">
         <v>0</v>
       </c>
@@ -43195,7 +43202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="145" t="s">
         <v>151</v>
       </c>
@@ -43256,7 +43263,9 @@
       <c r="T5" s="146">
         <v>0</v>
       </c>
-      <c r="U5" s="146"/>
+      <c r="U5" s="146">
+        <v>0</v>
+      </c>
       <c r="V5" s="146">
         <v>0</v>
       </c>
@@ -43273,7 +43282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="145" t="s">
         <v>144</v>
       </c>
@@ -43334,7 +43343,9 @@
       <c r="T6" s="146">
         <v>0</v>
       </c>
-      <c r="U6" s="146"/>
+      <c r="U6" s="146">
+        <v>0</v>
+      </c>
       <c r="V6" s="146">
         <v>0</v>
       </c>
@@ -43351,7 +43362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="145" t="s">
         <v>161</v>
       </c>
@@ -43412,9 +43423,11 @@
       <c r="T7" s="146">
         <v>0</v>
       </c>
-      <c r="U7" s="146"/>
+      <c r="U7" s="146">
+        <v>0</v>
+      </c>
       <c r="V7" s="159">
-        <v>80.78</v>
+        <v>40.39</v>
       </c>
       <c r="W7" s="159">
         <v>0</v>
@@ -43429,7 +43442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="145" t="s">
         <v>162</v>
       </c>
@@ -43490,7 +43503,9 @@
       <c r="T8" s="146">
         <v>0</v>
       </c>
-      <c r="U8" s="146"/>
+      <c r="U8" s="146">
+        <v>0</v>
+      </c>
       <c r="V8" s="159">
         <v>0</v>
       </c>
@@ -43507,7 +43522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="145" t="s">
         <v>164</v>
       </c>
@@ -43568,7 +43583,9 @@
       <c r="T9" s="146">
         <v>0</v>
       </c>
-      <c r="U9" s="146"/>
+      <c r="U9" s="146">
+        <v>0</v>
+      </c>
       <c r="V9" s="146">
         <v>0</v>
       </c>
@@ -43585,7 +43602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="145" t="s">
         <v>145</v>
       </c>
@@ -43646,7 +43663,9 @@
       <c r="T10" s="146">
         <v>0</v>
       </c>
-      <c r="U10" s="146"/>
+      <c r="U10" s="146">
+        <v>0</v>
+      </c>
       <c r="V10" s="146">
         <v>0</v>
       </c>
@@ -43663,7 +43682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="145" t="s">
         <v>165</v>
       </c>
@@ -43724,9 +43743,11 @@
       <c r="T11" s="146">
         <v>0</v>
       </c>
-      <c r="U11" s="146"/>
+      <c r="U11" s="146">
+        <v>0</v>
+      </c>
       <c r="V11" s="146">
-        <v>80.78</v>
+        <v>40.39</v>
       </c>
       <c r="W11" s="159">
         <v>0</v>
@@ -43741,7 +43762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="145" t="s">
         <v>166</v>
       </c>
@@ -43802,7 +43823,9 @@
       <c r="T12" s="146">
         <v>0</v>
       </c>
-      <c r="U12" s="146"/>
+      <c r="U12" s="146">
+        <v>0</v>
+      </c>
       <c r="V12" s="159">
         <v>0</v>
       </c>
@@ -43819,7 +43842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="166" t="s">
         <v>167</v>
       </c>
@@ -43880,7 +43903,9 @@
       <c r="T13" s="146">
         <v>0</v>
       </c>
-      <c r="U13" s="146"/>
+      <c r="U13" s="146">
+        <v>0</v>
+      </c>
       <c r="V13" s="146">
         <v>0</v>
       </c>
@@ -43897,7 +43922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="166" t="s">
         <v>146</v>
       </c>
@@ -43958,7 +43983,9 @@
       <c r="T14" s="146">
         <v>0</v>
       </c>
-      <c r="U14" s="146"/>
+      <c r="U14" s="146">
+        <v>0</v>
+      </c>
       <c r="V14" s="146">
         <v>0</v>
       </c>
@@ -43975,7 +44002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="144" t="s">
         <v>168</v>
       </c>
@@ -44036,9 +44063,11 @@
       <c r="T15" s="146">
         <v>0</v>
       </c>
-      <c r="U15" s="146"/>
+      <c r="U15" s="146">
+        <v>0</v>
+      </c>
       <c r="V15" s="146">
-        <v>80.78</v>
+        <v>40.39</v>
       </c>
       <c r="W15" s="159">
         <v>0</v>
@@ -44053,7 +44082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="148" t="s">
         <v>169</v>
       </c>
@@ -44114,7 +44143,9 @@
       <c r="T16" s="146">
         <v>0</v>
       </c>
-      <c r="U16" s="146"/>
+      <c r="U16" s="146">
+        <v>0</v>
+      </c>
       <c r="V16" s="146">
         <v>0</v>
       </c>
@@ -44131,7 +44162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="148" t="s">
         <v>170</v>
       </c>
@@ -44192,7 +44223,9 @@
       <c r="T17" s="146">
         <v>0</v>
       </c>
-      <c r="U17" s="146"/>
+      <c r="U17" s="146">
+        <v>0</v>
+      </c>
       <c r="V17" s="146">
         <v>0</v>
       </c>
@@ -44209,7 +44242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="148" t="s">
         <v>189</v>
       </c>
@@ -44270,7 +44303,9 @@
       <c r="T18" s="146">
         <v>0</v>
       </c>
-      <c r="U18" s="146"/>
+      <c r="U18" s="146">
+        <v>0</v>
+      </c>
       <c r="V18" s="146">
         <v>0</v>
       </c>
@@ -44287,7 +44322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="145" t="s">
         <v>197</v>
       </c>
@@ -44348,7 +44383,9 @@
       <c r="T19" s="146">
         <v>0</v>
       </c>
-      <c r="U19" s="146"/>
+      <c r="U19" s="146">
+        <v>0</v>
+      </c>
       <c r="V19" s="146">
         <v>0</v>
       </c>
@@ -44365,7 +44402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="145" t="s">
         <v>235</v>
       </c>
@@ -44426,7 +44463,9 @@
       <c r="T20" s="146">
         <v>0</v>
       </c>
-      <c r="U20" s="146"/>
+      <c r="U20" s="146">
+        <v>0</v>
+      </c>
       <c r="V20" s="146">
         <v>0</v>
       </c>
@@ -44443,7 +44482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="145" t="s">
         <v>220</v>
       </c>
@@ -44504,7 +44543,9 @@
       <c r="T21" s="146">
         <v>0</v>
       </c>
-      <c r="U21" s="146"/>
+      <c r="U21" s="146">
+        <v>0</v>
+      </c>
       <c r="V21" s="146">
         <v>0</v>
       </c>
@@ -44521,7 +44562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="145" t="s">
         <v>222</v>
       </c>
@@ -44582,7 +44623,9 @@
       <c r="T22" s="146">
         <v>0</v>
       </c>
-      <c r="U22" s="146"/>
+      <c r="U22" s="146">
+        <v>0</v>
+      </c>
       <c r="V22" s="146">
         <v>0</v>
       </c>
@@ -44599,7 +44642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="145" t="s">
         <v>226</v>
       </c>
@@ -44660,7 +44703,9 @@
       <c r="T23" s="146">
         <v>0</v>
       </c>
-      <c r="U23" s="146"/>
+      <c r="U23" s="146">
+        <v>0</v>
+      </c>
       <c r="V23" s="146">
         <v>0</v>
       </c>
@@ -44677,7 +44722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="145" t="s">
         <v>224</v>
       </c>
@@ -44738,7 +44783,9 @@
       <c r="T24" s="146">
         <v>0</v>
       </c>
-      <c r="U24" s="146"/>
+      <c r="U24" s="146">
+        <v>0</v>
+      </c>
       <c r="V24" s="159">
         <v>0</v>
       </c>
@@ -44755,7 +44802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="145" t="s">
         <v>225</v>
       </c>
@@ -44816,7 +44863,9 @@
       <c r="T25" s="146">
         <v>0</v>
       </c>
-      <c r="U25" s="146"/>
+      <c r="U25" s="146">
+        <v>0</v>
+      </c>
       <c r="V25" s="159">
         <v>0</v>
       </c>
@@ -44833,7 +44882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="145"/>
       <c r="B26" s="145"/>
       <c r="C26" s="145"/>
@@ -44861,7 +44910,7 @@
       <c r="Y26" s="146"/>
       <c r="Z26" s="146"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="212" t="s">
         <v>236</v>
       </c>
@@ -44891,7 +44940,7 @@
       <c r="Y27" s="146"/>
       <c r="Z27" s="146"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="145">
         <v>50</v>
       </c>
@@ -44923,36 +44972,38 @@
         <v>0</v>
       </c>
       <c r="K28" s="146">
+        <v>0</v>
+      </c>
+      <c r="L28" s="146">
+        <v>0</v>
+      </c>
+      <c r="M28" s="146">
+        <v>0</v>
+      </c>
+      <c r="N28" s="146">
+        <v>0</v>
+      </c>
+      <c r="O28" s="146">
+        <v>0</v>
+      </c>
+      <c r="P28" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="146">
+        <v>0</v>
+      </c>
+      <c r="R28" s="146">
+        <v>0</v>
+      </c>
+      <c r="S28" s="146">
+        <v>0</v>
+      </c>
+      <c r="T28" s="146">
+        <v>0</v>
+      </c>
+      <c r="U28" s="146">
         <v>67.3</v>
       </c>
-      <c r="L28" s="146">
-        <v>0</v>
-      </c>
-      <c r="M28" s="146">
-        <v>0</v>
-      </c>
-      <c r="N28" s="146">
-        <v>0</v>
-      </c>
-      <c r="O28" s="146">
-        <v>0</v>
-      </c>
-      <c r="P28" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="146">
-        <v>0</v>
-      </c>
-      <c r="R28" s="146">
-        <v>0</v>
-      </c>
-      <c r="S28" s="146">
-        <v>67.3</v>
-      </c>
-      <c r="T28" s="146">
-        <v>0</v>
-      </c>
-      <c r="U28" s="146"/>
       <c r="V28" s="159">
         <v>0</v>
       </c>
@@ -44970,7 +45021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="145">
         <v>51</v>
       </c>
@@ -45031,7 +45082,9 @@
       <c r="T29" s="146">
         <v>0</v>
       </c>
-      <c r="U29" s="146"/>
+      <c r="U29" s="146">
+        <v>0</v>
+      </c>
       <c r="V29" s="159">
         <v>0</v>
       </c>
@@ -45048,7 +45101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="145">
         <v>52</v>
       </c>
@@ -45080,36 +45133,38 @@
         <v>0</v>
       </c>
       <c r="K30" s="146">
+        <v>0</v>
+      </c>
+      <c r="L30" s="146">
+        <v>0</v>
+      </c>
+      <c r="M30" s="146">
+        <v>0</v>
+      </c>
+      <c r="N30" s="146">
+        <v>0</v>
+      </c>
+      <c r="O30" s="146">
+        <v>0</v>
+      </c>
+      <c r="P30" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="146">
+        <v>0</v>
+      </c>
+      <c r="R30" s="146">
+        <v>0</v>
+      </c>
+      <c r="S30" s="146">
+        <v>0</v>
+      </c>
+      <c r="T30" s="146">
+        <v>0</v>
+      </c>
+      <c r="U30" s="146">
         <v>67.3</v>
       </c>
-      <c r="L30" s="146">
-        <v>0</v>
-      </c>
-      <c r="M30" s="146">
-        <v>0</v>
-      </c>
-      <c r="N30" s="146">
-        <v>0</v>
-      </c>
-      <c r="O30" s="146">
-        <v>0</v>
-      </c>
-      <c r="P30" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="146">
-        <v>0</v>
-      </c>
-      <c r="R30" s="146">
-        <v>0</v>
-      </c>
-      <c r="S30" s="146">
-        <v>67.3</v>
-      </c>
-      <c r="T30" s="146">
-        <v>0</v>
-      </c>
-      <c r="U30" s="146"/>
       <c r="V30" s="159">
         <v>0</v>
       </c>
@@ -45126,7 +45181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="145">
         <v>53</v>
       </c>
@@ -45158,36 +45213,38 @@
         <v>0</v>
       </c>
       <c r="K31" s="146">
+        <v>0</v>
+      </c>
+      <c r="L31" s="146">
+        <v>0</v>
+      </c>
+      <c r="M31" s="146">
+        <v>0</v>
+      </c>
+      <c r="N31" s="146">
+        <v>0</v>
+      </c>
+      <c r="O31" s="146">
+        <v>0</v>
+      </c>
+      <c r="P31" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="146">
+        <v>0</v>
+      </c>
+      <c r="R31" s="146">
+        <v>0</v>
+      </c>
+      <c r="S31" s="146">
+        <v>0</v>
+      </c>
+      <c r="T31" s="146">
+        <v>0</v>
+      </c>
+      <c r="U31" s="146">
         <v>68.25</v>
       </c>
-      <c r="L31" s="146">
-        <v>0</v>
-      </c>
-      <c r="M31" s="146">
-        <v>0</v>
-      </c>
-      <c r="N31" s="146">
-        <v>0</v>
-      </c>
-      <c r="O31" s="146">
-        <v>0</v>
-      </c>
-      <c r="P31" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="146">
-        <v>0</v>
-      </c>
-      <c r="R31" s="146">
-        <v>0</v>
-      </c>
-      <c r="S31" s="146">
-        <v>68.25</v>
-      </c>
-      <c r="T31" s="146">
-        <v>0</v>
-      </c>
-      <c r="U31" s="146"/>
       <c r="V31" s="159">
         <v>0</v>
       </c>
@@ -45204,7 +45261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="145">
         <v>54</v>
       </c>
@@ -45265,7 +45322,9 @@
       <c r="T32" s="146">
         <v>0</v>
       </c>
-      <c r="U32" s="146"/>
+      <c r="U32" s="146">
+        <v>0</v>
+      </c>
       <c r="V32" s="159">
         <v>0</v>
       </c>
@@ -45282,7 +45341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="145">
         <v>55</v>
       </c>
@@ -45314,36 +45373,38 @@
         <v>0</v>
       </c>
       <c r="K33" s="146">
+        <v>0</v>
+      </c>
+      <c r="L33" s="146">
+        <v>0</v>
+      </c>
+      <c r="M33" s="146">
+        <v>0</v>
+      </c>
+      <c r="N33" s="146">
+        <v>0</v>
+      </c>
+      <c r="O33" s="146">
+        <v>0</v>
+      </c>
+      <c r="P33" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="146">
+        <v>0</v>
+      </c>
+      <c r="R33" s="146">
+        <v>0</v>
+      </c>
+      <c r="S33" s="146">
+        <v>0</v>
+      </c>
+      <c r="T33" s="146">
+        <v>0</v>
+      </c>
+      <c r="U33" s="146">
         <v>68.25</v>
       </c>
-      <c r="L33" s="146">
-        <v>0</v>
-      </c>
-      <c r="M33" s="146">
-        <v>0</v>
-      </c>
-      <c r="N33" s="146">
-        <v>0</v>
-      </c>
-      <c r="O33" s="146">
-        <v>0</v>
-      </c>
-      <c r="P33" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="146">
-        <v>0</v>
-      </c>
-      <c r="R33" s="146">
-        <v>0</v>
-      </c>
-      <c r="S33" s="146">
-        <v>68.25</v>
-      </c>
-      <c r="T33" s="146">
-        <v>0</v>
-      </c>
-      <c r="U33" s="146"/>
       <c r="V33" s="159">
         <v>0</v>
       </c>
@@ -45360,7 +45421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="145">
         <v>56</v>
       </c>
@@ -45392,36 +45453,38 @@
         <v>0</v>
       </c>
       <c r="K34" s="146">
+        <v>0</v>
+      </c>
+      <c r="L34" s="146">
+        <v>0</v>
+      </c>
+      <c r="M34" s="146">
+        <v>0</v>
+      </c>
+      <c r="N34" s="146">
+        <v>0</v>
+      </c>
+      <c r="O34" s="146">
+        <v>0</v>
+      </c>
+      <c r="P34" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="146">
+        <v>0</v>
+      </c>
+      <c r="R34" s="146">
+        <v>0</v>
+      </c>
+      <c r="S34" s="146">
+        <v>0</v>
+      </c>
+      <c r="T34" s="146">
+        <v>0</v>
+      </c>
+      <c r="U34" s="146">
         <v>68.23</v>
       </c>
-      <c r="L34" s="146">
-        <v>0</v>
-      </c>
-      <c r="M34" s="146">
-        <v>0</v>
-      </c>
-      <c r="N34" s="146">
-        <v>0</v>
-      </c>
-      <c r="O34" s="146">
-        <v>0</v>
-      </c>
-      <c r="P34" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="146">
-        <v>0</v>
-      </c>
-      <c r="R34" s="146">
-        <v>0</v>
-      </c>
-      <c r="S34" s="146">
-        <v>68.23</v>
-      </c>
-      <c r="T34" s="146">
-        <v>0</v>
-      </c>
-      <c r="U34" s="146"/>
       <c r="V34" s="159">
         <v>0</v>
       </c>
@@ -45438,7 +45501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="145">
         <v>57</v>
       </c>
@@ -45470,36 +45533,38 @@
         <v>0</v>
       </c>
       <c r="K35" s="146">
+        <v>0</v>
+      </c>
+      <c r="L35" s="146">
+        <v>0</v>
+      </c>
+      <c r="M35" s="146">
+        <v>0</v>
+      </c>
+      <c r="N35" s="146">
+        <v>0</v>
+      </c>
+      <c r="O35" s="146">
+        <v>0</v>
+      </c>
+      <c r="P35" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="146">
+        <v>0</v>
+      </c>
+      <c r="R35" s="146">
+        <v>0</v>
+      </c>
+      <c r="S35" s="146">
+        <v>0</v>
+      </c>
+      <c r="T35" s="146">
+        <v>0</v>
+      </c>
+      <c r="U35" s="146">
         <v>68.23</v>
       </c>
-      <c r="L35" s="146">
-        <v>0</v>
-      </c>
-      <c r="M35" s="146">
-        <v>0</v>
-      </c>
-      <c r="N35" s="146">
-        <v>0</v>
-      </c>
-      <c r="O35" s="146">
-        <v>0</v>
-      </c>
-      <c r="P35" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="146">
-        <v>0</v>
-      </c>
-      <c r="R35" s="146">
-        <v>0</v>
-      </c>
-      <c r="S35" s="146">
-        <v>68.23</v>
-      </c>
-      <c r="T35" s="146">
-        <v>0</v>
-      </c>
-      <c r="U35" s="146"/>
       <c r="V35" s="159">
         <v>0</v>
       </c>
@@ -45516,7 +45581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="88">
         <v>58</v>
       </c>
@@ -45548,7 +45613,7 @@
       <c r="Y36" s="146"/>
       <c r="Z36" s="146"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="88">
         <v>59</v>
       </c>
@@ -45580,7 +45645,7 @@
       <c r="Y37" s="146"/>
       <c r="Z37" s="146"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="88">
         <v>60</v>
       </c>
@@ -45614,7 +45679,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="88">
         <v>61</v>
       </c>
@@ -45646,7 +45711,7 @@
       <c r="Y39" s="146"/>
       <c r="Z39" s="146"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="88">
         <v>62</v>
       </c>
@@ -45678,7 +45743,7 @@
       <c r="Y40" s="146"/>
       <c r="Z40" s="146"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="88">
         <v>63</v>
       </c>
@@ -45710,7 +45775,7 @@
       <c r="Y41" s="146"/>
       <c r="Z41" s="146"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="88">
         <v>64</v>
       </c>
@@ -45742,7 +45807,7 @@
       <c r="Y42" s="146"/>
       <c r="Z42" s="146"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="88">
         <v>65</v>
       </c>
@@ -45774,7 +45839,7 @@
       <c r="Y43" s="146"/>
       <c r="Z43" s="146"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D44" s="146"/>
       <c r="E44" s="146"/>
       <c r="F44" s="146"/>
@@ -45799,7 +45864,7 @@
       <c r="Y44" s="146"/>
       <c r="Z44" s="146"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="212" t="s">
         <v>237</v>
       </c>
@@ -45829,7 +45894,7 @@
       <c r="Y45" s="146"/>
       <c r="Z45" s="146"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="145">
         <v>70</v>
       </c>
@@ -45861,38 +45926,40 @@
         <v>0</v>
       </c>
       <c r="K46" s="146">
+        <v>0</v>
+      </c>
+      <c r="L46" s="146">
+        <v>0</v>
+      </c>
+      <c r="M46" s="146">
+        <v>0</v>
+      </c>
+      <c r="N46" s="146">
+        <v>0</v>
+      </c>
+      <c r="O46" s="146">
+        <v>0</v>
+      </c>
+      <c r="P46" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="146">
+        <v>0</v>
+      </c>
+      <c r="R46" s="146">
+        <v>0</v>
+      </c>
+      <c r="S46" s="146">
+        <v>0</v>
+      </c>
+      <c r="T46" s="146">
+        <v>0</v>
+      </c>
+      <c r="U46" s="146">
         <v>67.3</v>
       </c>
-      <c r="L46" s="146">
-        <v>0</v>
-      </c>
-      <c r="M46" s="146">
-        <v>0</v>
-      </c>
-      <c r="N46" s="146">
-        <v>0</v>
-      </c>
-      <c r="O46" s="146">
-        <v>0</v>
-      </c>
-      <c r="P46" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="146">
-        <v>0</v>
-      </c>
-      <c r="R46" s="146">
-        <v>0</v>
-      </c>
-      <c r="S46" s="146">
-        <v>67.3</v>
-      </c>
-      <c r="T46" s="146">
-        <v>0</v>
-      </c>
-      <c r="U46" s="146"/>
       <c r="V46" s="169">
-        <v>80.78</v>
+        <v>40.39</v>
       </c>
       <c r="W46" s="160">
         <v>0</v>
@@ -45907,7 +45974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="145">
         <v>71</v>
       </c>
@@ -45968,7 +46035,9 @@
       <c r="T47" s="146">
         <v>0</v>
       </c>
-      <c r="U47" s="146"/>
+      <c r="U47" s="146">
+        <v>0</v>
+      </c>
       <c r="V47" s="170">
         <v>0</v>
       </c>
@@ -45985,7 +46054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="145">
         <v>72</v>
       </c>
@@ -46017,36 +46086,38 @@
         <v>0</v>
       </c>
       <c r="K48" s="146">
+        <v>0</v>
+      </c>
+      <c r="L48" s="146">
+        <v>0</v>
+      </c>
+      <c r="M48" s="146">
+        <v>0</v>
+      </c>
+      <c r="N48" s="146">
+        <v>0</v>
+      </c>
+      <c r="O48" s="146">
+        <v>0</v>
+      </c>
+      <c r="P48" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="146">
+        <v>0</v>
+      </c>
+      <c r="R48" s="146">
+        <v>0</v>
+      </c>
+      <c r="S48" s="146">
+        <v>0</v>
+      </c>
+      <c r="T48" s="146">
+        <v>0</v>
+      </c>
+      <c r="U48" s="146">
         <v>67.3</v>
       </c>
-      <c r="L48" s="146">
-        <v>0</v>
-      </c>
-      <c r="M48" s="146">
-        <v>0</v>
-      </c>
-      <c r="N48" s="146">
-        <v>0</v>
-      </c>
-      <c r="O48" s="146">
-        <v>0</v>
-      </c>
-      <c r="P48" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="146">
-        <v>0</v>
-      </c>
-      <c r="R48" s="146">
-        <v>0</v>
-      </c>
-      <c r="S48" s="146">
-        <v>67.3</v>
-      </c>
-      <c r="T48" s="146">
-        <v>0</v>
-      </c>
-      <c r="U48" s="146"/>
       <c r="V48" s="170">
         <v>0</v>
       </c>
@@ -46063,7 +46134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="145">
         <v>73</v>
       </c>
@@ -46095,38 +46166,40 @@
         <v>0</v>
       </c>
       <c r="K49" s="146">
+        <v>0</v>
+      </c>
+      <c r="L49" s="146">
+        <v>0</v>
+      </c>
+      <c r="M49" s="146">
+        <v>0</v>
+      </c>
+      <c r="N49" s="146">
+        <v>0</v>
+      </c>
+      <c r="O49" s="146">
+        <v>0</v>
+      </c>
+      <c r="P49" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="146">
+        <v>0</v>
+      </c>
+      <c r="R49" s="146">
+        <v>0</v>
+      </c>
+      <c r="S49" s="146">
+        <v>0</v>
+      </c>
+      <c r="T49" s="146">
+        <v>0</v>
+      </c>
+      <c r="U49" s="146">
         <v>68.25</v>
       </c>
-      <c r="L49" s="146">
-        <v>0</v>
-      </c>
-      <c r="M49" s="146">
-        <v>0</v>
-      </c>
-      <c r="N49" s="146">
-        <v>0</v>
-      </c>
-      <c r="O49" s="146">
-        <v>0</v>
-      </c>
-      <c r="P49" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="146">
-        <v>0</v>
-      </c>
-      <c r="R49" s="146">
-        <v>0</v>
-      </c>
-      <c r="S49" s="146">
-        <v>68.25</v>
-      </c>
-      <c r="T49" s="146">
-        <v>0</v>
-      </c>
-      <c r="U49" s="146"/>
       <c r="V49" s="169">
-        <v>80.78</v>
+        <v>40.39</v>
       </c>
       <c r="W49" s="160">
         <v>0</v>
@@ -46141,7 +46214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="145">
         <v>74</v>
       </c>
@@ -46202,7 +46275,9 @@
       <c r="T50" s="146">
         <v>0</v>
       </c>
-      <c r="U50" s="146"/>
+      <c r="U50" s="146">
+        <v>0</v>
+      </c>
       <c r="V50" s="170">
         <v>0</v>
       </c>
@@ -46219,7 +46294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="145">
         <v>75</v>
       </c>
@@ -46251,36 +46326,38 @@
         <v>0</v>
       </c>
       <c r="K51" s="146">
+        <v>0</v>
+      </c>
+      <c r="L51" s="146">
+        <v>0</v>
+      </c>
+      <c r="M51" s="146">
+        <v>0</v>
+      </c>
+      <c r="N51" s="146">
+        <v>0</v>
+      </c>
+      <c r="O51" s="146">
+        <v>0</v>
+      </c>
+      <c r="P51" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="146">
+        <v>0</v>
+      </c>
+      <c r="R51" s="146">
+        <v>0</v>
+      </c>
+      <c r="S51" s="146">
+        <v>0</v>
+      </c>
+      <c r="T51" s="146">
+        <v>0</v>
+      </c>
+      <c r="U51" s="146">
         <v>68.25</v>
       </c>
-      <c r="L51" s="146">
-        <v>0</v>
-      </c>
-      <c r="M51" s="146">
-        <v>0</v>
-      </c>
-      <c r="N51" s="146">
-        <v>0</v>
-      </c>
-      <c r="O51" s="146">
-        <v>0</v>
-      </c>
-      <c r="P51" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="146">
-        <v>0</v>
-      </c>
-      <c r="R51" s="146">
-        <v>0</v>
-      </c>
-      <c r="S51" s="146">
-        <v>68.25</v>
-      </c>
-      <c r="T51" s="146">
-        <v>0</v>
-      </c>
-      <c r="U51" s="146"/>
       <c r="V51" s="170">
         <v>0</v>
       </c>
@@ -46297,7 +46374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="145">
         <v>76</v>
       </c>
@@ -46329,38 +46406,40 @@
         <v>0</v>
       </c>
       <c r="K52" s="146">
+        <v>0</v>
+      </c>
+      <c r="L52" s="146">
+        <v>0</v>
+      </c>
+      <c r="M52" s="146">
+        <v>0</v>
+      </c>
+      <c r="N52" s="146">
+        <v>0</v>
+      </c>
+      <c r="O52" s="146">
+        <v>0</v>
+      </c>
+      <c r="P52" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="146">
+        <v>0</v>
+      </c>
+      <c r="R52" s="146">
+        <v>0</v>
+      </c>
+      <c r="S52" s="146">
+        <v>0</v>
+      </c>
+      <c r="T52" s="146">
+        <v>0</v>
+      </c>
+      <c r="U52" s="146">
         <v>68.23</v>
       </c>
-      <c r="L52" s="146">
-        <v>0</v>
-      </c>
-      <c r="M52" s="146">
-        <v>0</v>
-      </c>
-      <c r="N52" s="146">
-        <v>0</v>
-      </c>
-      <c r="O52" s="146">
-        <v>0</v>
-      </c>
-      <c r="P52" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="146">
-        <v>0</v>
-      </c>
-      <c r="R52" s="146">
-        <v>0</v>
-      </c>
-      <c r="S52" s="146">
-        <v>68.23</v>
-      </c>
-      <c r="T52" s="146">
-        <v>0</v>
-      </c>
-      <c r="U52" s="146"/>
       <c r="V52" s="169">
-        <v>80.78</v>
+        <v>40.39</v>
       </c>
       <c r="W52" s="160">
         <v>0</v>
@@ -46375,7 +46454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="145">
         <v>77</v>
       </c>
@@ -46407,36 +46486,38 @@
         <v>0</v>
       </c>
       <c r="K53" s="146">
+        <v>0</v>
+      </c>
+      <c r="L53" s="146">
+        <v>0</v>
+      </c>
+      <c r="M53" s="146">
+        <v>0</v>
+      </c>
+      <c r="N53" s="146">
+        <v>0</v>
+      </c>
+      <c r="O53" s="146">
+        <v>0</v>
+      </c>
+      <c r="P53" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="146">
+        <v>0</v>
+      </c>
+      <c r="R53" s="146">
+        <v>0</v>
+      </c>
+      <c r="S53" s="146">
+        <v>0</v>
+      </c>
+      <c r="T53" s="146">
+        <v>0</v>
+      </c>
+      <c r="U53" s="146">
         <v>68.23</v>
       </c>
-      <c r="L53" s="146">
-        <v>0</v>
-      </c>
-      <c r="M53" s="146">
-        <v>0</v>
-      </c>
-      <c r="N53" s="146">
-        <v>0</v>
-      </c>
-      <c r="O53" s="146">
-        <v>0</v>
-      </c>
-      <c r="P53" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="146">
-        <v>0</v>
-      </c>
-      <c r="R53" s="146">
-        <v>0</v>
-      </c>
-      <c r="S53" s="146">
-        <v>68.23</v>
-      </c>
-      <c r="T53" s="146">
-        <v>0</v>
-      </c>
-      <c r="U53" s="146"/>
       <c r="V53" s="170">
         <v>0</v>
       </c>
@@ -46453,7 +46534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="88">
         <v>78</v>
       </c>
@@ -46483,7 +46564,7 @@
       <c r="Y54" s="146"/>
       <c r="Z54" s="146"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="88">
         <v>79</v>
       </c>
@@ -46513,7 +46594,7 @@
       <c r="Y55" s="146"/>
       <c r="Z55" s="146"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="88">
         <v>80</v>
       </c>
@@ -46543,7 +46624,7 @@
       <c r="Y56" s="146"/>
       <c r="Z56" s="146"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="88">
         <v>81</v>
       </c>
@@ -46573,7 +46654,7 @@
       <c r="Y57" s="146"/>
       <c r="Z57" s="146"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="88">
         <v>82</v>
       </c>
@@ -46603,7 +46684,7 @@
       <c r="Y58" s="146"/>
       <c r="Z58" s="146"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="88">
         <v>83</v>
       </c>
@@ -46633,7 +46714,7 @@
       <c r="Y59" s="146"/>
       <c r="Z59" s="146"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="88">
         <v>84</v>
       </c>
@@ -46663,7 +46744,7 @@
       <c r="Y60" s="146"/>
       <c r="Z60" s="146"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="88">
         <v>85</v>
       </c>
@@ -46693,7 +46774,7 @@
       <c r="Y61" s="146"/>
       <c r="Z61" s="146"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D62" s="146"/>
       <c r="E62" s="146"/>
       <c r="F62" s="146"/>
@@ -46718,7 +46799,7 @@
       <c r="Y62" s="146"/>
       <c r="Z62" s="146"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="212" t="s">
         <v>238</v>
       </c>
@@ -46748,7 +46829,7 @@
       <c r="Y63" s="146"/>
       <c r="Z63" s="146"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="145">
         <v>90</v>
       </c>
@@ -46780,36 +46861,38 @@
         <v>0</v>
       </c>
       <c r="K64" s="146">
+        <v>0</v>
+      </c>
+      <c r="L64" s="146">
+        <v>0</v>
+      </c>
+      <c r="M64" s="146">
+        <v>0</v>
+      </c>
+      <c r="N64" s="146">
+        <v>0</v>
+      </c>
+      <c r="O64" s="146">
+        <v>0</v>
+      </c>
+      <c r="P64" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="146">
+        <v>0</v>
+      </c>
+      <c r="R64" s="146">
+        <v>0</v>
+      </c>
+      <c r="S64" s="146">
+        <v>0</v>
+      </c>
+      <c r="T64" s="146">
+        <v>0</v>
+      </c>
+      <c r="U64" s="146">
         <v>67.3</v>
       </c>
-      <c r="L64" s="146">
-        <v>0</v>
-      </c>
-      <c r="M64" s="146">
-        <v>0</v>
-      </c>
-      <c r="N64" s="146">
-        <v>0</v>
-      </c>
-      <c r="O64" s="146">
-        <v>0</v>
-      </c>
-      <c r="P64" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="146">
-        <v>0</v>
-      </c>
-      <c r="R64" s="146">
-        <v>0</v>
-      </c>
-      <c r="S64" s="146">
-        <v>67.3</v>
-      </c>
-      <c r="T64" s="146">
-        <v>0</v>
-      </c>
-      <c r="U64" s="146"/>
       <c r="V64" s="146">
         <v>0</v>
       </c>
@@ -46827,7 +46910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="145">
         <v>91</v>
       </c>
@@ -46888,7 +46971,9 @@
       <c r="T65" s="146">
         <v>0</v>
       </c>
-      <c r="U65" s="146"/>
+      <c r="U65" s="146">
+        <v>0</v>
+      </c>
       <c r="V65" s="146">
         <v>0</v>
       </c>
@@ -46905,7 +46990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="145">
         <v>92</v>
       </c>
@@ -46937,36 +47022,38 @@
         <v>0</v>
       </c>
       <c r="K66" s="146">
+        <v>0</v>
+      </c>
+      <c r="L66" s="146">
+        <v>0</v>
+      </c>
+      <c r="M66" s="146">
+        <v>0</v>
+      </c>
+      <c r="N66" s="146">
+        <v>0</v>
+      </c>
+      <c r="O66" s="146">
+        <v>0</v>
+      </c>
+      <c r="P66" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="146">
+        <v>0</v>
+      </c>
+      <c r="R66" s="146">
+        <v>0</v>
+      </c>
+      <c r="S66" s="146">
+        <v>0</v>
+      </c>
+      <c r="T66" s="146">
+        <v>0</v>
+      </c>
+      <c r="U66" s="146">
         <v>67.3</v>
       </c>
-      <c r="L66" s="146">
-        <v>0</v>
-      </c>
-      <c r="M66" s="146">
-        <v>0</v>
-      </c>
-      <c r="N66" s="146">
-        <v>0</v>
-      </c>
-      <c r="O66" s="146">
-        <v>0</v>
-      </c>
-      <c r="P66" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="146">
-        <v>0</v>
-      </c>
-      <c r="R66" s="146">
-        <v>0</v>
-      </c>
-      <c r="S66" s="146">
-        <v>67.3</v>
-      </c>
-      <c r="T66" s="146">
-        <v>0</v>
-      </c>
-      <c r="U66" s="146"/>
       <c r="V66" s="146">
         <v>0</v>
       </c>
@@ -46983,7 +47070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="145">
         <v>93</v>
       </c>
@@ -47015,36 +47102,38 @@
         <v>0</v>
       </c>
       <c r="K67" s="146">
+        <v>0</v>
+      </c>
+      <c r="L67" s="146">
+        <v>0</v>
+      </c>
+      <c r="M67" s="146">
+        <v>0</v>
+      </c>
+      <c r="N67" s="146">
+        <v>0</v>
+      </c>
+      <c r="O67" s="146">
+        <v>0</v>
+      </c>
+      <c r="P67" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="146">
+        <v>0</v>
+      </c>
+      <c r="R67" s="146">
+        <v>0</v>
+      </c>
+      <c r="S67" s="146">
+        <v>0</v>
+      </c>
+      <c r="T67" s="146">
+        <v>0</v>
+      </c>
+      <c r="U67" s="146">
         <v>68.25</v>
       </c>
-      <c r="L67" s="146">
-        <v>0</v>
-      </c>
-      <c r="M67" s="146">
-        <v>0</v>
-      </c>
-      <c r="N67" s="146">
-        <v>0</v>
-      </c>
-      <c r="O67" s="146">
-        <v>0</v>
-      </c>
-      <c r="P67" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="146">
-        <v>0</v>
-      </c>
-      <c r="R67" s="146">
-        <v>0</v>
-      </c>
-      <c r="S67" s="146">
-        <v>68.25</v>
-      </c>
-      <c r="T67" s="146">
-        <v>0</v>
-      </c>
-      <c r="U67" s="146"/>
       <c r="V67" s="146">
         <v>0</v>
       </c>
@@ -47061,7 +47150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="145">
         <v>94</v>
       </c>
@@ -47122,7 +47211,9 @@
       <c r="T68" s="146">
         <v>0</v>
       </c>
-      <c r="U68" s="146"/>
+      <c r="U68" s="146">
+        <v>0</v>
+      </c>
       <c r="V68" s="146">
         <v>0</v>
       </c>
@@ -47139,7 +47230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="145">
         <v>95</v>
       </c>
@@ -47171,36 +47262,38 @@
         <v>0</v>
       </c>
       <c r="K69" s="146">
+        <v>0</v>
+      </c>
+      <c r="L69" s="146">
+        <v>0</v>
+      </c>
+      <c r="M69" s="146">
+        <v>0</v>
+      </c>
+      <c r="N69" s="146">
+        <v>0</v>
+      </c>
+      <c r="O69" s="146">
+        <v>0</v>
+      </c>
+      <c r="P69" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="146">
+        <v>0</v>
+      </c>
+      <c r="R69" s="146">
+        <v>0</v>
+      </c>
+      <c r="S69" s="146">
+        <v>0</v>
+      </c>
+      <c r="T69" s="146">
+        <v>0</v>
+      </c>
+      <c r="U69" s="146">
         <v>68.25</v>
       </c>
-      <c r="L69" s="146">
-        <v>0</v>
-      </c>
-      <c r="M69" s="146">
-        <v>0</v>
-      </c>
-      <c r="N69" s="146">
-        <v>0</v>
-      </c>
-      <c r="O69" s="146">
-        <v>0</v>
-      </c>
-      <c r="P69" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="146">
-        <v>0</v>
-      </c>
-      <c r="R69" s="146">
-        <v>0</v>
-      </c>
-      <c r="S69" s="146">
-        <v>68.25</v>
-      </c>
-      <c r="T69" s="146">
-        <v>0</v>
-      </c>
-      <c r="U69" s="146"/>
       <c r="V69" s="146">
         <v>0</v>
       </c>
@@ -47217,7 +47310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="145">
         <v>96</v>
       </c>
@@ -47249,36 +47342,38 @@
         <v>0</v>
       </c>
       <c r="K70" s="146">
+        <v>0</v>
+      </c>
+      <c r="L70" s="146">
+        <v>0</v>
+      </c>
+      <c r="M70" s="146">
+        <v>0</v>
+      </c>
+      <c r="N70" s="146">
+        <v>0</v>
+      </c>
+      <c r="O70" s="146">
+        <v>0</v>
+      </c>
+      <c r="P70" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="146">
+        <v>0</v>
+      </c>
+      <c r="R70" s="146">
+        <v>0</v>
+      </c>
+      <c r="S70" s="146">
+        <v>0</v>
+      </c>
+      <c r="T70" s="146">
+        <v>0</v>
+      </c>
+      <c r="U70" s="146">
         <v>68.23</v>
       </c>
-      <c r="L70" s="146">
-        <v>0</v>
-      </c>
-      <c r="M70" s="146">
-        <v>0</v>
-      </c>
-      <c r="N70" s="146">
-        <v>0</v>
-      </c>
-      <c r="O70" s="146">
-        <v>0</v>
-      </c>
-      <c r="P70" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="146">
-        <v>0</v>
-      </c>
-      <c r="R70" s="146">
-        <v>0</v>
-      </c>
-      <c r="S70" s="146">
-        <v>68.23</v>
-      </c>
-      <c r="T70" s="146">
-        <v>0</v>
-      </c>
-      <c r="U70" s="146"/>
       <c r="V70" s="146">
         <v>0</v>
       </c>
@@ -47295,7 +47390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="145">
         <v>97</v>
       </c>
@@ -47327,36 +47422,38 @@
         <v>0</v>
       </c>
       <c r="K71" s="146">
+        <v>0</v>
+      </c>
+      <c r="L71" s="146">
+        <v>0</v>
+      </c>
+      <c r="M71" s="146">
+        <v>0</v>
+      </c>
+      <c r="N71" s="146">
+        <v>0</v>
+      </c>
+      <c r="O71" s="146">
+        <v>0</v>
+      </c>
+      <c r="P71" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="146">
+        <v>0</v>
+      </c>
+      <c r="R71" s="146">
+        <v>0</v>
+      </c>
+      <c r="S71" s="146">
+        <v>0</v>
+      </c>
+      <c r="T71" s="146">
+        <v>0</v>
+      </c>
+      <c r="U71" s="146">
         <v>68.23</v>
       </c>
-      <c r="L71" s="146">
-        <v>0</v>
-      </c>
-      <c r="M71" s="146">
-        <v>0</v>
-      </c>
-      <c r="N71" s="146">
-        <v>0</v>
-      </c>
-      <c r="O71" s="146">
-        <v>0</v>
-      </c>
-      <c r="P71" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="146">
-        <v>0</v>
-      </c>
-      <c r="R71" s="146">
-        <v>0</v>
-      </c>
-      <c r="S71" s="146">
-        <v>68.23</v>
-      </c>
-      <c r="T71" s="146">
-        <v>0</v>
-      </c>
-      <c r="U71" s="146"/>
       <c r="V71" s="146">
         <v>0</v>
       </c>
@@ -47373,7 +47470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="88">
         <v>98</v>
       </c>
@@ -47403,7 +47500,7 @@
       <c r="Y72" s="146"/>
       <c r="Z72" s="146"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="88">
         <v>99</v>
       </c>
@@ -47433,7 +47530,7 @@
       <c r="Y73" s="146"/>
       <c r="Z73" s="146"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="88">
         <v>100</v>
       </c>
@@ -47463,7 +47560,7 @@
       <c r="Y74" s="146"/>
       <c r="Z74" s="146"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="88">
         <v>101</v>
       </c>
@@ -47493,7 +47590,7 @@
       <c r="Y75" s="146"/>
       <c r="Z75" s="146"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="88">
         <v>102</v>
       </c>
@@ -47523,7 +47620,7 @@
       <c r="Y76" s="146"/>
       <c r="Z76" s="146"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="88">
         <v>103</v>
       </c>
@@ -47553,7 +47650,7 @@
       <c r="Y77" s="146"/>
       <c r="Z77" s="146"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="88">
         <v>104</v>
       </c>
@@ -47583,7 +47680,7 @@
       <c r="Y78" s="146"/>
       <c r="Z78" s="146"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="88">
         <v>105</v>
       </c>
@@ -47613,7 +47710,7 @@
       <c r="Y79" s="146"/>
       <c r="Z79" s="146"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D80" s="146"/>
       <c r="E80" s="146"/>
       <c r="F80" s="146"/>
@@ -47638,7 +47735,7 @@
       <c r="Y80" s="146"/>
       <c r="Z80" s="146"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="212" t="s">
         <v>239</v>
       </c>
@@ -47668,7 +47765,7 @@
       <c r="Y81" s="146"/>
       <c r="Z81" s="146"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="145">
         <v>110</v>
       </c>
@@ -47700,38 +47797,40 @@
         <v>0</v>
       </c>
       <c r="K82" s="146">
+        <v>0</v>
+      </c>
+      <c r="L82" s="146">
+        <v>0</v>
+      </c>
+      <c r="M82" s="146">
+        <v>0</v>
+      </c>
+      <c r="N82" s="146">
+        <v>0</v>
+      </c>
+      <c r="O82" s="146">
+        <v>0</v>
+      </c>
+      <c r="P82" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="146">
+        <v>0</v>
+      </c>
+      <c r="R82" s="146">
+        <v>0</v>
+      </c>
+      <c r="S82" s="146">
+        <v>0</v>
+      </c>
+      <c r="T82" s="146">
+        <v>0</v>
+      </c>
+      <c r="U82" s="146">
         <v>67.3</v>
       </c>
-      <c r="L82" s="146">
-        <v>0</v>
-      </c>
-      <c r="M82" s="146">
-        <v>0</v>
-      </c>
-      <c r="N82" s="146">
-        <v>0</v>
-      </c>
-      <c r="O82" s="146">
-        <v>0</v>
-      </c>
-      <c r="P82" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="146">
-        <v>0</v>
-      </c>
-      <c r="R82" s="146">
-        <v>0</v>
-      </c>
-      <c r="S82" s="146">
-        <v>67.3</v>
-      </c>
-      <c r="T82" s="146">
-        <v>0</v>
-      </c>
-      <c r="U82" s="146"/>
       <c r="V82" s="169">
-        <v>80.78</v>
+        <v>40.39</v>
       </c>
       <c r="W82" s="160">
         <v>0</v>
@@ -47746,7 +47845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="145">
         <v>111</v>
       </c>
@@ -47807,7 +47906,9 @@
       <c r="T83" s="146">
         <v>0</v>
       </c>
-      <c r="U83" s="146"/>
+      <c r="U83" s="146">
+        <v>0</v>
+      </c>
       <c r="V83" s="170">
         <v>0</v>
       </c>
@@ -47824,7 +47925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="145">
         <v>112</v>
       </c>
@@ -47856,36 +47957,38 @@
         <v>0</v>
       </c>
       <c r="K84" s="146">
+        <v>0</v>
+      </c>
+      <c r="L84" s="146">
+        <v>0</v>
+      </c>
+      <c r="M84" s="146">
+        <v>0</v>
+      </c>
+      <c r="N84" s="146">
+        <v>0</v>
+      </c>
+      <c r="O84" s="146">
+        <v>0</v>
+      </c>
+      <c r="P84" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="146">
+        <v>0</v>
+      </c>
+      <c r="R84" s="146">
+        <v>0</v>
+      </c>
+      <c r="S84" s="146">
+        <v>0</v>
+      </c>
+      <c r="T84" s="146">
+        <v>0</v>
+      </c>
+      <c r="U84" s="146">
         <v>67.3</v>
       </c>
-      <c r="L84" s="146">
-        <v>0</v>
-      </c>
-      <c r="M84" s="146">
-        <v>0</v>
-      </c>
-      <c r="N84" s="146">
-        <v>0</v>
-      </c>
-      <c r="O84" s="146">
-        <v>0</v>
-      </c>
-      <c r="P84" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="146">
-        <v>0</v>
-      </c>
-      <c r="R84" s="146">
-        <v>0</v>
-      </c>
-      <c r="S84" s="146">
-        <v>67.3</v>
-      </c>
-      <c r="T84" s="146">
-        <v>0</v>
-      </c>
-      <c r="U84" s="146"/>
       <c r="V84" s="170">
         <v>0</v>
       </c>
@@ -47902,7 +48005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="145">
         <v>113</v>
       </c>
@@ -47934,38 +48037,40 @@
         <v>0</v>
       </c>
       <c r="K85" s="146">
+        <v>0</v>
+      </c>
+      <c r="L85" s="146">
+        <v>0</v>
+      </c>
+      <c r="M85" s="146">
+        <v>0</v>
+      </c>
+      <c r="N85" s="146">
+        <v>0</v>
+      </c>
+      <c r="O85" s="146">
+        <v>0</v>
+      </c>
+      <c r="P85" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="146">
+        <v>0</v>
+      </c>
+      <c r="R85" s="146">
+        <v>0</v>
+      </c>
+      <c r="S85" s="146">
+        <v>0</v>
+      </c>
+      <c r="T85" s="146">
+        <v>0</v>
+      </c>
+      <c r="U85" s="146">
         <v>68.25</v>
       </c>
-      <c r="L85" s="146">
-        <v>0</v>
-      </c>
-      <c r="M85" s="146">
-        <v>0</v>
-      </c>
-      <c r="N85" s="146">
-        <v>0</v>
-      </c>
-      <c r="O85" s="146">
-        <v>0</v>
-      </c>
-      <c r="P85" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="146">
-        <v>0</v>
-      </c>
-      <c r="R85" s="146">
-        <v>0</v>
-      </c>
-      <c r="S85" s="146">
-        <v>68.25</v>
-      </c>
-      <c r="T85" s="146">
-        <v>0</v>
-      </c>
-      <c r="U85" s="146"/>
       <c r="V85" s="169">
-        <v>80.78</v>
+        <v>40.39</v>
       </c>
       <c r="W85" s="160">
         <v>0</v>
@@ -47980,7 +48085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="145">
         <v>114</v>
       </c>
@@ -48041,7 +48146,9 @@
       <c r="T86" s="146">
         <v>0</v>
       </c>
-      <c r="U86" s="146"/>
+      <c r="U86" s="146">
+        <v>0</v>
+      </c>
       <c r="V86" s="170">
         <v>0</v>
       </c>
@@ -48058,7 +48165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="145">
         <v>115</v>
       </c>
@@ -48090,36 +48197,38 @@
         <v>0</v>
       </c>
       <c r="K87" s="146">
+        <v>0</v>
+      </c>
+      <c r="L87" s="146">
+        <v>0</v>
+      </c>
+      <c r="M87" s="146">
+        <v>0</v>
+      </c>
+      <c r="N87" s="146">
+        <v>0</v>
+      </c>
+      <c r="O87" s="146">
+        <v>0</v>
+      </c>
+      <c r="P87" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="146">
+        <v>0</v>
+      </c>
+      <c r="R87" s="146">
+        <v>0</v>
+      </c>
+      <c r="S87" s="146">
+        <v>0</v>
+      </c>
+      <c r="T87" s="146">
+        <v>0</v>
+      </c>
+      <c r="U87" s="146">
         <v>68.25</v>
       </c>
-      <c r="L87" s="146">
-        <v>0</v>
-      </c>
-      <c r="M87" s="146">
-        <v>0</v>
-      </c>
-      <c r="N87" s="146">
-        <v>0</v>
-      </c>
-      <c r="O87" s="146">
-        <v>0</v>
-      </c>
-      <c r="P87" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="146">
-        <v>0</v>
-      </c>
-      <c r="R87" s="146">
-        <v>0</v>
-      </c>
-      <c r="S87" s="146">
-        <v>68.25</v>
-      </c>
-      <c r="T87" s="146">
-        <v>0</v>
-      </c>
-      <c r="U87" s="146"/>
       <c r="V87" s="170">
         <v>0</v>
       </c>
@@ -48136,7 +48245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="145">
         <v>116</v>
       </c>
@@ -48168,38 +48277,40 @@
         <v>0</v>
       </c>
       <c r="K88" s="146">
+        <v>0</v>
+      </c>
+      <c r="L88" s="146">
+        <v>0</v>
+      </c>
+      <c r="M88" s="146">
+        <v>0</v>
+      </c>
+      <c r="N88" s="146">
+        <v>0</v>
+      </c>
+      <c r="O88" s="146">
+        <v>0</v>
+      </c>
+      <c r="P88" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="146">
+        <v>0</v>
+      </c>
+      <c r="R88" s="146">
+        <v>0</v>
+      </c>
+      <c r="S88" s="146">
+        <v>0</v>
+      </c>
+      <c r="T88" s="146">
+        <v>0</v>
+      </c>
+      <c r="U88" s="146">
         <v>68.23</v>
       </c>
-      <c r="L88" s="146">
-        <v>0</v>
-      </c>
-      <c r="M88" s="146">
-        <v>0</v>
-      </c>
-      <c r="N88" s="146">
-        <v>0</v>
-      </c>
-      <c r="O88" s="146">
-        <v>0</v>
-      </c>
-      <c r="P88" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="146">
-        <v>0</v>
-      </c>
-      <c r="R88" s="146">
-        <v>0</v>
-      </c>
-      <c r="S88" s="146">
-        <v>68.23</v>
-      </c>
-      <c r="T88" s="146">
-        <v>0</v>
-      </c>
-      <c r="U88" s="146"/>
       <c r="V88" s="169">
-        <v>80.78</v>
+        <v>40.39</v>
       </c>
       <c r="W88" s="160">
         <v>0</v>
@@ -48214,7 +48325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="145">
         <v>117</v>
       </c>
@@ -48246,36 +48357,38 @@
         <v>0</v>
       </c>
       <c r="K89" s="146">
+        <v>0</v>
+      </c>
+      <c r="L89" s="146">
+        <v>0</v>
+      </c>
+      <c r="M89" s="146">
+        <v>0</v>
+      </c>
+      <c r="N89" s="146">
+        <v>0</v>
+      </c>
+      <c r="O89" s="146">
+        <v>0</v>
+      </c>
+      <c r="P89" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="146">
+        <v>0</v>
+      </c>
+      <c r="R89" s="146">
+        <v>0</v>
+      </c>
+      <c r="S89" s="146">
+        <v>0</v>
+      </c>
+      <c r="T89" s="146">
+        <v>0</v>
+      </c>
+      <c r="U89" s="146">
         <v>68.23</v>
       </c>
-      <c r="L89" s="146">
-        <v>0</v>
-      </c>
-      <c r="M89" s="146">
-        <v>0</v>
-      </c>
-      <c r="N89" s="146">
-        <v>0</v>
-      </c>
-      <c r="O89" s="146">
-        <v>0</v>
-      </c>
-      <c r="P89" s="146">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="146">
-        <v>0</v>
-      </c>
-      <c r="R89" s="146">
-        <v>0</v>
-      </c>
-      <c r="S89" s="146">
-        <v>68.23</v>
-      </c>
-      <c r="T89" s="146">
-        <v>0</v>
-      </c>
-      <c r="U89" s="146"/>
       <c r="V89" s="170">
         <v>0</v>
       </c>
@@ -48292,7 +48405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="88">
         <v>118</v>
       </c>
@@ -48324,7 +48437,7 @@
       <c r="Y90" s="146"/>
       <c r="Z90" s="146"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="88">
         <v>119</v>
       </c>
@@ -48356,7 +48469,7 @@
       <c r="Y91" s="146"/>
       <c r="Z91" s="146"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="88">
         <v>120</v>
       </c>
@@ -48388,7 +48501,7 @@
       <c r="Y92" s="146"/>
       <c r="Z92" s="146"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="88">
         <v>121</v>
       </c>
@@ -48420,7 +48533,7 @@
       <c r="Y93" s="146"/>
       <c r="Z93" s="146"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="88">
         <v>122</v>
       </c>
@@ -48452,7 +48565,7 @@
       <c r="Y94" s="146"/>
       <c r="Z94" s="146"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="88">
         <v>123</v>
       </c>
@@ -48484,7 +48597,7 @@
       <c r="Y95" s="146"/>
       <c r="Z95" s="146"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="88">
         <v>124</v>
       </c>
@@ -48516,7 +48629,7 @@
       <c r="Y96" s="146"/>
       <c r="Z96" s="146"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="88">
         <v>125</v>
       </c>
@@ -48548,7 +48661,7 @@
       <c r="Y97" s="146"/>
       <c r="Z97" s="146"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D98" s="146"/>
       <c r="E98" s="146"/>
       <c r="F98" s="146"/>
@@ -48573,7 +48686,7 @@
       <c r="Y98" s="146"/>
       <c r="Z98" s="146"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="212" t="s">
         <v>240</v>
       </c>
@@ -48603,7 +48716,7 @@
       <c r="Y99" s="146"/>
       <c r="Z99" s="146"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="88">
         <v>130</v>
       </c>
@@ -48633,7 +48746,7 @@
       <c r="Y100" s="146"/>
       <c r="Z100" s="146"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="88">
         <v>131</v>
       </c>
@@ -48663,7 +48776,7 @@
       <c r="Y101" s="146"/>
       <c r="Z101" s="146"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="88">
         <v>132</v>
       </c>
@@ -48693,7 +48806,7 @@
       <c r="Y102" s="146"/>
       <c r="Z102" s="146"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="88">
         <v>133</v>
       </c>
@@ -48723,7 +48836,7 @@
       <c r="Y103" s="146"/>
       <c r="Z103" s="146"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="88">
         <v>134</v>
       </c>
@@ -48753,7 +48866,7 @@
       <c r="Y104" s="146"/>
       <c r="Z104" s="146"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="88">
         <v>135</v>
       </c>
@@ -48783,7 +48896,7 @@
       <c r="Y105" s="146"/>
       <c r="Z105" s="146"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="88">
         <v>136</v>
       </c>
@@ -48813,7 +48926,7 @@
       <c r="Y106" s="146"/>
       <c r="Z106" s="146"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="88">
         <v>137</v>
       </c>
@@ -48843,7 +48956,7 @@
       <c r="Y107" s="146"/>
       <c r="Z107" s="146"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="88">
         <v>138</v>
       </c>
@@ -48873,7 +48986,7 @@
       <c r="Y108" s="146"/>
       <c r="Z108" s="146"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="88">
         <v>139</v>
       </c>
@@ -48903,7 +49016,7 @@
       <c r="Y109" s="146"/>
       <c r="Z109" s="146"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="88">
         <v>140</v>
       </c>
@@ -48933,7 +49046,7 @@
       <c r="Y110" s="146"/>
       <c r="Z110" s="146"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="88">
         <v>141</v>
       </c>
@@ -48963,7 +49076,7 @@
       <c r="Y111" s="146"/>
       <c r="Z111" s="146"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="88">
         <v>142</v>
       </c>
@@ -48993,7 +49106,7 @@
       <c r="Y112" s="146"/>
       <c r="Z112" s="146"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="88">
         <v>143</v>
       </c>
@@ -49023,7 +49136,7 @@
       <c r="Y113" s="146"/>
       <c r="Z113" s="146"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="88">
         <v>144</v>
       </c>
@@ -49053,7 +49166,7 @@
       <c r="Y114" s="146"/>
       <c r="Z114" s="146"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="88">
         <v>145</v>
       </c>
@@ -49102,22 +49215,22 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="106"/>
-    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="155" t="s">
         <v>33</v>
       </c>
@@ -49140,7 +49253,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="165" t="s">
         <v>142</v>
       </c>
@@ -49163,7 +49276,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="164" t="s">
         <v>143</v>
       </c>
@@ -49186,7 +49299,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="165" t="s">
         <v>150</v>
       </c>
@@ -49210,7 +49323,7 @@
       </c>
       <c r="H4" s="69"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="165" t="s">
         <v>151</v>
       </c>
@@ -49233,7 +49346,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="165" t="s">
         <v>144</v>
       </c>
@@ -49256,7 +49369,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="165" t="s">
         <v>161</v>
       </c>
@@ -49279,7 +49392,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="165" t="s">
         <v>162</v>
       </c>
@@ -49302,7 +49415,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="165" t="s">
         <v>164</v>
       </c>
@@ -49326,7 +49439,7 @@
       </c>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="165" t="s">
         <v>145</v>
       </c>
@@ -49349,7 +49462,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="165" t="s">
         <v>165</v>
       </c>
@@ -49372,7 +49485,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="165" t="s">
         <v>166</v>
       </c>
@@ -49395,7 +49508,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="165" t="s">
         <v>167</v>
       </c>
@@ -49418,7 +49531,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="165" t="s">
         <v>146</v>
       </c>
@@ -49441,7 +49554,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="165" t="s">
         <v>168</v>
       </c>
@@ -49464,7 +49577,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="165" t="s">
         <v>169</v>
       </c>
@@ -49487,7 +49600,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="165" t="s">
         <v>170</v>
       </c>
@@ -49510,7 +49623,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="165" t="s">
         <v>189</v>
       </c>
@@ -49533,7 +49646,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="165" t="s">
         <v>197</v>
       </c>
@@ -49556,7 +49669,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="165" t="s">
         <v>235</v>
       </c>
@@ -49579,7 +49692,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="165" t="s">
         <v>220</v>
       </c>
@@ -49602,7 +49715,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="166" t="s">
         <v>222</v>
       </c>
@@ -49612,7 +49725,7 @@
       <c r="E22" s="159"/>
       <c r="F22" s="159"/>
     </row>
-    <row r="23" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="166" t="s">
         <v>226</v>
       </c>
@@ -49622,7 +49735,7 @@
       <c r="E23" s="159"/>
       <c r="F23" s="159"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="165" t="s">
         <v>224</v>
       </c>
@@ -49645,7 +49758,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="149" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="149" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="166" t="s">
         <v>225</v>
       </c>
@@ -49655,7 +49768,7 @@
       <c r="E25" s="159"/>
       <c r="F25" s="159"/>
     </row>
-    <row r="26" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="166"/>
       <c r="B26" s="159"/>
       <c r="C26" s="159"/>
@@ -49663,7 +49776,7 @@
       <c r="E26" s="159"/>
       <c r="F26" s="159"/>
     </row>
-    <row r="27" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="212" t="s">
         <v>236</v>
       </c>
@@ -49673,7 +49786,7 @@
       <c r="E27" s="159"/>
       <c r="F27" s="159"/>
     </row>
-    <row r="28" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="166">
         <v>50</v>
       </c>
@@ -49683,7 +49796,7 @@
       <c r="E28" s="159"/>
       <c r="F28" s="159"/>
     </row>
-    <row r="29" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="166">
         <v>51</v>
       </c>
@@ -49693,7 +49806,7 @@
       <c r="E29" s="159"/>
       <c r="F29" s="159"/>
     </row>
-    <row r="30" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="166">
         <v>52</v>
       </c>
@@ -49703,7 +49816,7 @@
       <c r="E30" s="159"/>
       <c r="F30" s="159"/>
     </row>
-    <row r="31" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="166">
         <v>53</v>
       </c>
@@ -49713,7 +49826,7 @@
       <c r="E31" s="159"/>
       <c r="F31" s="159"/>
     </row>
-    <row r="32" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="166">
         <v>54</v>
       </c>
@@ -49723,7 +49836,7 @@
       <c r="E32" s="159"/>
       <c r="F32" s="159"/>
     </row>
-    <row r="33" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="166">
         <v>55</v>
       </c>
@@ -49733,7 +49846,7 @@
       <c r="E33" s="159"/>
       <c r="F33" s="159"/>
     </row>
-    <row r="34" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="166">
         <v>56</v>
       </c>
@@ -49743,7 +49856,7 @@
       <c r="E34" s="159"/>
       <c r="F34" s="159"/>
     </row>
-    <row r="35" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="166">
         <v>57</v>
       </c>
@@ -49753,7 +49866,7 @@
       <c r="E35" s="159"/>
       <c r="F35" s="159"/>
     </row>
-    <row r="36" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="167">
         <v>58</v>
       </c>
@@ -49763,7 +49876,7 @@
       <c r="E36" s="159"/>
       <c r="F36" s="159"/>
     </row>
-    <row r="37" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="167">
         <v>59</v>
       </c>
@@ -49773,7 +49886,7 @@
       <c r="E37" s="159"/>
       <c r="F37" s="159"/>
     </row>
-    <row r="38" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="167">
         <v>60</v>
       </c>
@@ -49783,7 +49896,7 @@
       <c r="E38" s="159"/>
       <c r="F38" s="159"/>
     </row>
-    <row r="39" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="167">
         <v>61</v>
       </c>
@@ -49793,7 +49906,7 @@
       <c r="E39" s="159"/>
       <c r="F39" s="159"/>
     </row>
-    <row r="40" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="167">
         <v>62</v>
       </c>
@@ -49803,7 +49916,7 @@
       <c r="E40" s="159"/>
       <c r="F40" s="159"/>
     </row>
-    <row r="41" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="167">
         <v>63</v>
       </c>
@@ -49813,7 +49926,7 @@
       <c r="E41" s="159"/>
       <c r="F41" s="159"/>
     </row>
-    <row r="42" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="167">
         <v>64</v>
       </c>
@@ -49823,7 +49936,7 @@
       <c r="E42" s="159"/>
       <c r="F42" s="159"/>
     </row>
-    <row r="43" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="167">
         <v>65</v>
       </c>
@@ -49833,7 +49946,7 @@
       <c r="E43" s="159"/>
       <c r="F43" s="159"/>
     </row>
-    <row r="44" spans="1:7" s="150" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="150" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="166"/>
       <c r="B44" s="159"/>
       <c r="C44" s="159"/>
@@ -49841,7 +49954,7 @@
       <c r="E44" s="159"/>
       <c r="F44" s="159"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="212" t="s">
         <v>237</v>
       </c>
@@ -49852,7 +49965,7 @@
       <c r="F45" s="159"/>
       <c r="G45" s="158"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="165">
         <v>70</v>
       </c>
@@ -49875,7 +49988,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="165">
         <v>71</v>
       </c>
@@ -49898,7 +50011,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="165">
         <v>72</v>
       </c>
@@ -49921,7 +50034,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="165">
         <v>73</v>
       </c>
@@ -49944,7 +50057,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="165">
         <v>74</v>
       </c>
@@ -49967,7 +50080,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="165">
         <v>75</v>
       </c>
@@ -49990,7 +50103,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="165">
         <v>76</v>
       </c>
@@ -50013,7 +50126,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="165">
         <v>77</v>
       </c>
@@ -50036,7 +50149,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="165">
         <v>78</v>
       </c>
@@ -50059,7 +50172,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="165">
         <v>79</v>
       </c>
@@ -50082,7 +50195,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="165">
         <v>80</v>
       </c>
@@ -50105,7 +50218,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="165">
         <v>81</v>
       </c>
@@ -50128,7 +50241,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="165">
         <v>82</v>
       </c>
@@ -50151,7 +50264,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="165">
         <v>83</v>
       </c>
@@ -50174,7 +50287,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="165">
         <v>84</v>
       </c>
@@ -50197,7 +50310,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="165">
         <v>85</v>
       </c>
@@ -50220,7 +50333,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="165"/>
       <c r="B62" s="160"/>
       <c r="C62" s="160"/>
@@ -50228,7 +50341,7 @@
       <c r="E62" s="159"/>
       <c r="F62" s="159"/>
     </row>
-    <row r="63" spans="1:7" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="212" t="s">
         <v>236</v>
       </c>
@@ -50238,7 +50351,7 @@
       <c r="E63" s="159"/>
       <c r="F63" s="159"/>
     </row>
-    <row r="64" spans="1:7" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="166">
         <v>90</v>
       </c>
@@ -50248,7 +50361,7 @@
       <c r="E64" s="159"/>
       <c r="F64" s="159"/>
     </row>
-    <row r="65" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="166">
         <v>91</v>
       </c>
@@ -50258,7 +50371,7 @@
       <c r="E65" s="159"/>
       <c r="F65" s="159"/>
     </row>
-    <row r="66" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="166">
         <v>92</v>
       </c>
@@ -50268,7 +50381,7 @@
       <c r="E66" s="159"/>
       <c r="F66" s="159"/>
     </row>
-    <row r="67" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="166">
         <v>93</v>
       </c>
@@ -50278,7 +50391,7 @@
       <c r="E67" s="159"/>
       <c r="F67" s="159"/>
     </row>
-    <row r="68" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="166">
         <v>94</v>
       </c>
@@ -50288,7 +50401,7 @@
       <c r="E68" s="159"/>
       <c r="F68" s="159"/>
     </row>
-    <row r="69" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="166">
         <v>95</v>
       </c>
@@ -50298,7 +50411,7 @@
       <c r="E69" s="159"/>
       <c r="F69" s="159"/>
     </row>
-    <row r="70" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="166">
         <v>96</v>
       </c>
@@ -50308,7 +50421,7 @@
       <c r="E70" s="159"/>
       <c r="F70" s="159"/>
     </row>
-    <row r="71" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="166">
         <v>97</v>
       </c>
@@ -50318,7 +50431,7 @@
       <c r="E71" s="159"/>
       <c r="F71" s="159"/>
     </row>
-    <row r="72" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="167">
         <v>98</v>
       </c>
@@ -50328,7 +50441,7 @@
       <c r="E72" s="159"/>
       <c r="F72" s="159"/>
     </row>
-    <row r="73" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="167">
         <v>99</v>
       </c>
@@ -50338,7 +50451,7 @@
       <c r="E73" s="159"/>
       <c r="F73" s="159"/>
     </row>
-    <row r="74" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="167">
         <v>100</v>
       </c>
@@ -50348,7 +50461,7 @@
       <c r="E74" s="159"/>
       <c r="F74" s="159"/>
     </row>
-    <row r="75" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="167">
         <v>101</v>
       </c>
@@ -50358,7 +50471,7 @@
       <c r="E75" s="159"/>
       <c r="F75" s="159"/>
     </row>
-    <row r="76" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="167">
         <v>102</v>
       </c>
@@ -50368,7 +50481,7 @@
       <c r="E76" s="159"/>
       <c r="F76" s="159"/>
     </row>
-    <row r="77" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="167">
         <v>103</v>
       </c>
@@ -50378,7 +50491,7 @@
       <c r="E77" s="159"/>
       <c r="F77" s="159"/>
     </row>
-    <row r="78" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="167">
         <v>104</v>
       </c>
@@ -50388,7 +50501,7 @@
       <c r="E78" s="159"/>
       <c r="F78" s="159"/>
     </row>
-    <row r="79" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="167">
         <v>105</v>
       </c>
@@ -50398,7 +50511,7 @@
       <c r="E79" s="159"/>
       <c r="F79" s="159"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="165"/>
       <c r="B80" s="159"/>
       <c r="C80" s="159"/>
@@ -50406,7 +50519,7 @@
       <c r="E80" s="159"/>
       <c r="F80" s="159"/>
     </row>
-    <row r="81" spans="1:7" s="157" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="157" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="212" t="s">
         <v>239</v>
       </c>
@@ -50416,7 +50529,7 @@
       <c r="E81" s="159"/>
       <c r="F81" s="159"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="166">
         <v>110</v>
       </c>
@@ -50439,7 +50552,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="166">
         <v>111</v>
       </c>
@@ -50462,7 +50575,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="166">
         <v>112</v>
       </c>
@@ -50485,7 +50598,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="166">
         <v>113</v>
       </c>
@@ -50508,7 +50621,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="166">
         <v>114</v>
       </c>
@@ -50531,7 +50644,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="166">
         <v>115</v>
       </c>
@@ -50554,7 +50667,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="166">
         <v>116</v>
       </c>
@@ -50577,7 +50690,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="166">
         <v>117</v>
       </c>
@@ -50600,7 +50713,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="166">
         <v>118</v>
       </c>
@@ -50610,7 +50723,7 @@
       <c r="E90" s="159"/>
       <c r="F90" s="159"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="166">
         <v>119</v>
       </c>
@@ -50620,7 +50733,7 @@
       <c r="E91" s="159"/>
       <c r="F91" s="159"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="166">
         <v>120</v>
       </c>
@@ -50630,7 +50743,7 @@
       <c r="E92" s="159"/>
       <c r="F92" s="159"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="166">
         <v>121</v>
       </c>
@@ -50640,7 +50753,7 @@
       <c r="E93" s="159"/>
       <c r="F93" s="159"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="166">
         <v>122</v>
       </c>
@@ -50650,7 +50763,7 @@
       <c r="E94" s="159"/>
       <c r="F94" s="159"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="166">
         <v>123</v>
       </c>
@@ -50660,7 +50773,7 @@
       <c r="E95" s="159"/>
       <c r="F95" s="159"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="166">
         <v>124</v>
       </c>
@@ -50670,7 +50783,7 @@
       <c r="E96" s="159"/>
       <c r="F96" s="159"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="166">
         <v>125</v>
       </c>
@@ -50680,7 +50793,7 @@
       <c r="E97" s="159"/>
       <c r="F97" s="159"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="165"/>
       <c r="B98" s="159"/>
       <c r="C98" s="159"/>
@@ -50688,7 +50801,7 @@
       <c r="E98" s="159"/>
       <c r="F98" s="159"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="212" t="s">
         <v>240</v>
       </c>
@@ -50698,7 +50811,7 @@
       <c r="E99" s="159"/>
       <c r="F99" s="159"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="167">
         <v>130</v>
       </c>
@@ -50708,7 +50821,7 @@
       <c r="E100" s="159"/>
       <c r="F100" s="159"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="167">
         <v>131</v>
       </c>
@@ -50718,7 +50831,7 @@
       <c r="E101" s="159"/>
       <c r="F101" s="159"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="167">
         <v>132</v>
       </c>
@@ -50728,7 +50841,7 @@
       <c r="E102" s="159"/>
       <c r="F102" s="159"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="167">
         <v>133</v>
       </c>
@@ -50738,7 +50851,7 @@
       <c r="E103" s="159"/>
       <c r="F103" s="159"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="167">
         <v>134</v>
       </c>
@@ -50748,7 +50861,7 @@
       <c r="E104" s="159"/>
       <c r="F104" s="159"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="167">
         <v>135</v>
       </c>
@@ -50758,7 +50871,7 @@
       <c r="E105" s="159"/>
       <c r="F105" s="159"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="167">
         <v>136</v>
       </c>
@@ -50768,7 +50881,7 @@
       <c r="E106" s="159"/>
       <c r="F106" s="159"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="167">
         <v>137</v>
       </c>
@@ -50778,7 +50891,7 @@
       <c r="E107" s="159"/>
       <c r="F107" s="159"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="167">
         <v>138</v>
       </c>
@@ -50788,7 +50901,7 @@
       <c r="E108" s="159"/>
       <c r="F108" s="159"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="167">
         <v>139</v>
       </c>
@@ -50798,7 +50911,7 @@
       <c r="E109" s="159"/>
       <c r="F109" s="159"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="167">
         <v>140</v>
       </c>
@@ -50808,7 +50921,7 @@
       <c r="E110" s="159"/>
       <c r="F110" s="159"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="167">
         <v>141</v>
       </c>
@@ -50818,7 +50931,7 @@
       <c r="E111" s="159"/>
       <c r="F111" s="159"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="167">
         <v>142</v>
       </c>
@@ -50828,7 +50941,7 @@
       <c r="E112" s="159"/>
       <c r="F112" s="159"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="167">
         <v>143</v>
       </c>
@@ -50838,7 +50951,7 @@
       <c r="E113" s="159"/>
       <c r="F113" s="159"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="167">
         <v>144</v>
       </c>
@@ -50848,7 +50961,7 @@
       <c r="E114" s="159"/>
       <c r="F114" s="159"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="167">
         <v>145</v>
       </c>
@@ -50883,27 +50996,27 @@
       <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="11.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="12"/>
+    <col min="2" max="2" width="11.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="2" customWidth="1"/>
-    <col min="5" max="8" width="16.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="16.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2"/>
-    <col min="13" max="16" width="14.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" style="2" customWidth="1"/>
-    <col min="21" max="22" width="17.140625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="12" width="9.109375" style="2"/>
+    <col min="13" max="16" width="14.44140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="14.44140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" style="2" customWidth="1"/>
+    <col min="21" max="22" width="17.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
@@ -50974,7 +51087,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>170</v>
       </c>
@@ -51045,7 +51158,7 @@
         <v>573.02</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>189</v>
       </c>
@@ -51116,7 +51229,7 @@
         <v>567.55999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>197</v>
       </c>
@@ -51187,7 +51300,7 @@
         <v>595.27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>235</v>
       </c>
@@ -51258,7 +51371,7 @@
         <v>580.51</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="3"/>
@@ -51283,7 +51396,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="3"/>
@@ -51308,7 +51421,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="3"/>
@@ -51333,7 +51446,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="3"/>
@@ -51358,7 +51471,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="3"/>
@@ -51383,7 +51496,7 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="3"/>
@@ -51408,7 +51521,7 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="3"/>
@@ -51433,7 +51546,7 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="3"/>
@@ -51473,58 +51586,58 @@
       <selection activeCell="B1" sqref="B1:X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="48" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="40" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="40.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="39" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="29.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="31.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="2"/>
+    <col min="42" max="42" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="34.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
@@ -51670,7 +51783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -51816,7 +51929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -51868,7 +51981,7 @@
       <c r="AU3" s="49"/>
       <c r="AV3" s="49"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -51920,7 +52033,7 @@
       <c r="AU4" s="49"/>
       <c r="AV4" s="49"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -51972,7 +52085,7 @@
       <c r="AU5" s="49"/>
       <c r="AV5" s="49"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -52024,7 +52137,7 @@
       <c r="AU6" s="49"/>
       <c r="AV6" s="49"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -52076,7 +52189,7 @@
       <c r="AU7" s="49"/>
       <c r="AV7" s="49"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -52128,7 +52241,7 @@
       <c r="AU8" s="49"/>
       <c r="AV8" s="49"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -52180,7 +52293,7 @@
       <c r="AU9" s="49"/>
       <c r="AV9" s="49"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -52232,7 +52345,7 @@
       <c r="AU10" s="49"/>
       <c r="AV10" s="49"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -52284,7 +52397,7 @@
       <c r="AU11" s="49"/>
       <c r="AV11" s="49"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -52336,7 +52449,7 @@
       <c r="AU12" s="49"/>
       <c r="AV12" s="49"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -52388,7 +52501,7 @@
       <c r="AU13" s="49"/>
       <c r="AV13" s="49"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -52440,7 +52553,7 @@
       <c r="AU14" s="49"/>
       <c r="AV14" s="49"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -52492,7 +52605,7 @@
       <c r="AU15" s="49"/>
       <c r="AV15" s="49"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -52544,7 +52657,7 @@
       <c r="AU16" s="49"/>
       <c r="AV16" s="49"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -52596,7 +52709,7 @@
       <c r="AU17" s="49"/>
       <c r="AV17" s="49"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -52648,7 +52761,7 @@
       <c r="AU18" s="49"/>
       <c r="AV18" s="49"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -52700,7 +52813,7 @@
       <c r="AU19" s="49"/>
       <c r="AV19" s="49"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -52752,7 +52865,7 @@
       <c r="AU20" s="49"/>
       <c r="AV20" s="49"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -52804,7 +52917,7 @@
       <c r="AU21" s="49"/>
       <c r="AV21" s="49"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -52856,7 +52969,7 @@
       <c r="AU22" s="49"/>
       <c r="AV22" s="49"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -52908,7 +53021,7 @@
       <c r="AU23" s="49"/>
       <c r="AV23" s="49"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -52960,7 +53073,7 @@
       <c r="AU24" s="49"/>
       <c r="AV24" s="49"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -53012,7 +53125,7 @@
       <c r="AU25" s="49"/>
       <c r="AV25" s="49"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -53064,7 +53177,7 @@
       <c r="AU26" s="49"/>
       <c r="AV26" s="49"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -53116,7 +53229,7 @@
       <c r="AU27" s="49"/>
       <c r="AV27" s="49"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -53168,7 +53281,7 @@
       <c r="AU28" s="49"/>
       <c r="AV28" s="49"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -53220,7 +53333,7 @@
       <c r="AU29" s="49"/>
       <c r="AV29" s="49"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -53272,7 +53385,7 @@
       <c r="AU30" s="49"/>
       <c r="AV30" s="49"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -53324,7 +53437,7 @@
       <c r="AU31" s="49"/>
       <c r="AV31" s="49"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -53376,7 +53489,7 @@
       <c r="AU32" s="49"/>
       <c r="AV32" s="49"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -53428,7 +53541,7 @@
       <c r="AU33" s="49"/>
       <c r="AV33" s="49"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -53480,7 +53593,7 @@
       <c r="AU34" s="49"/>
       <c r="AV34" s="49"/>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -53532,7 +53645,7 @@
       <c r="AU35" s="49"/>
       <c r="AV35" s="49"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -53584,7 +53697,7 @@
       <c r="AU36" s="49"/>
       <c r="AV36" s="49"/>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -53636,7 +53749,7 @@
       <c r="AU37" s="49"/>
       <c r="AV37" s="49"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -53688,7 +53801,7 @@
       <c r="AU38" s="49"/>
       <c r="AV38" s="49"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -53740,7 +53853,7 @@
       <c r="AU39" s="49"/>
       <c r="AV39" s="49"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -53792,7 +53905,7 @@
       <c r="AU40" s="49"/>
       <c r="AV40" s="49"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -53858,52 +53971,52 @@
       <selection activeCell="AJ33" sqref="AJ33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="2"/>
+    <col min="39" max="39" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>33</v>
       </c>
@@ -54025,7 +54138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>

--- a/SpecFramework/FeatureFiles/DataResources/TridTestScenarios.xlsx
+++ b/SpecFramework/FeatureFiles/DataResources/TridTestScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="8148" tabRatio="673" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="8145" tabRatio="673" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoanEstimate - NOT USED" sheetId="6" state="hidden" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="Export" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ClosingDisclosure!$A$1:$DB$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ClosingDisclosure!$A$1:$DB$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">MortgageInsurance!$A$1:$H$115</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ClosingDisclosure!$A$1:$F$89</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2725,38 +2727,38 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.109375" style="2"/>
+    <col min="27" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2914,7 +2916,7 @@
         <v>66.72</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2984,7 +2986,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3056,7 +3058,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3126,7 +3128,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3196,7 +3198,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -3266,7 +3268,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -3350,20 +3352,20 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="203" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="158" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="203" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="158" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
@@ -3389,7 +3391,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="145" t="s">
         <v>142</v>
       </c>
@@ -3415,7 +3417,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="145" t="s">
         <v>143</v>
       </c>
@@ -3441,7 +3443,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="145" t="s">
         <v>150</v>
       </c>
@@ -3467,7 +3469,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="145" t="s">
         <v>151</v>
       </c>
@@ -3493,7 +3495,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="145" t="s">
         <v>144</v>
       </c>
@@ -3519,7 +3521,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="145" t="s">
         <v>161</v>
       </c>
@@ -3545,7 +3547,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="145" t="s">
         <v>162</v>
       </c>
@@ -3571,7 +3573,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="145" t="s">
         <v>164</v>
       </c>
@@ -3597,7 +3599,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="145" t="s">
         <v>145</v>
       </c>
@@ -3623,7 +3625,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="145" t="s">
         <v>165</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="145" t="s">
         <v>166</v>
       </c>
@@ -3675,7 +3677,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="166" t="s">
         <v>167</v>
       </c>
@@ -3701,7 +3703,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="166" t="s">
         <v>146</v>
       </c>
@@ -3727,7 +3729,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="144" t="s">
         <v>168</v>
       </c>
@@ -3753,7 +3755,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="148" t="s">
         <v>169</v>
       </c>
@@ -3779,7 +3781,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="148" t="s">
         <v>170</v>
       </c>
@@ -3805,7 +3807,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="148" t="s">
         <v>189</v>
       </c>
@@ -3831,7 +3833,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="145" t="s">
         <v>197</v>
       </c>
@@ -3857,7 +3859,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="145" t="s">
         <v>235</v>
       </c>
@@ -3883,7 +3885,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="145" t="s">
         <v>220</v>
       </c>
@@ -3909,7 +3911,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="145" t="s">
         <v>222</v>
       </c>
@@ -3935,7 +3937,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="145" t="s">
         <v>226</v>
       </c>
@@ -3961,7 +3963,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="145" t="s">
         <v>224</v>
       </c>
@@ -3987,7 +3989,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="145" t="s">
         <v>225</v>
       </c>
@@ -4013,13 +4015,13 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="145"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="145">
         <v>50</v>
       </c>
@@ -4045,7 +4047,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="145">
         <v>51</v>
       </c>
@@ -4071,7 +4073,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="145">
         <v>52</v>
       </c>
@@ -4097,7 +4099,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="145">
         <v>53</v>
       </c>
@@ -4123,7 +4125,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="145">
         <v>54</v>
       </c>
@@ -4149,7 +4151,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="145">
         <v>55</v>
       </c>
@@ -4175,7 +4177,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="145">
         <v>56</v>
       </c>
@@ -4201,7 +4203,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="145">
         <v>57</v>
       </c>
@@ -4227,50 +4229,50 @@
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="88">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="88">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="88">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="88">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="88">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="88">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="88">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="88">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="145">
         <v>70</v>
       </c>
@@ -4296,7 +4298,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="145">
         <v>71</v>
       </c>
@@ -4322,7 +4324,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="145">
         <v>72</v>
       </c>
@@ -4348,7 +4350,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="145">
         <v>73</v>
       </c>
@@ -4374,7 +4376,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="145">
         <v>74</v>
       </c>
@@ -4400,7 +4402,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="145">
         <v>75</v>
       </c>
@@ -4426,7 +4428,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="145">
         <v>76</v>
       </c>
@@ -4452,7 +4454,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="145">
         <v>77</v>
       </c>
@@ -4478,50 +4480,50 @@
         <v>372</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="88">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="88">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="88">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="88">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="88">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="88">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="88">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="88">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="145">
         <v>90</v>
       </c>
@@ -4547,7 +4549,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="145">
         <v>91</v>
       </c>
@@ -4573,7 +4575,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="145">
         <v>92</v>
       </c>
@@ -4599,7 +4601,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="145">
         <v>93</v>
       </c>
@@ -4625,7 +4627,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="145">
         <v>94</v>
       </c>
@@ -4651,7 +4653,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="145">
         <v>95</v>
       </c>
@@ -4677,7 +4679,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="145">
         <v>96</v>
       </c>
@@ -4703,7 +4705,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="145">
         <v>97</v>
       </c>
@@ -4729,50 +4731,50 @@
         <v>372</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="88">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="88">
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="88">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="88">
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="88">
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="88">
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="88">
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="88">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="145">
         <v>110</v>
       </c>
@@ -4798,7 +4800,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="145">
         <v>111</v>
       </c>
@@ -4824,7 +4826,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="145">
         <v>112</v>
       </c>
@@ -4850,7 +4852,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="145">
         <v>113</v>
       </c>
@@ -4876,7 +4878,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="145">
         <v>114</v>
       </c>
@@ -4902,7 +4904,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="145">
         <v>115</v>
       </c>
@@ -4928,7 +4930,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="145">
         <v>116</v>
       </c>
@@ -4954,7 +4956,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="145">
         <v>117</v>
       </c>
@@ -4980,125 +4982,125 @@
         <v>372</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="88">
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="88">
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="88">
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="88">
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="88">
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="88">
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="88">
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="88">
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="88">
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="88">
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="88">
         <v>132</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="88">
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="88">
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="88">
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="88">
         <v>136</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="88">
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="88">
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="88">
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="88">
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="88">
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="88">
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="88">
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="88">
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="88">
         <v>145</v>
       </c>
@@ -5120,69 +5122,69 @@
       <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="54" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" style="54" customWidth="1"/>
-    <col min="23" max="23" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.33203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.44140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="16.44140625" style="54" customWidth="1"/>
-    <col min="31" max="31" width="26.88671875" style="54" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="16.42578125" style="54" customWidth="1"/>
+    <col min="31" max="31" width="26.85546875" style="54" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="21" style="54" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27.44140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="34.5546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="31.33203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="27.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="34.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.28515625" style="54" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="48" style="54" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="31.33203125" style="54" customWidth="1"/>
+    <col min="39" max="40" width="31.28515625" style="54" customWidth="1"/>
     <col min="41" max="41" width="48" style="54" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="16.44140625" style="54" customWidth="1"/>
-    <col min="45" max="45" width="22.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="16.44140625" style="54" customWidth="1"/>
-    <col min="49" max="49" width="31.5546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.88671875" style="54" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="16.42578125" style="54" customWidth="1"/>
+    <col min="45" max="45" width="22.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="16.42578125" style="54" customWidth="1"/>
+    <col min="49" max="49" width="31.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.85546875" style="54" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="6" style="54" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="7" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.44140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.44140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.140625" style="54" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="15" style="54" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.33203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.109375" customWidth="1"/>
+    <col min="59" max="59" width="16.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.140625" customWidth="1"/>
     <col min="61" max="61" width="19" style="54" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="17" style="54" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.140625" style="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J1" s="210" t="s">
         <v>186</v>
       </c>
@@ -5222,7 +5224,7 @@
       <c r="AN1" s="211"/>
       <c r="AO1" s="211"/>
     </row>
-    <row r="2" spans="1:66" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:66" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>33</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
         <v>142</v>
       </c>
@@ -5607,7 +5609,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="4" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>143</v>
       </c>
@@ -5801,7 +5803,7 @@
         <v>630.78</v>
       </c>
     </row>
-    <row r="5" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>150</v>
       </c>
@@ -5996,7 +5998,7 @@
       </c>
       <c r="BM5" s="76"/>
     </row>
-    <row r="6" spans="1:66" s="75" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" s="75" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>151</v>
       </c>
@@ -6188,7 +6190,7 @@
         <v>157.69999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>144</v>
       </c>
@@ -6380,7 +6382,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>161</v>
       </c>
@@ -6574,7 +6576,7 @@
         <v>630.78</v>
       </c>
     </row>
-    <row r="9" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>162</v>
       </c>
@@ -6768,7 +6770,7 @@
         <v>145.57</v>
       </c>
     </row>
-    <row r="10" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>164</v>
       </c>
@@ -6960,7 +6962,7 @@
         <v>157.69999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>145</v>
       </c>
@@ -7153,7 +7155,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="12" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>165</v>
       </c>
@@ -7347,7 +7349,7 @@
         <v>630.78</v>
       </c>
     </row>
-    <row r="13" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
         <v>166</v>
       </c>
@@ -7541,7 +7543,7 @@
         <v>145.57</v>
       </c>
     </row>
-    <row r="14" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>167</v>
       </c>
@@ -7733,7 +7735,7 @@
         <v>157.69999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>146</v>
       </c>
@@ -7925,7 +7927,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>168</v>
       </c>
@@ -8124,7 +8126,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>169</v>
       </c>
@@ -8321,7 +8323,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>170</v>
       </c>
@@ -8509,7 +8511,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>189</v>
       </c>
@@ -8698,7 +8700,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="20" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -8766,7 +8768,7 @@
       <c r="BK20" s="56"/>
       <c r="BL20" s="56"/>
     </row>
-    <row r="21" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -8834,7 +8836,7 @@
       <c r="BK21" s="56"/>
       <c r="BL21" s="56"/>
     </row>
-    <row r="22" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -8902,7 +8904,7 @@
       <c r="BK22" s="56"/>
       <c r="BL22" s="56"/>
     </row>
-    <row r="23" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -8970,7 +8972,7 @@
       <c r="BK23" s="56"/>
       <c r="BL23" s="56"/>
     </row>
-    <row r="24" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -9038,7 +9040,7 @@
       <c r="BK24" s="56"/>
       <c r="BL24" s="56"/>
     </row>
-    <row r="25" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -9106,7 +9108,7 @@
       <c r="BK25" s="56"/>
       <c r="BL25" s="56"/>
     </row>
-    <row r="26" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -9174,7 +9176,7 @@
       <c r="BK26" s="56"/>
       <c r="BL26" s="56"/>
     </row>
-    <row r="27" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="70">
         <v>1</v>
       </c>
@@ -9356,7 +9358,7 @@
         <v>355.78</v>
       </c>
     </row>
-    <row r="28" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="70">
         <v>2</v>
       </c>
@@ -9542,7 +9544,7 @@
         <v>711.56</v>
       </c>
     </row>
-    <row r="29" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="70">
         <v>3</v>
       </c>
@@ -9728,7 +9730,7 @@
         <v>164.20999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="70">
         <v>4</v>
       </c>
@@ -9913,7 +9915,7 @@
         <v>177.89999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="70">
         <v>5</v>
       </c>
@@ -10001,7 +10003,7 @@
       </c>
       <c r="BL31" s="56"/>
     </row>
-    <row r="32" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="70">
         <v>6</v>
       </c>
@@ -10187,7 +10189,7 @@
         <v>355.78</v>
       </c>
     </row>
-    <row r="33" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="70">
         <v>7</v>
       </c>
@@ -10375,7 +10377,7 @@
         <v>711.56</v>
       </c>
     </row>
-    <row r="34" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="70">
         <v>8</v>
       </c>
@@ -10559,7 +10561,7 @@
         <v>164.20999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="70">
         <v>9</v>
       </c>
@@ -10743,7 +10745,7 @@
         <v>177.89999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="70">
         <v>10</v>
       </c>
@@ -10827,7 +10829,7 @@
       <c r="BK36" s="56"/>
       <c r="BL36" s="56"/>
     </row>
-    <row r="37" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="70">
         <v>11</v>
       </c>
@@ -11013,7 +11015,7 @@
         <v>355.78</v>
       </c>
     </row>
-    <row r="38" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="70">
         <v>12</v>
       </c>
@@ -11201,7 +11203,7 @@
         <v>711.56</v>
       </c>
     </row>
-    <row r="39" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="70">
         <v>13</v>
       </c>
@@ -11385,7 +11387,7 @@
         <v>164.20999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="70">
         <v>14</v>
       </c>
@@ -11569,7 +11571,7 @@
         <v>177.89999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="70">
         <v>15</v>
       </c>
@@ -11649,7 +11651,7 @@
       <c r="BK41" s="58"/>
       <c r="BL41" s="58"/>
     </row>
-    <row r="42" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="70">
         <v>16</v>
       </c>
@@ -11837,7 +11839,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>17</v>
       </c>
@@ -12018,7 +12020,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>18</v>
       </c>
@@ -12101,7 +12103,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>19</v>
       </c>
@@ -12274,7 +12276,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>20</v>
       </c>
@@ -12357,7 +12359,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:66" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
       <c r="B47" s="70"/>
       <c r="C47" s="70"/>
@@ -12425,7 +12427,7 @@
       <c r="BK47" s="68"/>
       <c r="BL47" s="64"/>
     </row>
-    <row r="48" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:66" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="70"/>
       <c r="B48" s="70"/>
       <c r="C48" s="70"/>
@@ -12491,7 +12493,7 @@
       <c r="BK48" s="68"/>
       <c r="BL48" s="64"/>
     </row>
-    <row r="49" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="70"/>
       <c r="B49" s="70"/>
       <c r="C49" s="70"/>
@@ -12557,7 +12559,7 @@
       <c r="BK49" s="68"/>
       <c r="BL49" s="64"/>
     </row>
-    <row r="50" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="70" t="s">
         <v>197</v>
       </c>
@@ -12746,7 +12748,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="51" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="70" t="s">
         <v>220</v>
       </c>
@@ -12894,7 +12896,7 @@
       </c>
       <c r="BL51" s="65"/>
     </row>
-    <row r="52" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:64" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="70" t="s">
         <v>222</v>
       </c>
@@ -13074,7 +13076,7 @@
         <v>315.39</v>
       </c>
     </row>
-    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>21</v>
       </c>
@@ -13188,7 +13190,7 @@
       <c r="BK53" s="53"/>
       <c r="BL53" s="53"/>
     </row>
-    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>22</v>
       </c>
@@ -13304,7 +13306,7 @@
       <c r="BK54" s="53"/>
       <c r="BL54" s="53"/>
     </row>
-    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>23</v>
       </c>
@@ -13418,7 +13420,7 @@
       <c r="BK55" s="53"/>
       <c r="BL55" s="53"/>
     </row>
-    <row r="56" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>24</v>
       </c>
@@ -13532,7 +13534,7 @@
       <c r="BK56" s="53"/>
       <c r="BL56" s="53"/>
     </row>
-    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>25</v>
       </c>
@@ -13646,7 +13648,7 @@
       <c r="BK57" s="53"/>
       <c r="BL57" s="53"/>
     </row>
-    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>26</v>
       </c>
@@ -13760,7 +13762,7 @@
       <c r="BK58" s="53"/>
       <c r="BL58" s="53"/>
     </row>
-    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>27</v>
       </c>
@@ -13876,7 +13878,7 @@
       <c r="BK59" s="53"/>
       <c r="BL59" s="53"/>
     </row>
-    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>28</v>
       </c>
@@ -13990,7 +13992,7 @@
       <c r="BK60" s="53"/>
       <c r="BL60" s="53"/>
     </row>
-    <row r="61" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>29</v>
       </c>
@@ -14104,7 +14106,7 @@
       <c r="BK61" s="53"/>
       <c r="BL61" s="53"/>
     </row>
-    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>30</v>
       </c>
@@ -14218,7 +14220,7 @@
       <c r="BK62" s="53"/>
       <c r="BL62" s="53"/>
     </row>
-    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>31</v>
       </c>
@@ -14332,7 +14334,7 @@
       <c r="BK63" s="53"/>
       <c r="BL63" s="53"/>
     </row>
-    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>32</v>
       </c>
@@ -14448,7 +14450,7 @@
       <c r="BK64" s="53"/>
       <c r="BL64" s="53"/>
     </row>
-    <row r="65" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>33</v>
       </c>
@@ -14562,7 +14564,7 @@
       <c r="BK65" s="53"/>
       <c r="BL65" s="53"/>
     </row>
-    <row r="66" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>34</v>
       </c>
@@ -14676,7 +14678,7 @@
       <c r="BK66" s="53"/>
       <c r="BL66" s="53"/>
     </row>
-    <row r="67" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>35</v>
       </c>
@@ -14790,7 +14792,7 @@
       <c r="BK67" s="53"/>
       <c r="BL67" s="53"/>
     </row>
-    <row r="68" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>36</v>
       </c>
@@ -14904,7 +14906,7 @@
       <c r="BK68" s="53"/>
       <c r="BL68" s="53"/>
     </row>
-    <row r="69" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>37</v>
       </c>
@@ -15020,7 +15022,7 @@
       <c r="BK69" s="53"/>
       <c r="BL69" s="53"/>
     </row>
-    <row r="70" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>38</v>
       </c>
@@ -15134,7 +15136,7 @@
       <c r="BK70" s="53"/>
       <c r="BL70" s="53"/>
     </row>
-    <row r="71" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>39</v>
       </c>
@@ -15248,7 +15250,7 @@
       <c r="BK71" s="53"/>
       <c r="BL71" s="53"/>
     </row>
-    <row r="72" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>40</v>
       </c>
@@ -15362,7 +15364,7 @@
       <c r="BK72" s="53"/>
       <c r="BL72" s="53"/>
     </row>
-    <row r="73" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="J1:S1"/>
@@ -15380,14 +15382,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="134" t="s">
         <v>253</v>
       </c>
@@ -15395,31 +15397,31 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="107"/>
       <c r="D4" s="112" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="108"/>
       <c r="D5" s="112" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
       <c r="D6" s="112" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
       <c r="D7" s="112" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="111"/>
       <c r="D8" s="113" t="s">
         <v>252</v>
@@ -15435,118 +15437,118 @@
   <dimension ref="A1:DB153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="38.88671875" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" style="128" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="128" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" style="128" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="128" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" style="128" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="38.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="128" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="128" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="128" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="128" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="128" customWidth="1"/>
     <col min="15" max="15" width="15" style="128" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="128" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" style="125" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="128" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="125" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="28.33203125" customWidth="1"/>
-    <col min="20" max="20" width="20.5546875" customWidth="1"/>
-    <col min="21" max="21" width="17.33203125" style="128" customWidth="1"/>
-    <col min="22" max="22" width="26.6640625" style="128" customWidth="1"/>
-    <col min="23" max="23" width="28.33203125" style="128" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" style="128" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="128" customWidth="1"/>
-    <col min="26" max="26" width="17.6640625" style="128" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" style="125" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="125" customWidth="1"/>
-    <col min="29" max="29" width="32.5546875" style="128" customWidth="1"/>
-    <col min="30" max="30" width="18.88671875" style="128" customWidth="1"/>
-    <col min="31" max="31" width="25.6640625" style="128" customWidth="1"/>
-    <col min="32" max="32" width="25.33203125" style="128" customWidth="1"/>
-    <col min="33" max="33" width="27.44140625" style="128" customWidth="1"/>
-    <col min="34" max="34" width="16.44140625" style="128" customWidth="1"/>
-    <col min="35" max="35" width="25.33203125" style="128" customWidth="1"/>
-    <col min="36" max="36" width="11.44140625" style="128" customWidth="1"/>
-    <col min="37" max="37" width="31.5546875" style="128" customWidth="1"/>
-    <col min="38" max="38" width="15.33203125" customWidth="1"/>
-    <col min="39" max="40" width="15.44140625" customWidth="1"/>
+    <col min="19" max="19" width="28.28515625" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" style="128" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" style="128" customWidth="1"/>
+    <col min="23" max="23" width="28.28515625" style="128" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" style="128" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="128" customWidth="1"/>
+    <col min="26" max="26" width="17.7109375" style="128" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" style="125" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" style="125" customWidth="1"/>
+    <col min="29" max="29" width="32.5703125" style="128" customWidth="1"/>
+    <col min="30" max="30" width="18.85546875" style="128" customWidth="1"/>
+    <col min="31" max="31" width="25.7109375" style="128" customWidth="1"/>
+    <col min="32" max="32" width="25.28515625" style="128" customWidth="1"/>
+    <col min="33" max="33" width="27.42578125" style="128" customWidth="1"/>
+    <col min="34" max="34" width="16.42578125" style="128" customWidth="1"/>
+    <col min="35" max="35" width="25.28515625" style="128" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" style="128" customWidth="1"/>
+    <col min="37" max="37" width="31.5703125" style="128" customWidth="1"/>
+    <col min="38" max="38" width="15.28515625" customWidth="1"/>
+    <col min="39" max="40" width="15.42578125" customWidth="1"/>
     <col min="41" max="41" width="20" customWidth="1"/>
-    <col min="42" max="42" width="29.109375" customWidth="1"/>
+    <col min="42" max="42" width="29.140625" customWidth="1"/>
     <col min="43" max="45" width="23" customWidth="1"/>
-    <col min="46" max="46" width="35.33203125" style="209" customWidth="1"/>
+    <col min="46" max="46" width="35.28515625" style="209" customWidth="1"/>
     <col min="47" max="47" width="21" customWidth="1"/>
-    <col min="48" max="48" width="27.88671875" customWidth="1"/>
-    <col min="49" max="49" width="16.88671875" customWidth="1"/>
-    <col min="50" max="50" width="17.5546875" customWidth="1"/>
-    <col min="51" max="51" width="14.33203125" customWidth="1"/>
-    <col min="52" max="52" width="27.88671875" customWidth="1"/>
-    <col min="53" max="53" width="17.5546875" customWidth="1"/>
-    <col min="54" max="54" width="14.33203125" customWidth="1"/>
-    <col min="55" max="55" width="27.88671875" style="128" customWidth="1"/>
-    <col min="56" max="56" width="18.5546875" style="128" customWidth="1"/>
-    <col min="57" max="57" width="15.33203125" style="128" customWidth="1"/>
-    <col min="58" max="58" width="18.44140625" style="128" customWidth="1"/>
-    <col min="59" max="59" width="18.5546875" style="128" customWidth="1"/>
-    <col min="60" max="60" width="15.33203125" style="128" customWidth="1"/>
-    <col min="61" max="61" width="18.44140625" style="128" customWidth="1"/>
-    <col min="62" max="63" width="23.44140625" style="128" customWidth="1"/>
+    <col min="48" max="48" width="27.85546875" customWidth="1"/>
+    <col min="49" max="49" width="16.85546875" customWidth="1"/>
+    <col min="50" max="50" width="17.5703125" customWidth="1"/>
+    <col min="51" max="51" width="14.28515625" customWidth="1"/>
+    <col min="52" max="52" width="27.85546875" customWidth="1"/>
+    <col min="53" max="53" width="17.5703125" customWidth="1"/>
+    <col min="54" max="54" width="14.28515625" customWidth="1"/>
+    <col min="55" max="55" width="27.85546875" style="128" customWidth="1"/>
+    <col min="56" max="56" width="18.5703125" style="128" customWidth="1"/>
+    <col min="57" max="57" width="15.28515625" style="128" customWidth="1"/>
+    <col min="58" max="58" width="18.42578125" style="128" customWidth="1"/>
+    <col min="59" max="59" width="18.5703125" style="128" customWidth="1"/>
+    <col min="60" max="60" width="15.28515625" style="128" customWidth="1"/>
+    <col min="61" max="61" width="18.42578125" style="128" customWidth="1"/>
+    <col min="62" max="63" width="23.42578125" style="128" customWidth="1"/>
     <col min="64" max="64" width="23" style="128" customWidth="1"/>
-    <col min="65" max="65" width="22.44140625" style="128" customWidth="1"/>
-    <col min="66" max="66" width="33.88671875" style="128" customWidth="1"/>
-    <col min="67" max="67" width="44.44140625" style="128" customWidth="1"/>
-    <col min="68" max="68" width="14.88671875" style="128" customWidth="1"/>
-    <col min="69" max="69" width="18.33203125" style="128" customWidth="1"/>
-    <col min="70" max="70" width="29.33203125" style="116" customWidth="1"/>
-    <col min="71" max="71" width="30.6640625" style="128" customWidth="1"/>
-    <col min="72" max="72" width="9.88671875" style="128" customWidth="1"/>
-    <col min="73" max="73" width="17.6640625" style="128" customWidth="1"/>
-    <col min="74" max="74" width="15.44140625" style="128" customWidth="1"/>
-    <col min="75" max="75" width="19.109375" style="128" customWidth="1"/>
-    <col min="76" max="76" width="14.109375" style="128" customWidth="1"/>
+    <col min="65" max="65" width="22.42578125" style="128" customWidth="1"/>
+    <col min="66" max="66" width="33.85546875" style="128" customWidth="1"/>
+    <col min="67" max="67" width="44.42578125" style="128" customWidth="1"/>
+    <col min="68" max="68" width="14.85546875" style="128" customWidth="1"/>
+    <col min="69" max="69" width="18.28515625" style="128" customWidth="1"/>
+    <col min="70" max="70" width="29.28515625" style="116" customWidth="1"/>
+    <col min="71" max="71" width="30.7109375" style="128" customWidth="1"/>
+    <col min="72" max="72" width="9.85546875" style="128" customWidth="1"/>
+    <col min="73" max="73" width="17.7109375" style="128" customWidth="1"/>
+    <col min="74" max="74" width="15.42578125" style="128" customWidth="1"/>
+    <col min="75" max="75" width="19.140625" style="128" customWidth="1"/>
+    <col min="76" max="76" width="14.140625" style="128" customWidth="1"/>
     <col min="77" max="77" width="15" style="128" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="128" customWidth="1"/>
+    <col min="78" max="78" width="16.28515625" style="128" customWidth="1"/>
     <col min="79" max="79" width="8" style="128" customWidth="1"/>
-    <col min="80" max="81" width="36.33203125" style="128" customWidth="1"/>
-    <col min="82" max="82" width="18.88671875" style="128" customWidth="1"/>
-    <col min="83" max="83" width="31.109375" style="128" customWidth="1"/>
-    <col min="84" max="84" width="16.109375" style="128" customWidth="1"/>
-    <col min="85" max="85" width="37.33203125" style="128" customWidth="1"/>
-    <col min="86" max="86" width="12.44140625" style="128" customWidth="1"/>
-    <col min="87" max="87" width="19.33203125" style="128" customWidth="1"/>
-    <col min="88" max="88" width="20.33203125" style="128" customWidth="1"/>
-    <col min="89" max="89" width="21.44140625" style="128" customWidth="1"/>
-    <col min="90" max="90" width="24.44140625" style="128" customWidth="1"/>
-    <col min="91" max="91" width="24.33203125" style="128" customWidth="1"/>
-    <col min="92" max="92" width="7.5546875" style="128" customWidth="1"/>
-    <col min="93" max="93" width="18.5546875" style="128" customWidth="1"/>
-    <col min="94" max="94" width="19.5546875" style="128" customWidth="1"/>
-    <col min="95" max="95" width="17.33203125" style="128" customWidth="1"/>
-    <col min="96" max="96" width="18.109375" style="128" customWidth="1"/>
-    <col min="97" max="97" width="19.44140625" style="128" customWidth="1"/>
-    <col min="98" max="98" width="7.6640625" style="128" customWidth="1"/>
-    <col min="99" max="100" width="39.44140625" style="128" customWidth="1"/>
-    <col min="101" max="101" width="20.109375" style="128" customWidth="1"/>
-    <col min="102" max="102" width="28.33203125" style="128" customWidth="1"/>
-    <col min="103" max="103" width="19.33203125" style="128" customWidth="1"/>
-    <col min="104" max="104" width="38.88671875" style="128" customWidth="1"/>
-    <col min="105" max="105" width="13.44140625" style="128" customWidth="1"/>
-    <col min="106" max="106" width="22.88671875" style="128" customWidth="1"/>
-    <col min="107" max="107" width="22.88671875" customWidth="1"/>
+    <col min="80" max="81" width="36.28515625" style="128" customWidth="1"/>
+    <col min="82" max="82" width="18.85546875" style="128" customWidth="1"/>
+    <col min="83" max="83" width="31.140625" style="128" customWidth="1"/>
+    <col min="84" max="84" width="16.140625" style="128" customWidth="1"/>
+    <col min="85" max="85" width="37.28515625" style="128" customWidth="1"/>
+    <col min="86" max="86" width="12.42578125" style="128" customWidth="1"/>
+    <col min="87" max="87" width="19.28515625" style="128" customWidth="1"/>
+    <col min="88" max="88" width="20.28515625" style="128" customWidth="1"/>
+    <col min="89" max="89" width="21.42578125" style="128" customWidth="1"/>
+    <col min="90" max="90" width="24.42578125" style="128" customWidth="1"/>
+    <col min="91" max="91" width="24.28515625" style="128" customWidth="1"/>
+    <col min="92" max="92" width="7.5703125" style="128" customWidth="1"/>
+    <col min="93" max="93" width="18.5703125" style="128" customWidth="1"/>
+    <col min="94" max="94" width="19.5703125" style="128" customWidth="1"/>
+    <col min="95" max="95" width="17.28515625" style="128" customWidth="1"/>
+    <col min="96" max="96" width="18.140625" style="128" customWidth="1"/>
+    <col min="97" max="97" width="19.42578125" style="128" customWidth="1"/>
+    <col min="98" max="98" width="7.7109375" style="128" customWidth="1"/>
+    <col min="99" max="100" width="39.42578125" style="128" customWidth="1"/>
+    <col min="101" max="101" width="20.140625" style="128" customWidth="1"/>
+    <col min="102" max="102" width="28.28515625" style="128" customWidth="1"/>
+    <col min="103" max="103" width="19.28515625" style="128" customWidth="1"/>
+    <col min="104" max="104" width="38.85546875" style="128" customWidth="1"/>
+    <col min="105" max="105" width="13.42578125" style="128" customWidth="1"/>
+    <col min="106" max="106" width="22.85546875" style="128" customWidth="1"/>
+    <col min="107" max="107" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="190" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:106" s="190" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
@@ -15866,7 +15868,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="145" t="s">
         <v>142</v>
       </c>
@@ -16188,7 +16190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
         <v>143</v>
       </c>
@@ -16508,7 +16510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>150</v>
       </c>
@@ -16829,7 +16831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>151</v>
       </c>
@@ -17151,7 +17153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>144</v>
       </c>
@@ -17471,7 +17473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>161</v>
       </c>
@@ -17791,7 +17793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>162</v>
       </c>
@@ -18111,7 +18113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>164</v>
       </c>
@@ -18431,7 +18433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>145</v>
       </c>
@@ -18753,7 +18755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>165</v>
       </c>
@@ -19073,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>166</v>
       </c>
@@ -19394,7 +19396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="129" t="s">
         <v>167</v>
       </c>
@@ -19714,7 +19716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A14" s="129" t="s">
         <v>146</v>
       </c>
@@ -20034,7 +20036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>168</v>
       </c>
@@ -20354,7 +20356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>169</v>
       </c>
@@ -20674,7 +20676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>170</v>
       </c>
@@ -20994,7 +20996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>189</v>
       </c>
@@ -21314,7 +21316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>197</v>
       </c>
@@ -21634,7 +21636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>235</v>
       </c>
@@ -21954,7 +21956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>220</v>
       </c>
@@ -22276,7 +22278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
         <v>222</v>
       </c>
@@ -22596,7 +22598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
         <v>226</v>
       </c>
@@ -22918,7 +22920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
         <v>224</v>
       </c>
@@ -23240,7 +23242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
         <v>225</v>
       </c>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A26" s="70"/>
       <c r="B26" s="70"/>
       <c r="C26" s="70"/>
@@ -23666,7 +23668,7 @@
       <c r="DA26" s="183"/>
       <c r="DB26" s="183"/>
     </row>
-    <row r="27" spans="1:106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="215" t="s">
         <v>236</v>
       </c>
@@ -23776,7 +23778,7 @@
       <c r="DA27" s="183"/>
       <c r="DB27" s="183"/>
     </row>
-    <row r="28" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="70">
         <v>50</v>
       </c>
@@ -24097,7 +24099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="70">
         <v>51</v>
       </c>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="70">
         <v>52</v>
       </c>
@@ -24739,7 +24741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="70">
         <v>53</v>
       </c>
@@ -25060,7 +25062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="70">
         <v>54</v>
       </c>
@@ -25381,7 +25383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="70">
         <v>55</v>
       </c>
@@ -25702,7 +25704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="70">
         <v>56</v>
       </c>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="70">
         <v>57</v>
       </c>
@@ -26344,7 +26346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="88">
         <v>58</v>
       </c>
@@ -26524,7 +26526,7 @@
       <c r="DA36" s="186"/>
       <c r="DB36" s="186"/>
     </row>
-    <row r="37" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="88">
         <v>59</v>
       </c>
@@ -26704,7 +26706,7 @@
       <c r="DA37" s="186"/>
       <c r="DB37" s="186"/>
     </row>
-    <row r="38" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="88">
         <v>60</v>
       </c>
@@ -26884,7 +26886,7 @@
       <c r="DA38" s="186"/>
       <c r="DB38" s="186"/>
     </row>
-    <row r="39" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="88">
         <v>61</v>
       </c>
@@ -27064,7 +27066,7 @@
       <c r="DA39" s="186"/>
       <c r="DB39" s="186"/>
     </row>
-    <row r="40" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="88">
         <v>62</v>
       </c>
@@ -27244,7 +27246,7 @@
       <c r="DA40" s="186"/>
       <c r="DB40" s="186"/>
     </row>
-    <row r="41" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="88">
         <v>63</v>
       </c>
@@ -27424,7 +27426,7 @@
       <c r="DA41" s="186"/>
       <c r="DB41" s="186"/>
     </row>
-    <row r="42" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="88">
         <v>64</v>
       </c>
@@ -27604,7 +27606,7 @@
       <c r="DA42" s="186"/>
       <c r="DB42" s="186"/>
     </row>
-    <row r="43" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="88">
         <v>65</v>
       </c>
@@ -27784,7 +27786,7 @@
       <c r="DA43" s="186"/>
       <c r="DB43" s="186"/>
     </row>
-    <row r="44" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH44" s="181"/>
       <c r="CI44" s="181"/>
       <c r="CJ44" s="183"/>
@@ -27807,7 +27809,7 @@
       <c r="DA44" s="183"/>
       <c r="DB44" s="183"/>
     </row>
-    <row r="45" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A45" s="212" t="s">
         <v>237</v>
       </c>
@@ -27917,7 +27919,7 @@
       <c r="DA45" s="183"/>
       <c r="DB45" s="183"/>
     </row>
-    <row r="46" spans="1:106" s="75" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:106" s="75" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="70">
         <v>70</v>
       </c>
@@ -28235,7 +28237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="70">
         <v>71</v>
       </c>
@@ -28555,7 +28557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="70">
         <v>72</v>
       </c>
@@ -28874,7 +28876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="70">
         <v>73</v>
       </c>
@@ -29193,7 +29195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="70">
         <v>74</v>
       </c>
@@ -29513,7 +29515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="70">
         <v>75</v>
       </c>
@@ -29832,7 +29834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="70">
         <v>76</v>
       </c>
@@ -30151,7 +30153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="70">
         <v>77</v>
       </c>
@@ -30470,7 +30472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:106" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:106" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="88">
         <v>78</v>
       </c>
@@ -30646,7 +30648,7 @@
       <c r="DA54" s="186"/>
       <c r="DB54" s="186"/>
     </row>
-    <row r="55" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="88">
         <v>79</v>
       </c>
@@ -30822,7 +30824,7 @@
       <c r="DA55" s="186"/>
       <c r="DB55" s="186"/>
     </row>
-    <row r="56" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="88">
         <v>80</v>
       </c>
@@ -30998,7 +31000,7 @@
       <c r="DA56" s="186"/>
       <c r="DB56" s="186"/>
     </row>
-    <row r="57" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="88">
         <v>81</v>
       </c>
@@ -31174,7 +31176,7 @@
       <c r="DA57" s="186"/>
       <c r="DB57" s="186"/>
     </row>
-    <row r="58" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="88">
         <v>82</v>
       </c>
@@ -31350,7 +31352,7 @@
       <c r="DA58" s="186"/>
       <c r="DB58" s="186"/>
     </row>
-    <row r="59" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="88">
         <v>83</v>
       </c>
@@ -31526,7 +31528,7 @@
       <c r="DA59" s="186"/>
       <c r="DB59" s="186"/>
     </row>
-    <row r="60" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="88">
         <v>84</v>
       </c>
@@ -31702,7 +31704,7 @@
       <c r="DA60" s="186"/>
       <c r="DB60" s="186"/>
     </row>
-    <row r="61" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="88">
         <v>85</v>
       </c>
@@ -31878,7 +31880,7 @@
       <c r="DA61" s="186"/>
       <c r="DB61" s="186"/>
     </row>
-    <row r="62" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:106" x14ac:dyDescent="0.25">
       <c r="AH62" s="205"/>
       <c r="AI62" s="205"/>
       <c r="CH62" s="171"/>
@@ -31903,7 +31905,7 @@
       <c r="DA62" s="183"/>
       <c r="DB62" s="183"/>
     </row>
-    <row r="63" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A63" s="212" t="s">
         <v>238</v>
       </c>
@@ -32013,7 +32015,7 @@
       <c r="DA63" s="183"/>
       <c r="DB63" s="183"/>
     </row>
-    <row r="64" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="70">
         <v>90</v>
       </c>
@@ -32334,7 +32336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="70">
         <v>91</v>
       </c>
@@ -32655,7 +32657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70">
         <v>92</v>
       </c>
@@ -32976,7 +32978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="70">
         <v>93</v>
       </c>
@@ -33297,7 +33299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="70">
         <v>94</v>
       </c>
@@ -33618,7 +33620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="70">
         <v>95</v>
       </c>
@@ -33939,7 +33941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="70">
         <v>96</v>
       </c>
@@ -34260,7 +34262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="70">
         <v>97</v>
       </c>
@@ -34581,7 +34583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:106" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:106" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="88">
         <v>98</v>
       </c>
@@ -34763,7 +34765,7 @@
       <c r="DA72" s="186"/>
       <c r="DB72" s="186"/>
     </row>
-    <row r="73" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="88">
         <v>99</v>
       </c>
@@ -34945,7 +34947,7 @@
       <c r="DA73" s="186"/>
       <c r="DB73" s="186"/>
     </row>
-    <row r="74" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="88">
         <v>100</v>
       </c>
@@ -35127,7 +35129,7 @@
       <c r="DA74" s="186"/>
       <c r="DB74" s="186"/>
     </row>
-    <row r="75" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="88">
         <v>101</v>
       </c>
@@ -35309,7 +35311,7 @@
       <c r="DA75" s="186"/>
       <c r="DB75" s="186"/>
     </row>
-    <row r="76" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="88">
         <v>102</v>
       </c>
@@ -35491,7 +35493,7 @@
       <c r="DA76" s="186"/>
       <c r="DB76" s="186"/>
     </row>
-    <row r="77" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="88">
         <v>103</v>
       </c>
@@ -35673,7 +35675,7 @@
       <c r="DA77" s="186"/>
       <c r="DB77" s="186"/>
     </row>
-    <row r="78" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="88">
         <v>104</v>
       </c>
@@ -35855,7 +35857,7 @@
       <c r="DA78" s="186"/>
       <c r="DB78" s="186"/>
     </row>
-    <row r="79" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="88">
         <v>105</v>
       </c>
@@ -36037,7 +36039,7 @@
       <c r="DA79" s="186"/>
       <c r="DB79" s="186"/>
     </row>
-    <row r="80" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:106" x14ac:dyDescent="0.25">
       <c r="AH80" s="205"/>
       <c r="AI80" s="205"/>
       <c r="CH80" s="171"/>
@@ -36062,7 +36064,7 @@
       <c r="DA80" s="183"/>
       <c r="DB80" s="183"/>
     </row>
-    <row r="81" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A81" s="212" t="s">
         <v>239</v>
       </c>
@@ -36172,7 +36174,7 @@
       <c r="DA81" s="183"/>
       <c r="DB81" s="183"/>
     </row>
-    <row r="82" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="70">
         <v>110</v>
       </c>
@@ -36492,7 +36494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="70">
         <v>111</v>
       </c>
@@ -36812,7 +36814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:106" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:106" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="70">
         <v>112</v>
       </c>
@@ -37133,7 +37135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="70">
         <v>113</v>
       </c>
@@ -37454,7 +37456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="70">
         <v>114</v>
       </c>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="70">
         <v>115</v>
       </c>
@@ -38095,7 +38097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="70">
         <v>116</v>
       </c>
@@ -38416,7 +38418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:106" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="70">
         <v>117</v>
       </c>
@@ -38737,7 +38739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="88">
         <v>118</v>
       </c>
@@ -38957,7 +38959,7 @@
       <c r="DA90" s="186"/>
       <c r="DB90" s="186"/>
     </row>
-    <row r="91" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="88">
         <v>119</v>
       </c>
@@ -39177,7 +39179,7 @@
       <c r="DA91" s="186"/>
       <c r="DB91" s="186"/>
     </row>
-    <row r="92" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="88">
         <v>120</v>
       </c>
@@ -39397,7 +39399,7 @@
       <c r="DA92" s="186"/>
       <c r="DB92" s="186"/>
     </row>
-    <row r="93" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="88">
         <v>121</v>
       </c>
@@ -39617,7 +39619,7 @@
       <c r="DA93" s="186"/>
       <c r="DB93" s="186"/>
     </row>
-    <row r="94" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="88">
         <v>122</v>
       </c>
@@ -39837,7 +39839,7 @@
       <c r="DA94" s="186"/>
       <c r="DB94" s="186"/>
     </row>
-    <row r="95" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="88">
         <v>123</v>
       </c>
@@ -40057,7 +40059,7 @@
       <c r="DA95" s="186"/>
       <c r="DB95" s="186"/>
     </row>
-    <row r="96" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="88">
         <v>124</v>
       </c>
@@ -40279,7 +40281,7 @@
       <c r="DA96" s="186"/>
       <c r="DB96" s="186"/>
     </row>
-    <row r="97" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="88">
         <v>125</v>
       </c>
@@ -40501,7 +40503,7 @@
       <c r="DA97" s="186"/>
       <c r="DB97" s="186"/>
     </row>
-    <row r="98" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH98" s="181"/>
       <c r="CI98" s="181"/>
       <c r="CJ98" s="183"/>
@@ -40524,7 +40526,7 @@
       <c r="DA98" s="183"/>
       <c r="DB98" s="183"/>
     </row>
-    <row r="99" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A99" s="212" t="s">
         <v>240</v>
       </c>
@@ -40634,7 +40636,7 @@
       <c r="DA99" s="183"/>
       <c r="DB99" s="183"/>
     </row>
-    <row r="100" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="88">
         <v>130</v>
       </c>
@@ -40762,7 +40764,7 @@
       <c r="DA100" s="186"/>
       <c r="DB100" s="186"/>
     </row>
-    <row r="101" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="88">
         <v>131</v>
       </c>
@@ -40890,7 +40892,7 @@
       <c r="DA101" s="186"/>
       <c r="DB101" s="186"/>
     </row>
-    <row r="102" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="88">
         <v>132</v>
       </c>
@@ -41018,7 +41020,7 @@
       <c r="DA102" s="186"/>
       <c r="DB102" s="186"/>
     </row>
-    <row r="103" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="88">
         <v>133</v>
       </c>
@@ -41146,7 +41148,7 @@
       <c r="DA103" s="186"/>
       <c r="DB103" s="186"/>
     </row>
-    <row r="104" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="88">
         <v>134</v>
       </c>
@@ -41274,7 +41276,7 @@
       <c r="DA104" s="186"/>
       <c r="DB104" s="186"/>
     </row>
-    <row r="105" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="88">
         <v>135</v>
       </c>
@@ -41402,7 +41404,7 @@
       <c r="DA105" s="186"/>
       <c r="DB105" s="186"/>
     </row>
-    <row r="106" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="88">
         <v>136</v>
       </c>
@@ -41530,7 +41532,7 @@
       <c r="DA106" s="186"/>
       <c r="DB106" s="186"/>
     </row>
-    <row r="107" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="88">
         <v>137</v>
       </c>
@@ -41658,7 +41660,7 @@
       <c r="DA107" s="186"/>
       <c r="DB107" s="186"/>
     </row>
-    <row r="108" spans="1:106" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:106" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="88">
         <v>138</v>
       </c>
@@ -41786,7 +41788,7 @@
       <c r="DA108" s="186"/>
       <c r="DB108" s="186"/>
     </row>
-    <row r="109" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="88">
         <v>139</v>
       </c>
@@ -41914,7 +41916,7 @@
       <c r="DA109" s="186"/>
       <c r="DB109" s="186"/>
     </row>
-    <row r="110" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="88">
         <v>140</v>
       </c>
@@ -42042,7 +42044,7 @@
       <c r="DA110" s="186"/>
       <c r="DB110" s="186"/>
     </row>
-    <row r="111" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="88">
         <v>141</v>
       </c>
@@ -42170,7 +42172,7 @@
       <c r="DA111" s="186"/>
       <c r="DB111" s="186"/>
     </row>
-    <row r="112" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="88">
         <v>142</v>
       </c>
@@ -42298,7 +42300,7 @@
       <c r="DA112" s="186"/>
       <c r="DB112" s="186"/>
     </row>
-    <row r="113" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="88">
         <v>143</v>
       </c>
@@ -42426,7 +42428,7 @@
       <c r="DA113" s="186"/>
       <c r="DB113" s="186"/>
     </row>
-    <row r="114" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="88">
         <v>144</v>
       </c>
@@ -42554,7 +42556,7 @@
       <c r="DA114" s="186"/>
       <c r="DB114" s="186"/>
     </row>
-    <row r="115" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:106" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="88">
         <v>145</v>
       </c>
@@ -42682,159 +42684,160 @@
       <c r="DA115" s="186"/>
       <c r="DB115" s="186"/>
     </row>
-    <row r="116" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH116" s="189"/>
       <c r="CI116" s="189"/>
     </row>
-    <row r="117" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH117" s="189"/>
       <c r="CI117" s="189"/>
     </row>
-    <row r="118" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH118" s="189"/>
       <c r="CI118" s="189"/>
     </row>
-    <row r="119" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH119" s="189"/>
       <c r="CI119" s="189"/>
     </row>
-    <row r="120" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH120" s="189"/>
       <c r="CI120" s="189"/>
     </row>
-    <row r="121" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH121" s="189"/>
       <c r="CI121" s="189"/>
     </row>
-    <row r="122" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH122" s="189"/>
       <c r="CI122" s="189"/>
     </row>
-    <row r="123" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH123" s="189"/>
       <c r="CI123" s="189"/>
     </row>
-    <row r="124" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH124" s="189"/>
       <c r="CI124" s="189"/>
     </row>
-    <row r="125" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH125" s="189"/>
       <c r="CI125" s="189"/>
     </row>
-    <row r="126" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH126" s="189"/>
       <c r="CI126" s="189"/>
     </row>
-    <row r="127" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH127" s="189"/>
       <c r="CI127" s="189"/>
     </row>
-    <row r="128" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CH128" s="189"/>
       <c r="CI128" s="189"/>
     </row>
-    <row r="129" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="129" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH129" s="189"/>
       <c r="CI129" s="189"/>
     </row>
-    <row r="130" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="130" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH130" s="189"/>
       <c r="CI130" s="189"/>
     </row>
-    <row r="131" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="131" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH131" s="189"/>
       <c r="CI131" s="189"/>
     </row>
-    <row r="132" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="132" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH132" s="189"/>
       <c r="CI132" s="189"/>
     </row>
-    <row r="133" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="133" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH133" s="189"/>
       <c r="CI133" s="189"/>
     </row>
-    <row r="134" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="134" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH134" s="189"/>
       <c r="CI134" s="189"/>
     </row>
-    <row r="135" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="135" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH135" s="189"/>
       <c r="CI135" s="189"/>
     </row>
-    <row r="136" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="136" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH136" s="189"/>
       <c r="CI136" s="189"/>
     </row>
-    <row r="137" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="137" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH137" s="189"/>
       <c r="CI137" s="189"/>
     </row>
-    <row r="138" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="138" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH138" s="189"/>
       <c r="CI138" s="189"/>
     </row>
-    <row r="139" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="139" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH139" s="189"/>
       <c r="CI139" s="189"/>
     </row>
-    <row r="140" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="140" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH140" s="189"/>
       <c r="CI140" s="189"/>
     </row>
-    <row r="141" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="141" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH141" s="189"/>
       <c r="CI141" s="189"/>
     </row>
-    <row r="142" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="142" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH142" s="189"/>
       <c r="CI142" s="189"/>
     </row>
-    <row r="143" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="143" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH143" s="189"/>
       <c r="CI143" s="189"/>
     </row>
-    <row r="144" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="144" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH144" s="189"/>
       <c r="CI144" s="189"/>
     </row>
-    <row r="145" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="145" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH145" s="189"/>
       <c r="CI145" s="189"/>
     </row>
-    <row r="146" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="146" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH146" s="189"/>
       <c r="CI146" s="189"/>
     </row>
-    <row r="147" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="147" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH147" s="189"/>
       <c r="CI147" s="189"/>
     </row>
-    <row r="148" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="148" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH148" s="189"/>
       <c r="CI148" s="189"/>
     </row>
-    <row r="149" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="149" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH149" s="189"/>
       <c r="CI149" s="189"/>
     </row>
-    <row r="150" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="150" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH150" s="189"/>
       <c r="CI150" s="189"/>
     </row>
-    <row r="151" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="151" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH151" s="189"/>
       <c r="CI151" s="189"/>
     </row>
-    <row r="152" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="152" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH152" s="189"/>
       <c r="CI152" s="189"/>
     </row>
-    <row r="153" spans="86:87" x14ac:dyDescent="0.3">
+    <row r="153" spans="86:87" x14ac:dyDescent="0.25">
       <c r="CH153" s="189"/>
       <c r="CI153" s="189"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:DB153"/>
   <mergeCells count="5">
     <mergeCell ref="A99:C99"/>
     <mergeCell ref="A27:C27"/>
@@ -42842,7 +42845,7 @@
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="A81:C81"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -42857,31 +42860,31 @@
       <selection pane="bottomLeft" activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="158" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="25.5546875" style="158" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="158" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.5703125" style="158" customWidth="1"/>
     <col min="7" max="7" width="6" style="158" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="158" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" style="158" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="158" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15" style="158" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.5546875" style="158" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="158" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" style="158" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="158" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="158" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.109375" style="158" customWidth="1"/>
+    <col min="16" max="18" width="11.140625" style="158" customWidth="1"/>
     <col min="19" max="20" width="15" style="158" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5546875" style="158" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.109375" style="158" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.88671875" style="158" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" style="158" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" style="158" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.85546875" style="158" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17" style="158" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="34.88671875" style="158" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="34.85546875" style="158" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="197" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="197" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="199" t="s">
         <v>33</v>
       </c>
@@ -42962,7 +42965,7 @@
       </c>
       <c r="AA1" s="198"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="145" t="s">
         <v>142</v>
       </c>
@@ -43042,7 +43045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="145" t="s">
         <v>143</v>
       </c>
@@ -43122,7 +43125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="145" t="s">
         <v>150</v>
       </c>
@@ -43202,7 +43205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="145" t="s">
         <v>151</v>
       </c>
@@ -43282,7 +43285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="145" t="s">
         <v>144</v>
       </c>
@@ -43362,7 +43365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="145" t="s">
         <v>161</v>
       </c>
@@ -43442,7 +43445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="145" t="s">
         <v>162</v>
       </c>
@@ -43522,7 +43525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="145" t="s">
         <v>164</v>
       </c>
@@ -43602,7 +43605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="145" t="s">
         <v>145</v>
       </c>
@@ -43682,7 +43685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="145" t="s">
         <v>165</v>
       </c>
@@ -43762,7 +43765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="145" t="s">
         <v>166</v>
       </c>
@@ -43842,7 +43845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="166" t="s">
         <v>167</v>
       </c>
@@ -43922,7 +43925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="166" t="s">
         <v>146</v>
       </c>
@@ -44002,7 +44005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="144" t="s">
         <v>168</v>
       </c>
@@ -44082,7 +44085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="148" t="s">
         <v>169</v>
       </c>
@@ -44162,7 +44165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="148" t="s">
         <v>170</v>
       </c>
@@ -44242,7 +44245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="148" t="s">
         <v>189</v>
       </c>
@@ -44322,7 +44325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="145" t="s">
         <v>197</v>
       </c>
@@ -44402,7 +44405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="145" t="s">
         <v>235</v>
       </c>
@@ -44482,7 +44485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="145" t="s">
         <v>220</v>
       </c>
@@ -44562,7 +44565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="145" t="s">
         <v>222</v>
       </c>
@@ -44642,7 +44645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="145" t="s">
         <v>226</v>
       </c>
@@ -44722,7 +44725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="145" t="s">
         <v>224</v>
       </c>
@@ -44802,7 +44805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="145" t="s">
         <v>225</v>
       </c>
@@ -44882,7 +44885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="145"/>
       <c r="B26" s="145"/>
       <c r="C26" s="145"/>
@@ -44910,7 +44913,7 @@
       <c r="Y26" s="146"/>
       <c r="Z26" s="146"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="212" t="s">
         <v>236</v>
       </c>
@@ -44940,7 +44943,7 @@
       <c r="Y27" s="146"/>
       <c r="Z27" s="146"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="145">
         <v>50</v>
       </c>
@@ -45021,7 +45024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="145">
         <v>51</v>
       </c>
@@ -45101,7 +45104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="145">
         <v>52</v>
       </c>
@@ -45181,7 +45184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="145">
         <v>53</v>
       </c>
@@ -45261,7 +45264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="145">
         <v>54</v>
       </c>
@@ -45341,7 +45344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="145">
         <v>55</v>
       </c>
@@ -45421,7 +45424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="145">
         <v>56</v>
       </c>
@@ -45501,7 +45504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="145">
         <v>57</v>
       </c>
@@ -45581,7 +45584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="88">
         <v>58</v>
       </c>
@@ -45613,7 +45616,7 @@
       <c r="Y36" s="146"/>
       <c r="Z36" s="146"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="88">
         <v>59</v>
       </c>
@@ -45645,7 +45648,7 @@
       <c r="Y37" s="146"/>
       <c r="Z37" s="146"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="88">
         <v>60</v>
       </c>
@@ -45679,7 +45682,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="88">
         <v>61</v>
       </c>
@@ -45711,7 +45714,7 @@
       <c r="Y39" s="146"/>
       <c r="Z39" s="146"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="88">
         <v>62</v>
       </c>
@@ -45743,7 +45746,7 @@
       <c r="Y40" s="146"/>
       <c r="Z40" s="146"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="88">
         <v>63</v>
       </c>
@@ -45775,7 +45778,7 @@
       <c r="Y41" s="146"/>
       <c r="Z41" s="146"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="88">
         <v>64</v>
       </c>
@@ -45807,7 +45810,7 @@
       <c r="Y42" s="146"/>
       <c r="Z42" s="146"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="88">
         <v>65</v>
       </c>
@@ -45839,7 +45842,7 @@
       <c r="Y43" s="146"/>
       <c r="Z43" s="146"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D44" s="146"/>
       <c r="E44" s="146"/>
       <c r="F44" s="146"/>
@@ -45864,7 +45867,7 @@
       <c r="Y44" s="146"/>
       <c r="Z44" s="146"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="212" t="s">
         <v>237</v>
       </c>
@@ -45894,7 +45897,7 @@
       <c r="Y45" s="146"/>
       <c r="Z45" s="146"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="145">
         <v>70</v>
       </c>
@@ -45974,7 +45977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="145">
         <v>71</v>
       </c>
@@ -46054,7 +46057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="145">
         <v>72</v>
       </c>
@@ -46134,7 +46137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="145">
         <v>73</v>
       </c>
@@ -46214,7 +46217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="145">
         <v>74</v>
       </c>
@@ -46294,7 +46297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="145">
         <v>75</v>
       </c>
@@ -46374,7 +46377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="145">
         <v>76</v>
       </c>
@@ -46454,7 +46457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="145">
         <v>77</v>
       </c>
@@ -46534,7 +46537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="88">
         <v>78</v>
       </c>
@@ -46564,7 +46567,7 @@
       <c r="Y54" s="146"/>
       <c r="Z54" s="146"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="88">
         <v>79</v>
       </c>
@@ -46594,7 +46597,7 @@
       <c r="Y55" s="146"/>
       <c r="Z55" s="146"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="88">
         <v>80</v>
       </c>
@@ -46624,7 +46627,7 @@
       <c r="Y56" s="146"/>
       <c r="Z56" s="146"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="88">
         <v>81</v>
       </c>
@@ -46654,7 +46657,7 @@
       <c r="Y57" s="146"/>
       <c r="Z57" s="146"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="88">
         <v>82</v>
       </c>
@@ -46684,7 +46687,7 @@
       <c r="Y58" s="146"/>
       <c r="Z58" s="146"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="88">
         <v>83</v>
       </c>
@@ -46714,7 +46717,7 @@
       <c r="Y59" s="146"/>
       <c r="Z59" s="146"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="88">
         <v>84</v>
       </c>
@@ -46744,7 +46747,7 @@
       <c r="Y60" s="146"/>
       <c r="Z60" s="146"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="88">
         <v>85</v>
       </c>
@@ -46774,7 +46777,7 @@
       <c r="Y61" s="146"/>
       <c r="Z61" s="146"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D62" s="146"/>
       <c r="E62" s="146"/>
       <c r="F62" s="146"/>
@@ -46799,7 +46802,7 @@
       <c r="Y62" s="146"/>
       <c r="Z62" s="146"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="212" t="s">
         <v>238</v>
       </c>
@@ -46829,7 +46832,7 @@
       <c r="Y63" s="146"/>
       <c r="Z63" s="146"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="145">
         <v>90</v>
       </c>
@@ -46910,7 +46913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="145">
         <v>91</v>
       </c>
@@ -46990,7 +46993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="145">
         <v>92</v>
       </c>
@@ -47070,7 +47073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="145">
         <v>93</v>
       </c>
@@ -47150,7 +47153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="145">
         <v>94</v>
       </c>
@@ -47230,7 +47233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="145">
         <v>95</v>
       </c>
@@ -47310,7 +47313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="145">
         <v>96</v>
       </c>
@@ -47390,7 +47393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="145">
         <v>97</v>
       </c>
@@ -47470,7 +47473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="88">
         <v>98</v>
       </c>
@@ -47500,7 +47503,7 @@
       <c r="Y72" s="146"/>
       <c r="Z72" s="146"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="88">
         <v>99</v>
       </c>
@@ -47530,7 +47533,7 @@
       <c r="Y73" s="146"/>
       <c r="Z73" s="146"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="88">
         <v>100</v>
       </c>
@@ -47560,7 +47563,7 @@
       <c r="Y74" s="146"/>
       <c r="Z74" s="146"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="88">
         <v>101</v>
       </c>
@@ -47590,7 +47593,7 @@
       <c r="Y75" s="146"/>
       <c r="Z75" s="146"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="88">
         <v>102</v>
       </c>
@@ -47620,7 +47623,7 @@
       <c r="Y76" s="146"/>
       <c r="Z76" s="146"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="88">
         <v>103</v>
       </c>
@@ -47650,7 +47653,7 @@
       <c r="Y77" s="146"/>
       <c r="Z77" s="146"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="88">
         <v>104</v>
       </c>
@@ -47680,7 +47683,7 @@
       <c r="Y78" s="146"/>
       <c r="Z78" s="146"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="88">
         <v>105</v>
       </c>
@@ -47710,7 +47713,7 @@
       <c r="Y79" s="146"/>
       <c r="Z79" s="146"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D80" s="146"/>
       <c r="E80" s="146"/>
       <c r="F80" s="146"/>
@@ -47735,7 +47738,7 @@
       <c r="Y80" s="146"/>
       <c r="Z80" s="146"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="212" t="s">
         <v>239</v>
       </c>
@@ -47765,7 +47768,7 @@
       <c r="Y81" s="146"/>
       <c r="Z81" s="146"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="145">
         <v>110</v>
       </c>
@@ -47845,7 +47848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="145">
         <v>111</v>
       </c>
@@ -47925,7 +47928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="145">
         <v>112</v>
       </c>
@@ -48005,7 +48008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="145">
         <v>113</v>
       </c>
@@ -48085,7 +48088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="145">
         <v>114</v>
       </c>
@@ -48165,7 +48168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="145">
         <v>115</v>
       </c>
@@ -48245,7 +48248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="145">
         <v>116</v>
       </c>
@@ -48325,7 +48328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="145">
         <v>117</v>
       </c>
@@ -48405,7 +48408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="88">
         <v>118</v>
       </c>
@@ -48437,7 +48440,7 @@
       <c r="Y90" s="146"/>
       <c r="Z90" s="146"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="88">
         <v>119</v>
       </c>
@@ -48469,7 +48472,7 @@
       <c r="Y91" s="146"/>
       <c r="Z91" s="146"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="88">
         <v>120</v>
       </c>
@@ -48501,7 +48504,7 @@
       <c r="Y92" s="146"/>
       <c r="Z92" s="146"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="88">
         <v>121</v>
       </c>
@@ -48533,7 +48536,7 @@
       <c r="Y93" s="146"/>
       <c r="Z93" s="146"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="88">
         <v>122</v>
       </c>
@@ -48565,7 +48568,7 @@
       <c r="Y94" s="146"/>
       <c r="Z94" s="146"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="88">
         <v>123</v>
       </c>
@@ -48597,7 +48600,7 @@
       <c r="Y95" s="146"/>
       <c r="Z95" s="146"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="88">
         <v>124</v>
       </c>
@@ -48629,7 +48632,7 @@
       <c r="Y96" s="146"/>
       <c r="Z96" s="146"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="88">
         <v>125</v>
       </c>
@@ -48661,7 +48664,7 @@
       <c r="Y97" s="146"/>
       <c r="Z97" s="146"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D98" s="146"/>
       <c r="E98" s="146"/>
       <c r="F98" s="146"/>
@@ -48686,7 +48689,7 @@
       <c r="Y98" s="146"/>
       <c r="Z98" s="146"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="212" t="s">
         <v>240</v>
       </c>
@@ -48716,7 +48719,7 @@
       <c r="Y99" s="146"/>
       <c r="Z99" s="146"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="88">
         <v>130</v>
       </c>
@@ -48746,7 +48749,7 @@
       <c r="Y100" s="146"/>
       <c r="Z100" s="146"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="88">
         <v>131</v>
       </c>
@@ -48776,7 +48779,7 @@
       <c r="Y101" s="146"/>
       <c r="Z101" s="146"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="88">
         <v>132</v>
       </c>
@@ -48806,7 +48809,7 @@
       <c r="Y102" s="146"/>
       <c r="Z102" s="146"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="88">
         <v>133</v>
       </c>
@@ -48836,7 +48839,7 @@
       <c r="Y103" s="146"/>
       <c r="Z103" s="146"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="88">
         <v>134</v>
       </c>
@@ -48866,7 +48869,7 @@
       <c r="Y104" s="146"/>
       <c r="Z104" s="146"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="88">
         <v>135</v>
       </c>
@@ -48896,7 +48899,7 @@
       <c r="Y105" s="146"/>
       <c r="Z105" s="146"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="88">
         <v>136</v>
       </c>
@@ -48926,7 +48929,7 @@
       <c r="Y106" s="146"/>
       <c r="Z106" s="146"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="88">
         <v>137</v>
       </c>
@@ -48956,7 +48959,7 @@
       <c r="Y107" s="146"/>
       <c r="Z107" s="146"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="88">
         <v>138</v>
       </c>
@@ -48986,7 +48989,7 @@
       <c r="Y108" s="146"/>
       <c r="Z108" s="146"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="88">
         <v>139</v>
       </c>
@@ -49016,7 +49019,7 @@
       <c r="Y109" s="146"/>
       <c r="Z109" s="146"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="88">
         <v>140</v>
       </c>
@@ -49046,7 +49049,7 @@
       <c r="Y110" s="146"/>
       <c r="Z110" s="146"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="88">
         <v>141</v>
       </c>
@@ -49076,7 +49079,7 @@
       <c r="Y111" s="146"/>
       <c r="Z111" s="146"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="88">
         <v>142</v>
       </c>
@@ -49106,7 +49109,7 @@
       <c r="Y112" s="146"/>
       <c r="Z112" s="146"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="88">
         <v>143</v>
       </c>
@@ -49136,7 +49139,7 @@
       <c r="Y113" s="146"/>
       <c r="Z113" s="146"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="88">
         <v>144</v>
       </c>
@@ -49166,7 +49169,7 @@
       <c r="Y114" s="146"/>
       <c r="Z114" s="146"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="88">
         <v>145</v>
       </c>
@@ -49215,22 +49218,22 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="106"/>
-    <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="2"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="155" t="s">
         <v>33</v>
       </c>
@@ -49253,7 +49256,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="165" t="s">
         <v>142</v>
       </c>
@@ -49276,7 +49279,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="164" t="s">
         <v>143</v>
       </c>
@@ -49299,7 +49302,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="165" t="s">
         <v>150</v>
       </c>
@@ -49323,7 +49326,7 @@
       </c>
       <c r="H4" s="69"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="165" t="s">
         <v>151</v>
       </c>
@@ -49346,7 +49349,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="165" t="s">
         <v>144</v>
       </c>
@@ -49369,7 +49372,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="165" t="s">
         <v>161</v>
       </c>
@@ -49392,7 +49395,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="165" t="s">
         <v>162</v>
       </c>
@@ -49415,7 +49418,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="165" t="s">
         <v>164</v>
       </c>
@@ -49439,7 +49442,7 @@
       </c>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="165" t="s">
         <v>145</v>
       </c>
@@ -49462,7 +49465,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="165" t="s">
         <v>165</v>
       </c>
@@ -49485,7 +49488,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="165" t="s">
         <v>166</v>
       </c>
@@ -49508,7 +49511,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="165" t="s">
         <v>167</v>
       </c>
@@ -49531,7 +49534,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="165" t="s">
         <v>146</v>
       </c>
@@ -49554,7 +49557,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="165" t="s">
         <v>168</v>
       </c>
@@ -49577,7 +49580,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="165" t="s">
         <v>169</v>
       </c>
@@ -49600,7 +49603,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="165" t="s">
         <v>170</v>
       </c>
@@ -49623,7 +49626,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="165" t="s">
         <v>189</v>
       </c>
@@ -49646,7 +49649,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="165" t="s">
         <v>197</v>
       </c>
@@ -49669,7 +49672,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="165" t="s">
         <v>235</v>
       </c>
@@ -49692,7 +49695,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="165" t="s">
         <v>220</v>
       </c>
@@ -49715,7 +49718,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="166" t="s">
         <v>222</v>
       </c>
@@ -49725,7 +49728,7 @@
       <c r="E22" s="159"/>
       <c r="F22" s="159"/>
     </row>
-    <row r="23" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="166" t="s">
         <v>226</v>
       </c>
@@ -49735,7 +49738,7 @@
       <c r="E23" s="159"/>
       <c r="F23" s="159"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="165" t="s">
         <v>224</v>
       </c>
@@ -49758,7 +49761,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="149" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="149" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="166" t="s">
         <v>225</v>
       </c>
@@ -49768,7 +49771,7 @@
       <c r="E25" s="159"/>
       <c r="F25" s="159"/>
     </row>
-    <row r="26" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="166"/>
       <c r="B26" s="159"/>
       <c r="C26" s="159"/>
@@ -49776,7 +49779,7 @@
       <c r="E26" s="159"/>
       <c r="F26" s="159"/>
     </row>
-    <row r="27" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="212" t="s">
         <v>236</v>
       </c>
@@ -49786,7 +49789,7 @@
       <c r="E27" s="159"/>
       <c r="F27" s="159"/>
     </row>
-    <row r="28" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="166">
         <v>50</v>
       </c>
@@ -49796,7 +49799,7 @@
       <c r="E28" s="159"/>
       <c r="F28" s="159"/>
     </row>
-    <row r="29" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="166">
         <v>51</v>
       </c>
@@ -49806,7 +49809,7 @@
       <c r="E29" s="159"/>
       <c r="F29" s="159"/>
     </row>
-    <row r="30" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="166">
         <v>52</v>
       </c>
@@ -49816,7 +49819,7 @@
       <c r="E30" s="159"/>
       <c r="F30" s="159"/>
     </row>
-    <row r="31" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="166">
         <v>53</v>
       </c>
@@ -49826,7 +49829,7 @@
       <c r="E31" s="159"/>
       <c r="F31" s="159"/>
     </row>
-    <row r="32" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="166">
         <v>54</v>
       </c>
@@ -49836,7 +49839,7 @@
       <c r="E32" s="159"/>
       <c r="F32" s="159"/>
     </row>
-    <row r="33" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="166">
         <v>55</v>
       </c>
@@ -49846,7 +49849,7 @@
       <c r="E33" s="159"/>
       <c r="F33" s="159"/>
     </row>
-    <row r="34" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="166">
         <v>56</v>
       </c>
@@ -49856,7 +49859,7 @@
       <c r="E34" s="159"/>
       <c r="F34" s="159"/>
     </row>
-    <row r="35" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="166">
         <v>57</v>
       </c>
@@ -49866,7 +49869,7 @@
       <c r="E35" s="159"/>
       <c r="F35" s="159"/>
     </row>
-    <row r="36" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="167">
         <v>58</v>
       </c>
@@ -49876,7 +49879,7 @@
       <c r="E36" s="159"/>
       <c r="F36" s="159"/>
     </row>
-    <row r="37" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="167">
         <v>59</v>
       </c>
@@ -49886,7 +49889,7 @@
       <c r="E37" s="159"/>
       <c r="F37" s="159"/>
     </row>
-    <row r="38" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="167">
         <v>60</v>
       </c>
@@ -49896,7 +49899,7 @@
       <c r="E38" s="159"/>
       <c r="F38" s="159"/>
     </row>
-    <row r="39" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="167">
         <v>61</v>
       </c>
@@ -49906,7 +49909,7 @@
       <c r="E39" s="159"/>
       <c r="F39" s="159"/>
     </row>
-    <row r="40" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="167">
         <v>62</v>
       </c>
@@ -49916,7 +49919,7 @@
       <c r="E40" s="159"/>
       <c r="F40" s="159"/>
     </row>
-    <row r="41" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="167">
         <v>63</v>
       </c>
@@ -49926,7 +49929,7 @@
       <c r="E41" s="159"/>
       <c r="F41" s="159"/>
     </row>
-    <row r="42" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="167">
         <v>64</v>
       </c>
@@ -49936,7 +49939,7 @@
       <c r="E42" s="159"/>
       <c r="F42" s="159"/>
     </row>
-    <row r="43" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="167">
         <v>65</v>
       </c>
@@ -49946,7 +49949,7 @@
       <c r="E43" s="159"/>
       <c r="F43" s="159"/>
     </row>
-    <row r="44" spans="1:7" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="166"/>
       <c r="B44" s="159"/>
       <c r="C44" s="159"/>
@@ -49954,7 +49957,7 @@
       <c r="E44" s="159"/>
       <c r="F44" s="159"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="212" t="s">
         <v>237</v>
       </c>
@@ -49965,7 +49968,7 @@
       <c r="F45" s="159"/>
       <c r="G45" s="158"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="165">
         <v>70</v>
       </c>
@@ -49988,7 +49991,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="165">
         <v>71</v>
       </c>
@@ -50011,7 +50014,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="165">
         <v>72</v>
       </c>
@@ -50034,7 +50037,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="165">
         <v>73</v>
       </c>
@@ -50057,7 +50060,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="165">
         <v>74</v>
       </c>
@@ -50080,7 +50083,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="165">
         <v>75</v>
       </c>
@@ -50103,7 +50106,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="165">
         <v>76</v>
       </c>
@@ -50126,7 +50129,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="165">
         <v>77</v>
       </c>
@@ -50149,7 +50152,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="165">
         <v>78</v>
       </c>
@@ -50172,7 +50175,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="165">
         <v>79</v>
       </c>
@@ -50195,7 +50198,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="165">
         <v>80</v>
       </c>
@@ -50218,7 +50221,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="165">
         <v>81</v>
       </c>
@@ -50241,7 +50244,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="165">
         <v>82</v>
       </c>
@@ -50264,7 +50267,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="165">
         <v>83</v>
       </c>
@@ -50287,7 +50290,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="165">
         <v>84</v>
       </c>
@@ -50310,7 +50313,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="165">
         <v>85</v>
       </c>
@@ -50333,7 +50336,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="165"/>
       <c r="B62" s="160"/>
       <c r="C62" s="160"/>
@@ -50341,7 +50344,7 @@
       <c r="E62" s="159"/>
       <c r="F62" s="159"/>
     </row>
-    <row r="63" spans="1:7" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="212" t="s">
         <v>236</v>
       </c>
@@ -50351,7 +50354,7 @@
       <c r="E63" s="159"/>
       <c r="F63" s="159"/>
     </row>
-    <row r="64" spans="1:7" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="166">
         <v>90</v>
       </c>
@@ -50361,7 +50364,7 @@
       <c r="E64" s="159"/>
       <c r="F64" s="159"/>
     </row>
-    <row r="65" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="166">
         <v>91</v>
       </c>
@@ -50371,7 +50374,7 @@
       <c r="E65" s="159"/>
       <c r="F65" s="159"/>
     </row>
-    <row r="66" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="166">
         <v>92</v>
       </c>
@@ -50381,7 +50384,7 @@
       <c r="E66" s="159"/>
       <c r="F66" s="159"/>
     </row>
-    <row r="67" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="166">
         <v>93</v>
       </c>
@@ -50391,7 +50394,7 @@
       <c r="E67" s="159"/>
       <c r="F67" s="159"/>
     </row>
-    <row r="68" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="166">
         <v>94</v>
       </c>
@@ -50401,7 +50404,7 @@
       <c r="E68" s="159"/>
       <c r="F68" s="159"/>
     </row>
-    <row r="69" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="166">
         <v>95</v>
       </c>
@@ -50411,7 +50414,7 @@
       <c r="E69" s="159"/>
       <c r="F69" s="159"/>
     </row>
-    <row r="70" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="166">
         <v>96</v>
       </c>
@@ -50421,7 +50424,7 @@
       <c r="E70" s="159"/>
       <c r="F70" s="159"/>
     </row>
-    <row r="71" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="166">
         <v>97</v>
       </c>
@@ -50431,7 +50434,7 @@
       <c r="E71" s="159"/>
       <c r="F71" s="159"/>
     </row>
-    <row r="72" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="167">
         <v>98</v>
       </c>
@@ -50441,7 +50444,7 @@
       <c r="E72" s="159"/>
       <c r="F72" s="159"/>
     </row>
-    <row r="73" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="167">
         <v>99</v>
       </c>
@@ -50451,7 +50454,7 @@
       <c r="E73" s="159"/>
       <c r="F73" s="159"/>
     </row>
-    <row r="74" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="167">
         <v>100</v>
       </c>
@@ -50461,7 +50464,7 @@
       <c r="E74" s="159"/>
       <c r="F74" s="159"/>
     </row>
-    <row r="75" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="167">
         <v>101</v>
       </c>
@@ -50471,7 +50474,7 @@
       <c r="E75" s="159"/>
       <c r="F75" s="159"/>
     </row>
-    <row r="76" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="167">
         <v>102</v>
       </c>
@@ -50481,7 +50484,7 @@
       <c r="E76" s="159"/>
       <c r="F76" s="159"/>
     </row>
-    <row r="77" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="167">
         <v>103</v>
       </c>
@@ -50491,7 +50494,7 @@
       <c r="E77" s="159"/>
       <c r="F77" s="159"/>
     </row>
-    <row r="78" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="167">
         <v>104</v>
       </c>
@@ -50501,7 +50504,7 @@
       <c r="E78" s="159"/>
       <c r="F78" s="159"/>
     </row>
-    <row r="79" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="167">
         <v>105</v>
       </c>
@@ -50511,7 +50514,7 @@
       <c r="E79" s="159"/>
       <c r="F79" s="159"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="165"/>
       <c r="B80" s="159"/>
       <c r="C80" s="159"/>
@@ -50519,7 +50522,7 @@
       <c r="E80" s="159"/>
       <c r="F80" s="159"/>
     </row>
-    <row r="81" spans="1:7" s="157" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" s="157" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="212" t="s">
         <v>239</v>
       </c>
@@ -50529,7 +50532,7 @@
       <c r="E81" s="159"/>
       <c r="F81" s="159"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="166">
         <v>110</v>
       </c>
@@ -50552,7 +50555,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="166">
         <v>111</v>
       </c>
@@ -50575,7 +50578,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="166">
         <v>112</v>
       </c>
@@ -50598,7 +50601,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="166">
         <v>113</v>
       </c>
@@ -50621,7 +50624,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="166">
         <v>114</v>
       </c>
@@ -50644,7 +50647,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="166">
         <v>115</v>
       </c>
@@ -50667,7 +50670,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="166">
         <v>116</v>
       </c>
@@ -50690,7 +50693,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="166">
         <v>117</v>
       </c>
@@ -50713,7 +50716,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="166">
         <v>118</v>
       </c>
@@ -50723,7 +50726,7 @@
       <c r="E90" s="159"/>
       <c r="F90" s="159"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="166">
         <v>119</v>
       </c>
@@ -50733,7 +50736,7 @@
       <c r="E91" s="159"/>
       <c r="F91" s="159"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="166">
         <v>120</v>
       </c>
@@ -50743,7 +50746,7 @@
       <c r="E92" s="159"/>
       <c r="F92" s="159"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="166">
         <v>121</v>
       </c>
@@ -50753,7 +50756,7 @@
       <c r="E93" s="159"/>
       <c r="F93" s="159"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="166">
         <v>122</v>
       </c>
@@ -50763,7 +50766,7 @@
       <c r="E94" s="159"/>
       <c r="F94" s="159"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="166">
         <v>123</v>
       </c>
@@ -50773,7 +50776,7 @@
       <c r="E95" s="159"/>
       <c r="F95" s="159"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="166">
         <v>124</v>
       </c>
@@ -50783,7 +50786,7 @@
       <c r="E96" s="159"/>
       <c r="F96" s="159"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="166">
         <v>125</v>
       </c>
@@ -50793,7 +50796,7 @@
       <c r="E97" s="159"/>
       <c r="F97" s="159"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="165"/>
       <c r="B98" s="159"/>
       <c r="C98" s="159"/>
@@ -50801,7 +50804,7 @@
       <c r="E98" s="159"/>
       <c r="F98" s="159"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="212" t="s">
         <v>240</v>
       </c>
@@ -50811,7 +50814,7 @@
       <c r="E99" s="159"/>
       <c r="F99" s="159"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="167">
         <v>130</v>
       </c>
@@ -50821,7 +50824,7 @@
       <c r="E100" s="159"/>
       <c r="F100" s="159"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="167">
         <v>131</v>
       </c>
@@ -50831,7 +50834,7 @@
       <c r="E101" s="159"/>
       <c r="F101" s="159"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="167">
         <v>132</v>
       </c>
@@ -50841,7 +50844,7 @@
       <c r="E102" s="159"/>
       <c r="F102" s="159"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="167">
         <v>133</v>
       </c>
@@ -50851,7 +50854,7 @@
       <c r="E103" s="159"/>
       <c r="F103" s="159"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="167">
         <v>134</v>
       </c>
@@ -50861,7 +50864,7 @@
       <c r="E104" s="159"/>
       <c r="F104" s="159"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="167">
         <v>135</v>
       </c>
@@ -50871,7 +50874,7 @@
       <c r="E105" s="159"/>
       <c r="F105" s="159"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="167">
         <v>136</v>
       </c>
@@ -50881,7 +50884,7 @@
       <c r="E106" s="159"/>
       <c r="F106" s="159"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="167">
         <v>137</v>
       </c>
@@ -50891,7 +50894,7 @@
       <c r="E107" s="159"/>
       <c r="F107" s="159"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="167">
         <v>138</v>
       </c>
@@ -50901,7 +50904,7 @@
       <c r="E108" s="159"/>
       <c r="F108" s="159"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="167">
         <v>139</v>
       </c>
@@ -50911,7 +50914,7 @@
       <c r="E109" s="159"/>
       <c r="F109" s="159"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="167">
         <v>140</v>
       </c>
@@ -50921,7 +50924,7 @@
       <c r="E110" s="159"/>
       <c r="F110" s="159"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="167">
         <v>141</v>
       </c>
@@ -50931,7 +50934,7 @@
       <c r="E111" s="159"/>
       <c r="F111" s="159"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="167">
         <v>142</v>
       </c>
@@ -50941,7 +50944,7 @@
       <c r="E112" s="159"/>
       <c r="F112" s="159"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="167">
         <v>143</v>
       </c>
@@ -50951,7 +50954,7 @@
       <c r="E113" s="159"/>
       <c r="F113" s="159"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="167">
         <v>144</v>
       </c>
@@ -50961,7 +50964,7 @@
       <c r="E114" s="159"/>
       <c r="F114" s="159"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="167">
         <v>145</v>
       </c>
@@ -50979,7 +50982,7 @@
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A99:D99"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.21" right="0.26" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -50996,27 +50999,27 @@
       <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="12"/>
-    <col min="2" max="2" width="11.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="11.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="16.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="16.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="2"/>
-    <col min="13" max="16" width="14.44140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="14.44140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="18.6640625" style="2" customWidth="1"/>
-    <col min="21" max="22" width="17.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="17.6640625" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="2"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="16" width="14.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" style="2" customWidth="1"/>
+    <col min="21" max="22" width="17.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
@@ -51087,7 +51090,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>170</v>
       </c>
@@ -51158,7 +51161,7 @@
         <v>573.02</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>189</v>
       </c>
@@ -51229,7 +51232,7 @@
         <v>567.55999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>197</v>
       </c>
@@ -51300,7 +51303,7 @@
         <v>595.27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>235</v>
       </c>
@@ -51371,7 +51374,7 @@
         <v>580.51</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="3"/>
@@ -51396,7 +51399,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="3"/>
@@ -51421,7 +51424,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="3"/>
@@ -51446,7 +51449,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="3"/>
@@ -51471,7 +51474,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="3"/>
@@ -51496,7 +51499,7 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="3"/>
@@ -51521,7 +51524,7 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="3"/>
@@ -51546,7 +51549,7 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="3"/>
@@ -51586,58 +51589,58 @@
       <selection activeCell="B1" sqref="B1:X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="48" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="40" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="40.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="39" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="29.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="31.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="34.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="31.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.109375" style="2"/>
+    <col min="42" max="42" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
@@ -51783,7 +51786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -51929,7 +51932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -51981,7 +51984,7 @@
       <c r="AU3" s="49"/>
       <c r="AV3" s="49"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -52033,7 +52036,7 @@
       <c r="AU4" s="49"/>
       <c r="AV4" s="49"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -52085,7 +52088,7 @@
       <c r="AU5" s="49"/>
       <c r="AV5" s="49"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -52137,7 +52140,7 @@
       <c r="AU6" s="49"/>
       <c r="AV6" s="49"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -52189,7 +52192,7 @@
       <c r="AU7" s="49"/>
       <c r="AV7" s="49"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -52241,7 +52244,7 @@
       <c r="AU8" s="49"/>
       <c r="AV8" s="49"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -52293,7 +52296,7 @@
       <c r="AU9" s="49"/>
       <c r="AV9" s="49"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -52345,7 +52348,7 @@
       <c r="AU10" s="49"/>
       <c r="AV10" s="49"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -52397,7 +52400,7 @@
       <c r="AU11" s="49"/>
       <c r="AV11" s="49"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -52449,7 +52452,7 @@
       <c r="AU12" s="49"/>
       <c r="AV12" s="49"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -52501,7 +52504,7 @@
       <c r="AU13" s="49"/>
       <c r="AV13" s="49"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -52553,7 +52556,7 @@
       <c r="AU14" s="49"/>
       <c r="AV14" s="49"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -52605,7 +52608,7 @@
       <c r="AU15" s="49"/>
       <c r="AV15" s="49"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -52657,7 +52660,7 @@
       <c r="AU16" s="49"/>
       <c r="AV16" s="49"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -52709,7 +52712,7 @@
       <c r="AU17" s="49"/>
       <c r="AV17" s="49"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -52761,7 +52764,7 @@
       <c r="AU18" s="49"/>
       <c r="AV18" s="49"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -52813,7 +52816,7 @@
       <c r="AU19" s="49"/>
       <c r="AV19" s="49"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -52865,7 +52868,7 @@
       <c r="AU20" s="49"/>
       <c r="AV20" s="49"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -52917,7 +52920,7 @@
       <c r="AU21" s="49"/>
       <c r="AV21" s="49"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -52969,7 +52972,7 @@
       <c r="AU22" s="49"/>
       <c r="AV22" s="49"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -53021,7 +53024,7 @@
       <c r="AU23" s="49"/>
       <c r="AV23" s="49"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -53073,7 +53076,7 @@
       <c r="AU24" s="49"/>
       <c r="AV24" s="49"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -53125,7 +53128,7 @@
       <c r="AU25" s="49"/>
       <c r="AV25" s="49"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -53177,7 +53180,7 @@
       <c r="AU26" s="49"/>
       <c r="AV26" s="49"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -53229,7 +53232,7 @@
       <c r="AU27" s="49"/>
       <c r="AV27" s="49"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -53281,7 +53284,7 @@
       <c r="AU28" s="49"/>
       <c r="AV28" s="49"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -53333,7 +53336,7 @@
       <c r="AU29" s="49"/>
       <c r="AV29" s="49"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -53385,7 +53388,7 @@
       <c r="AU30" s="49"/>
       <c r="AV30" s="49"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -53437,7 +53440,7 @@
       <c r="AU31" s="49"/>
       <c r="AV31" s="49"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -53489,7 +53492,7 @@
       <c r="AU32" s="49"/>
       <c r="AV32" s="49"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -53541,7 +53544,7 @@
       <c r="AU33" s="49"/>
       <c r="AV33" s="49"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -53593,7 +53596,7 @@
       <c r="AU34" s="49"/>
       <c r="AV34" s="49"/>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -53645,7 +53648,7 @@
       <c r="AU35" s="49"/>
       <c r="AV35" s="49"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -53697,7 +53700,7 @@
       <c r="AU36" s="49"/>
       <c r="AV36" s="49"/>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -53749,7 +53752,7 @@
       <c r="AU37" s="49"/>
       <c r="AV37" s="49"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -53801,7 +53804,7 @@
       <c r="AU38" s="49"/>
       <c r="AV38" s="49"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -53853,7 +53856,7 @@
       <c r="AU39" s="49"/>
       <c r="AV39" s="49"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -53905,7 +53908,7 @@
       <c r="AU40" s="49"/>
       <c r="AV40" s="49"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -53971,52 +53974,52 @@
       <selection activeCell="AJ33" sqref="AJ33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.109375" style="2"/>
+    <col min="39" max="39" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>33</v>
       </c>
@@ -54138,7 +54141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>

--- a/SpecFramework/FeatureFiles/DataResources/TridTestScenarios.xlsx
+++ b/SpecFramework/FeatureFiles/DataResources/TridTestScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4485" windowHeight="1905" tabRatio="673" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4485" windowHeight="1905" tabRatio="673" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="LoanEstimate - NOT USED" sheetId="6" state="hidden" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ClosingDisclosure - NOT USED" sheetId="3" state="hidden" r:id="rId9"/>
     <sheet name="Export" sheetId="9" r:id="rId10"/>
     <sheet name="PaymentSchedule" sheetId="18" r:id="rId11"/>
+    <sheet name="EscrowInfo" sheetId="19" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ClosingDisclosure!$A$1:$DB$153</definedName>
@@ -201,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="413">
   <si>
     <t xml:space="preserve">30 Over 360 </t>
   </si>
@@ -1351,6 +1352,96 @@
   <si>
     <t>200.00,200.00,200.00</t>
   </si>
+  <si>
+    <t>InsInitialDeposit</t>
+  </si>
+  <si>
+    <t>InsPeriodDeposit</t>
+  </si>
+  <si>
+    <t>InsLowBalance</t>
+  </si>
+  <si>
+    <t>InsCushion</t>
+  </si>
+  <si>
+    <t>InsTotalAnnualDisbursed</t>
+  </si>
+  <si>
+    <t>TaxInitialDeposit</t>
+  </si>
+  <si>
+    <t>TaxPeriodDeposit</t>
+  </si>
+  <si>
+    <t>TaxLowBalance</t>
+  </si>
+  <si>
+    <t>TaxCushion</t>
+  </si>
+  <si>
+    <t>TaxTotalAnnualDisbursed</t>
+  </si>
+  <si>
+    <t>PmiInitialDeposit</t>
+  </si>
+  <si>
+    <t>PmiPeriodDeposit</t>
+  </si>
+  <si>
+    <t>PmiLowBalance</t>
+  </si>
+  <si>
+    <t>PmiCushion</t>
+  </si>
+  <si>
+    <t>PmiTotalAnnualDisbursed</t>
+  </si>
+  <si>
+    <t>Other1InitialDeposit</t>
+  </si>
+  <si>
+    <t>Other1PeriodDeposit</t>
+  </si>
+  <si>
+    <t>Other1LowBalance</t>
+  </si>
+  <si>
+    <t>Other1Cushion</t>
+  </si>
+  <si>
+    <t>Other1TotalAnnualDisbursed</t>
+  </si>
+  <si>
+    <t>Other2InitialDeposit</t>
+  </si>
+  <si>
+    <t>Other2PeriodDeposit</t>
+  </si>
+  <si>
+    <t>Other2LowBalance</t>
+  </si>
+  <si>
+    <t>Other2Cushion</t>
+  </si>
+  <si>
+    <t>Other2TotalAnnualDisbursed</t>
+  </si>
+  <si>
+    <t>AggregateInitialDeposit</t>
+  </si>
+  <si>
+    <t>AggregatePeriodDeposit</t>
+  </si>
+  <si>
+    <t>AggregateLowBalance</t>
+  </si>
+  <si>
+    <t>AggregateCushion</t>
+  </si>
+  <si>
+    <t>AggregateTotalAnnualDisbursed</t>
+  </si>
 </sst>
 </file>
 
@@ -1857,7 +1948,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -2453,6 +2544,11 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5155,7 +5251,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6560,6 +6656,4179 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="B2:AE2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="200" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="217" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="210" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="218" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1" s="218" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="218" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="218" t="s">
+        <v>386</v>
+      </c>
+      <c r="F1" s="218" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" s="218" t="s">
+        <v>388</v>
+      </c>
+      <c r="H1" s="218" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1" s="218" t="s">
+        <v>390</v>
+      </c>
+      <c r="J1" s="218" t="s">
+        <v>391</v>
+      </c>
+      <c r="K1" s="218" t="s">
+        <v>392</v>
+      </c>
+      <c r="L1" s="218" t="s">
+        <v>393</v>
+      </c>
+      <c r="M1" s="218" t="s">
+        <v>394</v>
+      </c>
+      <c r="N1" s="218" t="s">
+        <v>395</v>
+      </c>
+      <c r="O1" s="218" t="s">
+        <v>396</v>
+      </c>
+      <c r="P1" s="218" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q1" s="218" t="s">
+        <v>398</v>
+      </c>
+      <c r="R1" s="218" t="s">
+        <v>399</v>
+      </c>
+      <c r="S1" s="218" t="s">
+        <v>400</v>
+      </c>
+      <c r="T1" s="218" t="s">
+        <v>401</v>
+      </c>
+      <c r="U1" s="218" t="s">
+        <v>402</v>
+      </c>
+      <c r="V1" s="218" t="s">
+        <v>403</v>
+      </c>
+      <c r="W1" s="218" t="s">
+        <v>404</v>
+      </c>
+      <c r="X1" s="218" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y1" s="218" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z1" s="218" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA1" s="218" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB1" s="218" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC1" s="218" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD1" s="218" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE1" s="219" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="196">
+        <v>1</v>
+      </c>
+      <c r="B2" s="216">
+        <v>0</v>
+      </c>
+      <c r="C2" s="216">
+        <v>0</v>
+      </c>
+      <c r="D2" s="216">
+        <v>0</v>
+      </c>
+      <c r="E2" s="216">
+        <v>0</v>
+      </c>
+      <c r="F2" s="216">
+        <v>0</v>
+      </c>
+      <c r="G2" s="216">
+        <v>0</v>
+      </c>
+      <c r="H2" s="216">
+        <v>0</v>
+      </c>
+      <c r="I2" s="216">
+        <v>0</v>
+      </c>
+      <c r="J2" s="216">
+        <v>0</v>
+      </c>
+      <c r="K2" s="216">
+        <v>0</v>
+      </c>
+      <c r="L2" s="216">
+        <v>0</v>
+      </c>
+      <c r="M2" s="216">
+        <v>0</v>
+      </c>
+      <c r="N2" s="216">
+        <v>0</v>
+      </c>
+      <c r="O2" s="216">
+        <v>0</v>
+      </c>
+      <c r="P2" s="216">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="216">
+        <v>0</v>
+      </c>
+      <c r="R2" s="216">
+        <v>0</v>
+      </c>
+      <c r="S2" s="216">
+        <v>0</v>
+      </c>
+      <c r="T2" s="216">
+        <v>0</v>
+      </c>
+      <c r="U2" s="216">
+        <v>0</v>
+      </c>
+      <c r="V2" s="216">
+        <v>0</v>
+      </c>
+      <c r="W2" s="216">
+        <v>0</v>
+      </c>
+      <c r="X2" s="216">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="216">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="216">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="216">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="216">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="216">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="196">
+        <v>2</v>
+      </c>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="196">
+        <v>3</v>
+      </c>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="215"/>
+      <c r="V4" s="215"/>
+      <c r="W4" s="215"/>
+      <c r="X4" s="215"/>
+      <c r="Y4" s="215"/>
+      <c r="Z4" s="215"/>
+      <c r="AA4" s="215"/>
+      <c r="AB4" s="215"/>
+      <c r="AC4" s="215"/>
+      <c r="AD4" s="215"/>
+      <c r="AE4" s="215"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="196">
+        <v>4</v>
+      </c>
+      <c r="B5" s="215"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="215"/>
+      <c r="J5" s="215"/>
+      <c r="K5" s="215"/>
+      <c r="L5" s="215"/>
+      <c r="M5" s="215"/>
+      <c r="N5" s="215"/>
+      <c r="O5" s="215"/>
+      <c r="P5" s="215"/>
+      <c r="Q5" s="215"/>
+      <c r="R5" s="215"/>
+      <c r="S5" s="215"/>
+      <c r="T5" s="215"/>
+      <c r="U5" s="215"/>
+      <c r="V5" s="215"/>
+      <c r="W5" s="215"/>
+      <c r="X5" s="215"/>
+      <c r="Y5" s="215"/>
+      <c r="Z5" s="215"/>
+      <c r="AA5" s="215"/>
+      <c r="AB5" s="215"/>
+      <c r="AC5" s="215"/>
+      <c r="AD5" s="215"/>
+      <c r="AE5" s="215"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="196">
+        <v>6</v>
+      </c>
+      <c r="B6" s="215"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="215"/>
+      <c r="I6" s="215"/>
+      <c r="J6" s="215"/>
+      <c r="K6" s="215"/>
+      <c r="L6" s="215"/>
+      <c r="M6" s="215"/>
+      <c r="N6" s="215"/>
+      <c r="O6" s="215"/>
+      <c r="P6" s="215"/>
+      <c r="Q6" s="215"/>
+      <c r="R6" s="215"/>
+      <c r="S6" s="215"/>
+      <c r="T6" s="215"/>
+      <c r="U6" s="215"/>
+      <c r="V6" s="215"/>
+      <c r="W6" s="215"/>
+      <c r="X6" s="215"/>
+      <c r="Y6" s="215"/>
+      <c r="Z6" s="215"/>
+      <c r="AA6" s="215"/>
+      <c r="AB6" s="215"/>
+      <c r="AC6" s="215"/>
+      <c r="AD6" s="215"/>
+      <c r="AE6" s="215"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="196">
+        <v>7</v>
+      </c>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="215"/>
+      <c r="O7" s="215"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="215"/>
+      <c r="R7" s="215"/>
+      <c r="S7" s="215"/>
+      <c r="T7" s="215"/>
+      <c r="U7" s="215"/>
+      <c r="V7" s="215"/>
+      <c r="W7" s="215"/>
+      <c r="X7" s="215"/>
+      <c r="Y7" s="215"/>
+      <c r="Z7" s="215"/>
+      <c r="AA7" s="215"/>
+      <c r="AB7" s="215"/>
+      <c r="AC7" s="215"/>
+      <c r="AD7" s="215"/>
+      <c r="AE7" s="215"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="196">
+        <v>8</v>
+      </c>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="215"/>
+      <c r="J8" s="215"/>
+      <c r="K8" s="215"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="215"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="215"/>
+      <c r="P8" s="215"/>
+      <c r="Q8" s="215"/>
+      <c r="R8" s="215"/>
+      <c r="S8" s="215"/>
+      <c r="T8" s="215"/>
+      <c r="U8" s="215"/>
+      <c r="V8" s="215"/>
+      <c r="W8" s="215"/>
+      <c r="X8" s="215"/>
+      <c r="Y8" s="215"/>
+      <c r="Z8" s="215"/>
+      <c r="AA8" s="215"/>
+      <c r="AB8" s="215"/>
+      <c r="AC8" s="215"/>
+      <c r="AD8" s="215"/>
+      <c r="AE8" s="215"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="196">
+        <v>9</v>
+      </c>
+      <c r="B9" s="215"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="215"/>
+      <c r="L9" s="215"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="215"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="215"/>
+      <c r="R9" s="215"/>
+      <c r="S9" s="215"/>
+      <c r="T9" s="215"/>
+      <c r="U9" s="215"/>
+      <c r="V9" s="215"/>
+      <c r="W9" s="215"/>
+      <c r="X9" s="215"/>
+      <c r="Y9" s="215"/>
+      <c r="Z9" s="215"/>
+      <c r="AA9" s="215"/>
+      <c r="AB9" s="215"/>
+      <c r="AC9" s="215"/>
+      <c r="AD9" s="215"/>
+      <c r="AE9" s="215"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="196">
+        <v>11</v>
+      </c>
+      <c r="B10" s="215"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="215"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="215"/>
+      <c r="M10" s="215"/>
+      <c r="N10" s="215"/>
+      <c r="O10" s="215"/>
+      <c r="P10" s="215"/>
+      <c r="Q10" s="215"/>
+      <c r="R10" s="215"/>
+      <c r="S10" s="215"/>
+      <c r="T10" s="215"/>
+      <c r="U10" s="215"/>
+      <c r="V10" s="215"/>
+      <c r="W10" s="215"/>
+      <c r="X10" s="215"/>
+      <c r="Y10" s="215"/>
+      <c r="Z10" s="215"/>
+      <c r="AA10" s="215"/>
+      <c r="AB10" s="215"/>
+      <c r="AC10" s="215"/>
+      <c r="AD10" s="215"/>
+      <c r="AE10" s="215"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="196">
+        <v>12</v>
+      </c>
+      <c r="B11" s="215"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="215"/>
+      <c r="K11" s="215"/>
+      <c r="L11" s="215"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="215"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="215"/>
+      <c r="R11" s="215"/>
+      <c r="S11" s="215"/>
+      <c r="T11" s="215"/>
+      <c r="U11" s="215"/>
+      <c r="V11" s="215"/>
+      <c r="W11" s="215"/>
+      <c r="X11" s="215"/>
+      <c r="Y11" s="215"/>
+      <c r="Z11" s="215"/>
+      <c r="AA11" s="215"/>
+      <c r="AB11" s="215"/>
+      <c r="AC11" s="215"/>
+      <c r="AD11" s="215"/>
+      <c r="AE11" s="215"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="196">
+        <v>13</v>
+      </c>
+      <c r="B12" s="215"/>
+      <c r="C12" s="215"/>
+      <c r="D12" s="215"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="215"/>
+      <c r="G12" s="215"/>
+      <c r="H12" s="215"/>
+      <c r="I12" s="215"/>
+      <c r="J12" s="215"/>
+      <c r="K12" s="215"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="215"/>
+      <c r="O12" s="215"/>
+      <c r="P12" s="215"/>
+      <c r="Q12" s="215"/>
+      <c r="R12" s="215"/>
+      <c r="S12" s="215"/>
+      <c r="T12" s="215"/>
+      <c r="U12" s="215"/>
+      <c r="V12" s="215"/>
+      <c r="W12" s="215"/>
+      <c r="X12" s="215"/>
+      <c r="Y12" s="215"/>
+      <c r="Z12" s="215"/>
+      <c r="AA12" s="215"/>
+      <c r="AB12" s="215"/>
+      <c r="AC12" s="215"/>
+      <c r="AD12" s="215"/>
+      <c r="AE12" s="215"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="196">
+        <v>14</v>
+      </c>
+      <c r="B13" s="215"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="215"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="215"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="215"/>
+      <c r="J13" s="215"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="215"/>
+      <c r="M13" s="215"/>
+      <c r="N13" s="215"/>
+      <c r="O13" s="215"/>
+      <c r="P13" s="215"/>
+      <c r="Q13" s="215"/>
+      <c r="R13" s="215"/>
+      <c r="S13" s="215"/>
+      <c r="T13" s="215"/>
+      <c r="U13" s="215"/>
+      <c r="V13" s="215"/>
+      <c r="W13" s="215"/>
+      <c r="X13" s="215"/>
+      <c r="Y13" s="215"/>
+      <c r="Z13" s="215"/>
+      <c r="AA13" s="215"/>
+      <c r="AB13" s="215"/>
+      <c r="AC13" s="215"/>
+      <c r="AD13" s="215"/>
+      <c r="AE13" s="215"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="196">
+        <v>16</v>
+      </c>
+      <c r="B14" s="215"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="215"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="215"/>
+      <c r="G14" s="215"/>
+      <c r="H14" s="215"/>
+      <c r="I14" s="215"/>
+      <c r="J14" s="215"/>
+      <c r="K14" s="215"/>
+      <c r="L14" s="215"/>
+      <c r="M14" s="215"/>
+      <c r="N14" s="215"/>
+      <c r="O14" s="215"/>
+      <c r="P14" s="215"/>
+      <c r="Q14" s="215"/>
+      <c r="R14" s="215"/>
+      <c r="S14" s="215"/>
+      <c r="T14" s="215"/>
+      <c r="U14" s="215"/>
+      <c r="V14" s="215"/>
+      <c r="W14" s="215"/>
+      <c r="X14" s="215"/>
+      <c r="Y14" s="215"/>
+      <c r="Z14" s="215"/>
+      <c r="AA14" s="215"/>
+      <c r="AB14" s="215"/>
+      <c r="AC14" s="215"/>
+      <c r="AD14" s="215"/>
+      <c r="AE14" s="215"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="197">
+        <v>17</v>
+      </c>
+      <c r="B15" s="215"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="215"/>
+      <c r="J15" s="215"/>
+      <c r="K15" s="215"/>
+      <c r="L15" s="215"/>
+      <c r="M15" s="215"/>
+      <c r="N15" s="215"/>
+      <c r="O15" s="215"/>
+      <c r="P15" s="215"/>
+      <c r="Q15" s="215"/>
+      <c r="R15" s="215"/>
+      <c r="S15" s="215"/>
+      <c r="T15" s="215"/>
+      <c r="U15" s="215"/>
+      <c r="V15" s="215"/>
+      <c r="W15" s="215"/>
+      <c r="X15" s="215"/>
+      <c r="Y15" s="215"/>
+      <c r="Z15" s="215"/>
+      <c r="AA15" s="215"/>
+      <c r="AB15" s="215"/>
+      <c r="AC15" s="215"/>
+      <c r="AD15" s="215"/>
+      <c r="AE15" s="215"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="197">
+        <v>19</v>
+      </c>
+      <c r="B16" s="215"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="215"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="215"/>
+      <c r="J16" s="215"/>
+      <c r="K16" s="215"/>
+      <c r="L16" s="215"/>
+      <c r="M16" s="215"/>
+      <c r="N16" s="215"/>
+      <c r="O16" s="215"/>
+      <c r="P16" s="215"/>
+      <c r="Q16" s="215"/>
+      <c r="R16" s="215"/>
+      <c r="S16" s="215"/>
+      <c r="T16" s="215"/>
+      <c r="U16" s="215"/>
+      <c r="V16" s="215"/>
+      <c r="W16" s="215"/>
+      <c r="X16" s="215"/>
+      <c r="Y16" s="215"/>
+      <c r="Z16" s="215"/>
+      <c r="AA16" s="215"/>
+      <c r="AB16" s="215"/>
+      <c r="AC16" s="215"/>
+      <c r="AD16" s="215"/>
+      <c r="AE16" s="215"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="197">
+        <v>36</v>
+      </c>
+      <c r="B17" s="215"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="215"/>
+      <c r="J17" s="215"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="215"/>
+      <c r="M17" s="215"/>
+      <c r="N17" s="215"/>
+      <c r="O17" s="215"/>
+      <c r="P17" s="215"/>
+      <c r="Q17" s="215"/>
+      <c r="R17" s="215"/>
+      <c r="S17" s="215"/>
+      <c r="T17" s="215"/>
+      <c r="U17" s="215"/>
+      <c r="V17" s="215"/>
+      <c r="W17" s="215"/>
+      <c r="X17" s="215"/>
+      <c r="Y17" s="215"/>
+      <c r="Z17" s="215"/>
+      <c r="AA17" s="215"/>
+      <c r="AB17" s="215"/>
+      <c r="AC17" s="215"/>
+      <c r="AD17" s="215"/>
+      <c r="AE17" s="215"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="197">
+        <v>37</v>
+      </c>
+      <c r="B18" s="215"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="215"/>
+      <c r="G18" s="215"/>
+      <c r="H18" s="215"/>
+      <c r="I18" s="215"/>
+      <c r="J18" s="215"/>
+      <c r="K18" s="215"/>
+      <c r="L18" s="215"/>
+      <c r="M18" s="215"/>
+      <c r="N18" s="215"/>
+      <c r="O18" s="215"/>
+      <c r="P18" s="215"/>
+      <c r="Q18" s="215"/>
+      <c r="R18" s="215"/>
+      <c r="S18" s="215"/>
+      <c r="T18" s="215"/>
+      <c r="U18" s="215"/>
+      <c r="V18" s="215"/>
+      <c r="W18" s="215"/>
+      <c r="X18" s="215"/>
+      <c r="Y18" s="215"/>
+      <c r="Z18" s="215"/>
+      <c r="AA18" s="215"/>
+      <c r="AB18" s="215"/>
+      <c r="AC18" s="215"/>
+      <c r="AD18" s="215"/>
+      <c r="AE18" s="215"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="196">
+        <v>38</v>
+      </c>
+      <c r="B19" s="215"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="215"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="215"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="215"/>
+      <c r="O19" s="215"/>
+      <c r="P19" s="215"/>
+      <c r="Q19" s="215"/>
+      <c r="R19" s="215"/>
+      <c r="S19" s="215"/>
+      <c r="T19" s="215"/>
+      <c r="U19" s="215"/>
+      <c r="V19" s="215"/>
+      <c r="W19" s="215"/>
+      <c r="X19" s="215"/>
+      <c r="Y19" s="215"/>
+      <c r="Z19" s="215"/>
+      <c r="AA19" s="215"/>
+      <c r="AB19" s="215"/>
+      <c r="AC19" s="215"/>
+      <c r="AD19" s="215"/>
+      <c r="AE19" s="215"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="196">
+        <v>39</v>
+      </c>
+      <c r="B20" s="215"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="215"/>
+      <c r="J20" s="215"/>
+      <c r="K20" s="215"/>
+      <c r="L20" s="215"/>
+      <c r="M20" s="215"/>
+      <c r="N20" s="215"/>
+      <c r="O20" s="215"/>
+      <c r="P20" s="215"/>
+      <c r="Q20" s="215"/>
+      <c r="R20" s="215"/>
+      <c r="S20" s="215"/>
+      <c r="T20" s="215"/>
+      <c r="U20" s="215"/>
+      <c r="V20" s="215"/>
+      <c r="W20" s="215"/>
+      <c r="X20" s="215"/>
+      <c r="Y20" s="215"/>
+      <c r="Z20" s="215"/>
+      <c r="AA20" s="215"/>
+      <c r="AB20" s="215"/>
+      <c r="AC20" s="215"/>
+      <c r="AD20" s="215"/>
+      <c r="AE20" s="215"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="196">
+        <v>40</v>
+      </c>
+      <c r="B21" s="215"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="215"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="215"/>
+      <c r="J21" s="215"/>
+      <c r="K21" s="215"/>
+      <c r="L21" s="215"/>
+      <c r="M21" s="215"/>
+      <c r="N21" s="215"/>
+      <c r="O21" s="215"/>
+      <c r="P21" s="215"/>
+      <c r="Q21" s="215"/>
+      <c r="R21" s="215"/>
+      <c r="S21" s="215"/>
+      <c r="T21" s="215"/>
+      <c r="U21" s="215"/>
+      <c r="V21" s="215"/>
+      <c r="W21" s="215"/>
+      <c r="X21" s="215"/>
+      <c r="Y21" s="215"/>
+      <c r="Z21" s="215"/>
+      <c r="AA21" s="215"/>
+      <c r="AB21" s="215"/>
+      <c r="AC21" s="215"/>
+      <c r="AD21" s="215"/>
+      <c r="AE21" s="215"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="196">
+        <v>41</v>
+      </c>
+      <c r="B22" s="215"/>
+      <c r="C22" s="215"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="215"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="215"/>
+      <c r="J22" s="215"/>
+      <c r="K22" s="215"/>
+      <c r="L22" s="215"/>
+      <c r="M22" s="215"/>
+      <c r="N22" s="215"/>
+      <c r="O22" s="215"/>
+      <c r="P22" s="215"/>
+      <c r="Q22" s="215"/>
+      <c r="R22" s="215"/>
+      <c r="S22" s="215"/>
+      <c r="T22" s="215"/>
+      <c r="U22" s="215"/>
+      <c r="V22" s="215"/>
+      <c r="W22" s="215"/>
+      <c r="X22" s="215"/>
+      <c r="Y22" s="215"/>
+      <c r="Z22" s="215"/>
+      <c r="AA22" s="215"/>
+      <c r="AB22" s="215"/>
+      <c r="AC22" s="215"/>
+      <c r="AD22" s="215"/>
+      <c r="AE22" s="215"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="196">
+        <v>42</v>
+      </c>
+      <c r="B23" s="215"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="215"/>
+      <c r="J23" s="215"/>
+      <c r="K23" s="215"/>
+      <c r="L23" s="215"/>
+      <c r="M23" s="215"/>
+      <c r="N23" s="215"/>
+      <c r="O23" s="215"/>
+      <c r="P23" s="215"/>
+      <c r="Q23" s="215"/>
+      <c r="R23" s="215"/>
+      <c r="S23" s="215"/>
+      <c r="T23" s="215"/>
+      <c r="U23" s="215"/>
+      <c r="V23" s="215"/>
+      <c r="W23" s="215"/>
+      <c r="X23" s="215"/>
+      <c r="Y23" s="215"/>
+      <c r="Z23" s="215"/>
+      <c r="AA23" s="215"/>
+      <c r="AB23" s="215"/>
+      <c r="AC23" s="215"/>
+      <c r="AD23" s="215"/>
+      <c r="AE23" s="215"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="196">
+        <v>43</v>
+      </c>
+      <c r="B24" s="215"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="215"/>
+      <c r="H24" s="215"/>
+      <c r="I24" s="215"/>
+      <c r="J24" s="215"/>
+      <c r="K24" s="215"/>
+      <c r="L24" s="215"/>
+      <c r="M24" s="215"/>
+      <c r="N24" s="215"/>
+      <c r="O24" s="215"/>
+      <c r="P24" s="215"/>
+      <c r="Q24" s="215"/>
+      <c r="R24" s="215"/>
+      <c r="S24" s="215"/>
+      <c r="T24" s="215"/>
+      <c r="U24" s="215"/>
+      <c r="V24" s="215"/>
+      <c r="W24" s="215"/>
+      <c r="X24" s="215"/>
+      <c r="Y24" s="215"/>
+      <c r="Z24" s="215"/>
+      <c r="AA24" s="215"/>
+      <c r="AB24" s="215"/>
+      <c r="AC24" s="215"/>
+      <c r="AD24" s="215"/>
+      <c r="AE24" s="215"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="196">
+        <v>44</v>
+      </c>
+      <c r="B25" s="215"/>
+      <c r="C25" s="215"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="215"/>
+      <c r="K25" s="215"/>
+      <c r="L25" s="215"/>
+      <c r="M25" s="215"/>
+      <c r="N25" s="215"/>
+      <c r="O25" s="215"/>
+      <c r="P25" s="215"/>
+      <c r="Q25" s="215"/>
+      <c r="R25" s="215"/>
+      <c r="S25" s="215"/>
+      <c r="T25" s="215"/>
+      <c r="U25" s="215"/>
+      <c r="V25" s="215"/>
+      <c r="W25" s="215"/>
+      <c r="X25" s="215"/>
+      <c r="Y25" s="215"/>
+      <c r="Z25" s="215"/>
+      <c r="AA25" s="215"/>
+      <c r="AB25" s="215"/>
+      <c r="AC25" s="215"/>
+      <c r="AD25" s="215"/>
+      <c r="AE25" s="215"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="196"/>
+      <c r="B26" s="215"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="215"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="215"/>
+      <c r="J26" s="215"/>
+      <c r="K26" s="215"/>
+      <c r="L26" s="215"/>
+      <c r="M26" s="215"/>
+      <c r="N26" s="215"/>
+      <c r="O26" s="215"/>
+      <c r="P26" s="215"/>
+      <c r="Q26" s="215"/>
+      <c r="R26" s="215"/>
+      <c r="S26" s="215"/>
+      <c r="T26" s="215"/>
+      <c r="U26" s="215"/>
+      <c r="V26" s="215"/>
+      <c r="W26" s="215"/>
+      <c r="X26" s="215"/>
+      <c r="Y26" s="215"/>
+      <c r="Z26" s="215"/>
+      <c r="AA26" s="215"/>
+      <c r="AB26" s="215"/>
+      <c r="AC26" s="215"/>
+      <c r="AD26" s="215"/>
+      <c r="AE26" s="215"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="139"/>
+      <c r="B27" s="215"/>
+      <c r="C27" s="215"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="215"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="215"/>
+      <c r="J27" s="215"/>
+      <c r="K27" s="215"/>
+      <c r="L27" s="215"/>
+      <c r="M27" s="215"/>
+      <c r="N27" s="215"/>
+      <c r="O27" s="215"/>
+      <c r="P27" s="215"/>
+      <c r="Q27" s="215"/>
+      <c r="R27" s="215"/>
+      <c r="S27" s="215"/>
+      <c r="T27" s="215"/>
+      <c r="U27" s="215"/>
+      <c r="V27" s="215"/>
+      <c r="W27" s="215"/>
+      <c r="X27" s="215"/>
+      <c r="Y27" s="215"/>
+      <c r="Z27" s="215"/>
+      <c r="AA27" s="215"/>
+      <c r="AB27" s="215"/>
+      <c r="AC27" s="215"/>
+      <c r="AD27" s="215"/>
+      <c r="AE27" s="215"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="196">
+        <v>50</v>
+      </c>
+      <c r="B28" s="215"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="215"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="215"/>
+      <c r="J28" s="215"/>
+      <c r="K28" s="215"/>
+      <c r="L28" s="215"/>
+      <c r="M28" s="215"/>
+      <c r="N28" s="215"/>
+      <c r="O28" s="215"/>
+      <c r="P28" s="215"/>
+      <c r="Q28" s="215"/>
+      <c r="R28" s="215"/>
+      <c r="S28" s="215"/>
+      <c r="T28" s="215"/>
+      <c r="U28" s="215"/>
+      <c r="V28" s="215"/>
+      <c r="W28" s="215"/>
+      <c r="X28" s="215"/>
+      <c r="Y28" s="215"/>
+      <c r="Z28" s="215"/>
+      <c r="AA28" s="215"/>
+      <c r="AB28" s="215"/>
+      <c r="AC28" s="215"/>
+      <c r="AD28" s="215"/>
+      <c r="AE28" s="215"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="196">
+        <v>51</v>
+      </c>
+      <c r="B29" s="215"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="215"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="215"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="215"/>
+      <c r="J29" s="215"/>
+      <c r="K29" s="215"/>
+      <c r="L29" s="215"/>
+      <c r="M29" s="215"/>
+      <c r="N29" s="215"/>
+      <c r="O29" s="215"/>
+      <c r="P29" s="215"/>
+      <c r="Q29" s="215"/>
+      <c r="R29" s="215"/>
+      <c r="S29" s="215"/>
+      <c r="T29" s="215"/>
+      <c r="U29" s="215"/>
+      <c r="V29" s="215"/>
+      <c r="W29" s="215"/>
+      <c r="X29" s="215"/>
+      <c r="Y29" s="215"/>
+      <c r="Z29" s="215"/>
+      <c r="AA29" s="215"/>
+      <c r="AB29" s="215"/>
+      <c r="AC29" s="215"/>
+      <c r="AD29" s="215"/>
+      <c r="AE29" s="215"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="196">
+        <v>52</v>
+      </c>
+      <c r="B30" s="215"/>
+      <c r="C30" s="215"/>
+      <c r="D30" s="215"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="215"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="215"/>
+      <c r="J30" s="215"/>
+      <c r="K30" s="215"/>
+      <c r="L30" s="215"/>
+      <c r="M30" s="215"/>
+      <c r="N30" s="215"/>
+      <c r="O30" s="215"/>
+      <c r="P30" s="215"/>
+      <c r="Q30" s="215"/>
+      <c r="R30" s="215"/>
+      <c r="S30" s="215"/>
+      <c r="T30" s="215"/>
+      <c r="U30" s="215"/>
+      <c r="V30" s="215"/>
+      <c r="W30" s="215"/>
+      <c r="X30" s="215"/>
+      <c r="Y30" s="215"/>
+      <c r="Z30" s="215"/>
+      <c r="AA30" s="215"/>
+      <c r="AB30" s="215"/>
+      <c r="AC30" s="215"/>
+      <c r="AD30" s="215"/>
+      <c r="AE30" s="215"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="196">
+        <v>53</v>
+      </c>
+      <c r="B31" s="215"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="215"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="215"/>
+      <c r="O31" s="215"/>
+      <c r="P31" s="215"/>
+      <c r="Q31" s="215"/>
+      <c r="R31" s="215"/>
+      <c r="S31" s="215"/>
+      <c r="T31" s="215"/>
+      <c r="U31" s="215"/>
+      <c r="V31" s="215"/>
+      <c r="W31" s="215"/>
+      <c r="X31" s="215"/>
+      <c r="Y31" s="215"/>
+      <c r="Z31" s="215"/>
+      <c r="AA31" s="215"/>
+      <c r="AB31" s="215"/>
+      <c r="AC31" s="215"/>
+      <c r="AD31" s="215"/>
+      <c r="AE31" s="215"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="196">
+        <v>54</v>
+      </c>
+      <c r="B32" s="215"/>
+      <c r="C32" s="215"/>
+      <c r="D32" s="215"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="215"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="215"/>
+      <c r="J32" s="215"/>
+      <c r="K32" s="215"/>
+      <c r="L32" s="215"/>
+      <c r="M32" s="215"/>
+      <c r="N32" s="215"/>
+      <c r="O32" s="215"/>
+      <c r="P32" s="215"/>
+      <c r="Q32" s="215"/>
+      <c r="R32" s="215"/>
+      <c r="S32" s="215"/>
+      <c r="T32" s="215"/>
+      <c r="U32" s="215"/>
+      <c r="V32" s="215"/>
+      <c r="W32" s="215"/>
+      <c r="X32" s="215"/>
+      <c r="Y32" s="215"/>
+      <c r="Z32" s="215"/>
+      <c r="AA32" s="215"/>
+      <c r="AB32" s="215"/>
+      <c r="AC32" s="215"/>
+      <c r="AD32" s="215"/>
+      <c r="AE32" s="215"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="196">
+        <v>55</v>
+      </c>
+      <c r="B33" s="215"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="215"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="215"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="215"/>
+      <c r="K33" s="215"/>
+      <c r="L33" s="215"/>
+      <c r="M33" s="215"/>
+      <c r="N33" s="215"/>
+      <c r="O33" s="215"/>
+      <c r="P33" s="215"/>
+      <c r="Q33" s="215"/>
+      <c r="R33" s="215"/>
+      <c r="S33" s="215"/>
+      <c r="T33" s="215"/>
+      <c r="U33" s="215"/>
+      <c r="V33" s="215"/>
+      <c r="W33" s="215"/>
+      <c r="X33" s="215"/>
+      <c r="Y33" s="215"/>
+      <c r="Z33" s="215"/>
+      <c r="AA33" s="215"/>
+      <c r="AB33" s="215"/>
+      <c r="AC33" s="215"/>
+      <c r="AD33" s="215"/>
+      <c r="AE33" s="215"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="196">
+        <v>56</v>
+      </c>
+      <c r="B34" s="215"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="215"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="215"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="215"/>
+      <c r="L34" s="215"/>
+      <c r="M34" s="215"/>
+      <c r="N34" s="215"/>
+      <c r="O34" s="215"/>
+      <c r="P34" s="215"/>
+      <c r="Q34" s="215"/>
+      <c r="R34" s="215"/>
+      <c r="S34" s="215"/>
+      <c r="T34" s="215"/>
+      <c r="U34" s="215"/>
+      <c r="V34" s="215"/>
+      <c r="W34" s="215"/>
+      <c r="X34" s="215"/>
+      <c r="Y34" s="215"/>
+      <c r="Z34" s="215"/>
+      <c r="AA34" s="215"/>
+      <c r="AB34" s="215"/>
+      <c r="AC34" s="215"/>
+      <c r="AD34" s="215"/>
+      <c r="AE34" s="215"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="196">
+        <v>57</v>
+      </c>
+      <c r="B35" s="215"/>
+      <c r="C35" s="215"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="215"/>
+      <c r="L35" s="215"/>
+      <c r="M35" s="215"/>
+      <c r="N35" s="215"/>
+      <c r="O35" s="215"/>
+      <c r="P35" s="215"/>
+      <c r="Q35" s="215"/>
+      <c r="R35" s="215"/>
+      <c r="S35" s="215"/>
+      <c r="T35" s="215"/>
+      <c r="U35" s="215"/>
+      <c r="V35" s="215"/>
+      <c r="W35" s="215"/>
+      <c r="X35" s="215"/>
+      <c r="Y35" s="215"/>
+      <c r="Z35" s="215"/>
+      <c r="AA35" s="215"/>
+      <c r="AB35" s="215"/>
+      <c r="AC35" s="215"/>
+      <c r="AD35" s="215"/>
+      <c r="AE35" s="215"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="212">
+        <v>58</v>
+      </c>
+      <c r="B36" s="215"/>
+      <c r="C36" s="215"/>
+      <c r="D36" s="215"/>
+      <c r="E36" s="215"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="215"/>
+      <c r="H36" s="215"/>
+      <c r="I36" s="215"/>
+      <c r="J36" s="215"/>
+      <c r="K36" s="215"/>
+      <c r="L36" s="215"/>
+      <c r="M36" s="215"/>
+      <c r="N36" s="215"/>
+      <c r="O36" s="215"/>
+      <c r="P36" s="215"/>
+      <c r="Q36" s="215"/>
+      <c r="R36" s="215"/>
+      <c r="S36" s="215"/>
+      <c r="T36" s="215"/>
+      <c r="U36" s="215"/>
+      <c r="V36" s="215"/>
+      <c r="W36" s="215"/>
+      <c r="X36" s="215"/>
+      <c r="Y36" s="215"/>
+      <c r="Z36" s="215"/>
+      <c r="AA36" s="215"/>
+      <c r="AB36" s="215"/>
+      <c r="AC36" s="215"/>
+      <c r="AD36" s="215"/>
+      <c r="AE36" s="215"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="212">
+        <v>59</v>
+      </c>
+      <c r="B37" s="215"/>
+      <c r="C37" s="215"/>
+      <c r="D37" s="215"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="215"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="215"/>
+      <c r="M37" s="215"/>
+      <c r="N37" s="215"/>
+      <c r="O37" s="215"/>
+      <c r="P37" s="215"/>
+      <c r="Q37" s="215"/>
+      <c r="R37" s="215"/>
+      <c r="S37" s="215"/>
+      <c r="T37" s="215"/>
+      <c r="U37" s="215"/>
+      <c r="V37" s="215"/>
+      <c r="W37" s="215"/>
+      <c r="X37" s="215"/>
+      <c r="Y37" s="215"/>
+      <c r="Z37" s="215"/>
+      <c r="AA37" s="215"/>
+      <c r="AB37" s="215"/>
+      <c r="AC37" s="215"/>
+      <c r="AD37" s="215"/>
+      <c r="AE37" s="215"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="212">
+        <v>60</v>
+      </c>
+      <c r="B38" s="215"/>
+      <c r="C38" s="215"/>
+      <c r="D38" s="215"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="215"/>
+      <c r="K38" s="215"/>
+      <c r="L38" s="215"/>
+      <c r="M38" s="215"/>
+      <c r="N38" s="215"/>
+      <c r="O38" s="215"/>
+      <c r="P38" s="215"/>
+      <c r="Q38" s="215"/>
+      <c r="R38" s="215"/>
+      <c r="S38" s="215"/>
+      <c r="T38" s="215"/>
+      <c r="U38" s="215"/>
+      <c r="V38" s="215"/>
+      <c r="W38" s="215"/>
+      <c r="X38" s="215"/>
+      <c r="Y38" s="215"/>
+      <c r="Z38" s="215"/>
+      <c r="AA38" s="215"/>
+      <c r="AB38" s="215"/>
+      <c r="AC38" s="215"/>
+      <c r="AD38" s="215"/>
+      <c r="AE38" s="215"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="212">
+        <v>61</v>
+      </c>
+      <c r="B39" s="215"/>
+      <c r="C39" s="215"/>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="215"/>
+      <c r="I39" s="215"/>
+      <c r="J39" s="215"/>
+      <c r="K39" s="215"/>
+      <c r="L39" s="215"/>
+      <c r="M39" s="215"/>
+      <c r="N39" s="215"/>
+      <c r="O39" s="215"/>
+      <c r="P39" s="215"/>
+      <c r="Q39" s="215"/>
+      <c r="R39" s="215"/>
+      <c r="S39" s="215"/>
+      <c r="T39" s="215"/>
+      <c r="U39" s="215"/>
+      <c r="V39" s="215"/>
+      <c r="W39" s="215"/>
+      <c r="X39" s="215"/>
+      <c r="Y39" s="215"/>
+      <c r="Z39" s="215"/>
+      <c r="AA39" s="215"/>
+      <c r="AB39" s="215"/>
+      <c r="AC39" s="215"/>
+      <c r="AD39" s="215"/>
+      <c r="AE39" s="215"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="212">
+        <v>62</v>
+      </c>
+      <c r="B40" s="215"/>
+      <c r="C40" s="215"/>
+      <c r="D40" s="215"/>
+      <c r="E40" s="215"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="215"/>
+      <c r="H40" s="215"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="215"/>
+      <c r="K40" s="215"/>
+      <c r="L40" s="215"/>
+      <c r="M40" s="215"/>
+      <c r="N40" s="215"/>
+      <c r="O40" s="215"/>
+      <c r="P40" s="215"/>
+      <c r="Q40" s="215"/>
+      <c r="R40" s="215"/>
+      <c r="S40" s="215"/>
+      <c r="T40" s="215"/>
+      <c r="U40" s="215"/>
+      <c r="V40" s="215"/>
+      <c r="W40" s="215"/>
+      <c r="X40" s="215"/>
+      <c r="Y40" s="215"/>
+      <c r="Z40" s="215"/>
+      <c r="AA40" s="215"/>
+      <c r="AB40" s="215"/>
+      <c r="AC40" s="215"/>
+      <c r="AD40" s="215"/>
+      <c r="AE40" s="215"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="212">
+        <v>63</v>
+      </c>
+      <c r="B41" s="215"/>
+      <c r="C41" s="215"/>
+      <c r="D41" s="215"/>
+      <c r="E41" s="215"/>
+      <c r="F41" s="215"/>
+      <c r="G41" s="215"/>
+      <c r="H41" s="215"/>
+      <c r="I41" s="215"/>
+      <c r="J41" s="215"/>
+      <c r="K41" s="215"/>
+      <c r="L41" s="215"/>
+      <c r="M41" s="215"/>
+      <c r="N41" s="215"/>
+      <c r="O41" s="215"/>
+      <c r="P41" s="215"/>
+      <c r="Q41" s="215"/>
+      <c r="R41" s="215"/>
+      <c r="S41" s="215"/>
+      <c r="T41" s="215"/>
+      <c r="U41" s="215"/>
+      <c r="V41" s="215"/>
+      <c r="W41" s="215"/>
+      <c r="X41" s="215"/>
+      <c r="Y41" s="215"/>
+      <c r="Z41" s="215"/>
+      <c r="AA41" s="215"/>
+      <c r="AB41" s="215"/>
+      <c r="AC41" s="215"/>
+      <c r="AD41" s="215"/>
+      <c r="AE41" s="215"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42" s="212">
+        <v>64</v>
+      </c>
+      <c r="B42" s="215"/>
+      <c r="C42" s="215"/>
+      <c r="D42" s="215"/>
+      <c r="E42" s="215"/>
+      <c r="F42" s="215"/>
+      <c r="G42" s="215"/>
+      <c r="H42" s="215"/>
+      <c r="I42" s="215"/>
+      <c r="J42" s="215"/>
+      <c r="K42" s="215"/>
+      <c r="L42" s="215"/>
+      <c r="M42" s="215"/>
+      <c r="N42" s="215"/>
+      <c r="O42" s="215"/>
+      <c r="P42" s="215"/>
+      <c r="Q42" s="215"/>
+      <c r="R42" s="215"/>
+      <c r="S42" s="215"/>
+      <c r="T42" s="215"/>
+      <c r="U42" s="215"/>
+      <c r="V42" s="215"/>
+      <c r="W42" s="215"/>
+      <c r="X42" s="215"/>
+      <c r="Y42" s="215"/>
+      <c r="Z42" s="215"/>
+      <c r="AA42" s="215"/>
+      <c r="AB42" s="215"/>
+      <c r="AC42" s="215"/>
+      <c r="AD42" s="215"/>
+      <c r="AE42" s="215"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" s="212">
+        <v>65</v>
+      </c>
+      <c r="B43" s="215"/>
+      <c r="C43" s="215"/>
+      <c r="D43" s="215"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="215"/>
+      <c r="G43" s="215"/>
+      <c r="H43" s="215"/>
+      <c r="I43" s="215"/>
+      <c r="J43" s="215"/>
+      <c r="K43" s="215"/>
+      <c r="L43" s="215"/>
+      <c r="M43" s="215"/>
+      <c r="N43" s="215"/>
+      <c r="O43" s="215"/>
+      <c r="P43" s="215"/>
+      <c r="Q43" s="215"/>
+      <c r="R43" s="215"/>
+      <c r="S43" s="215"/>
+      <c r="T43" s="215"/>
+      <c r="U43" s="215"/>
+      <c r="V43" s="215"/>
+      <c r="W43" s="215"/>
+      <c r="X43" s="215"/>
+      <c r="Y43" s="215"/>
+      <c r="Z43" s="215"/>
+      <c r="AA43" s="215"/>
+      <c r="AB43" s="215"/>
+      <c r="AC43" s="215"/>
+      <c r="AD43" s="215"/>
+      <c r="AE43" s="215"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" s="213"/>
+      <c r="B44" s="215"/>
+      <c r="C44" s="215"/>
+      <c r="D44" s="215"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="215"/>
+      <c r="G44" s="215"/>
+      <c r="H44" s="215"/>
+      <c r="I44" s="215"/>
+      <c r="J44" s="215"/>
+      <c r="K44" s="215"/>
+      <c r="L44" s="215"/>
+      <c r="M44" s="215"/>
+      <c r="N44" s="215"/>
+      <c r="O44" s="215"/>
+      <c r="P44" s="215"/>
+      <c r="Q44" s="215"/>
+      <c r="R44" s="215"/>
+      <c r="S44" s="215"/>
+      <c r="T44" s="215"/>
+      <c r="U44" s="215"/>
+      <c r="V44" s="215"/>
+      <c r="W44" s="215"/>
+      <c r="X44" s="215"/>
+      <c r="Y44" s="215"/>
+      <c r="Z44" s="215"/>
+      <c r="AA44" s="215"/>
+      <c r="AB44" s="215"/>
+      <c r="AC44" s="215"/>
+      <c r="AD44" s="215"/>
+      <c r="AE44" s="215"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="139"/>
+      <c r="B45" s="215"/>
+      <c r="C45" s="215"/>
+      <c r="D45" s="215"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="215"/>
+      <c r="G45" s="215"/>
+      <c r="H45" s="215"/>
+      <c r="I45" s="215"/>
+      <c r="J45" s="215"/>
+      <c r="K45" s="215"/>
+      <c r="L45" s="215"/>
+      <c r="M45" s="215"/>
+      <c r="N45" s="215"/>
+      <c r="O45" s="215"/>
+      <c r="P45" s="215"/>
+      <c r="Q45" s="215"/>
+      <c r="R45" s="215"/>
+      <c r="S45" s="215"/>
+      <c r="T45" s="215"/>
+      <c r="U45" s="215"/>
+      <c r="V45" s="215"/>
+      <c r="W45" s="215"/>
+      <c r="X45" s="215"/>
+      <c r="Y45" s="215"/>
+      <c r="Z45" s="215"/>
+      <c r="AA45" s="215"/>
+      <c r="AB45" s="215"/>
+      <c r="AC45" s="215"/>
+      <c r="AD45" s="215"/>
+      <c r="AE45" s="215"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" s="196">
+        <v>70</v>
+      </c>
+      <c r="B46" s="215"/>
+      <c r="C46" s="215"/>
+      <c r="D46" s="215"/>
+      <c r="E46" s="215"/>
+      <c r="F46" s="215"/>
+      <c r="G46" s="215"/>
+      <c r="H46" s="215"/>
+      <c r="I46" s="215"/>
+      <c r="J46" s="215"/>
+      <c r="K46" s="215"/>
+      <c r="L46" s="215"/>
+      <c r="M46" s="215"/>
+      <c r="N46" s="215"/>
+      <c r="O46" s="215"/>
+      <c r="P46" s="215"/>
+      <c r="Q46" s="215"/>
+      <c r="R46" s="215"/>
+      <c r="S46" s="215"/>
+      <c r="T46" s="215"/>
+      <c r="U46" s="215"/>
+      <c r="V46" s="215"/>
+      <c r="W46" s="215"/>
+      <c r="X46" s="215"/>
+      <c r="Y46" s="215"/>
+      <c r="Z46" s="215"/>
+      <c r="AA46" s="215"/>
+      <c r="AB46" s="215"/>
+      <c r="AC46" s="215"/>
+      <c r="AD46" s="215"/>
+      <c r="AE46" s="215"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A47" s="196">
+        <v>71</v>
+      </c>
+      <c r="B47" s="215"/>
+      <c r="C47" s="215"/>
+      <c r="D47" s="215"/>
+      <c r="E47" s="215"/>
+      <c r="F47" s="215"/>
+      <c r="G47" s="215"/>
+      <c r="H47" s="215"/>
+      <c r="I47" s="215"/>
+      <c r="J47" s="215"/>
+      <c r="K47" s="215"/>
+      <c r="L47" s="215"/>
+      <c r="M47" s="215"/>
+      <c r="N47" s="215"/>
+      <c r="O47" s="215"/>
+      <c r="P47" s="215"/>
+      <c r="Q47" s="215"/>
+      <c r="R47" s="215"/>
+      <c r="S47" s="215"/>
+      <c r="T47" s="215"/>
+      <c r="U47" s="215"/>
+      <c r="V47" s="215"/>
+      <c r="W47" s="215"/>
+      <c r="X47" s="215"/>
+      <c r="Y47" s="215"/>
+      <c r="Z47" s="215"/>
+      <c r="AA47" s="215"/>
+      <c r="AB47" s="215"/>
+      <c r="AC47" s="215"/>
+      <c r="AD47" s="215"/>
+      <c r="AE47" s="215"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="196">
+        <v>72</v>
+      </c>
+      <c r="B48" s="215"/>
+      <c r="C48" s="215"/>
+      <c r="D48" s="215"/>
+      <c r="E48" s="215"/>
+      <c r="F48" s="215"/>
+      <c r="G48" s="215"/>
+      <c r="H48" s="215"/>
+      <c r="I48" s="215"/>
+      <c r="J48" s="215"/>
+      <c r="K48" s="215"/>
+      <c r="L48" s="215"/>
+      <c r="M48" s="215"/>
+      <c r="N48" s="215"/>
+      <c r="O48" s="215"/>
+      <c r="P48" s="215"/>
+      <c r="Q48" s="215"/>
+      <c r="R48" s="215"/>
+      <c r="S48" s="215"/>
+      <c r="T48" s="215"/>
+      <c r="U48" s="215"/>
+      <c r="V48" s="215"/>
+      <c r="W48" s="215"/>
+      <c r="X48" s="215"/>
+      <c r="Y48" s="215"/>
+      <c r="Z48" s="215"/>
+      <c r="AA48" s="215"/>
+      <c r="AB48" s="215"/>
+      <c r="AC48" s="215"/>
+      <c r="AD48" s="215"/>
+      <c r="AE48" s="215"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="196">
+        <v>73</v>
+      </c>
+      <c r="B49" s="215"/>
+      <c r="C49" s="215"/>
+      <c r="D49" s="215"/>
+      <c r="E49" s="215"/>
+      <c r="F49" s="215"/>
+      <c r="G49" s="215"/>
+      <c r="H49" s="215"/>
+      <c r="I49" s="215"/>
+      <c r="J49" s="215"/>
+      <c r="K49" s="215"/>
+      <c r="L49" s="215"/>
+      <c r="M49" s="215"/>
+      <c r="N49" s="215"/>
+      <c r="O49" s="215"/>
+      <c r="P49" s="215"/>
+      <c r="Q49" s="215"/>
+      <c r="R49" s="215"/>
+      <c r="S49" s="215"/>
+      <c r="T49" s="215"/>
+      <c r="U49" s="215"/>
+      <c r="V49" s="215"/>
+      <c r="W49" s="215"/>
+      <c r="X49" s="215"/>
+      <c r="Y49" s="215"/>
+      <c r="Z49" s="215"/>
+      <c r="AA49" s="215"/>
+      <c r="AB49" s="215"/>
+      <c r="AC49" s="215"/>
+      <c r="AD49" s="215"/>
+      <c r="AE49" s="215"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="196">
+        <v>74</v>
+      </c>
+      <c r="B50" s="215"/>
+      <c r="C50" s="215"/>
+      <c r="D50" s="215"/>
+      <c r="E50" s="215"/>
+      <c r="F50" s="215"/>
+      <c r="G50" s="215"/>
+      <c r="H50" s="215"/>
+      <c r="I50" s="215"/>
+      <c r="J50" s="215"/>
+      <c r="K50" s="215"/>
+      <c r="L50" s="215"/>
+      <c r="M50" s="215"/>
+      <c r="N50" s="215"/>
+      <c r="O50" s="215"/>
+      <c r="P50" s="215"/>
+      <c r="Q50" s="215"/>
+      <c r="R50" s="215"/>
+      <c r="S50" s="215"/>
+      <c r="T50" s="215"/>
+      <c r="U50" s="215"/>
+      <c r="V50" s="215"/>
+      <c r="W50" s="215"/>
+      <c r="X50" s="215"/>
+      <c r="Y50" s="215"/>
+      <c r="Z50" s="215"/>
+      <c r="AA50" s="215"/>
+      <c r="AB50" s="215"/>
+      <c r="AC50" s="215"/>
+      <c r="AD50" s="215"/>
+      <c r="AE50" s="215"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="196">
+        <v>75</v>
+      </c>
+      <c r="B51" s="215"/>
+      <c r="C51" s="215"/>
+      <c r="D51" s="215"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="215"/>
+      <c r="G51" s="215"/>
+      <c r="H51" s="215"/>
+      <c r="I51" s="215"/>
+      <c r="J51" s="215"/>
+      <c r="K51" s="215"/>
+      <c r="L51" s="215"/>
+      <c r="M51" s="215"/>
+      <c r="N51" s="215"/>
+      <c r="O51" s="215"/>
+      <c r="P51" s="215"/>
+      <c r="Q51" s="215"/>
+      <c r="R51" s="215"/>
+      <c r="S51" s="215"/>
+      <c r="T51" s="215"/>
+      <c r="U51" s="215"/>
+      <c r="V51" s="215"/>
+      <c r="W51" s="215"/>
+      <c r="X51" s="215"/>
+      <c r="Y51" s="215"/>
+      <c r="Z51" s="215"/>
+      <c r="AA51" s="215"/>
+      <c r="AB51" s="215"/>
+      <c r="AC51" s="215"/>
+      <c r="AD51" s="215"/>
+      <c r="AE51" s="215"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="196">
+        <v>76</v>
+      </c>
+      <c r="B52" s="215"/>
+      <c r="C52" s="215"/>
+      <c r="D52" s="215"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="215"/>
+      <c r="G52" s="215"/>
+      <c r="H52" s="215"/>
+      <c r="I52" s="215"/>
+      <c r="J52" s="215"/>
+      <c r="K52" s="215"/>
+      <c r="L52" s="215"/>
+      <c r="M52" s="215"/>
+      <c r="N52" s="215"/>
+      <c r="O52" s="215"/>
+      <c r="P52" s="215"/>
+      <c r="Q52" s="215"/>
+      <c r="R52" s="215"/>
+      <c r="S52" s="215"/>
+      <c r="T52" s="215"/>
+      <c r="U52" s="215"/>
+      <c r="V52" s="215"/>
+      <c r="W52" s="215"/>
+      <c r="X52" s="215"/>
+      <c r="Y52" s="215"/>
+      <c r="Z52" s="215"/>
+      <c r="AA52" s="215"/>
+      <c r="AB52" s="215"/>
+      <c r="AC52" s="215"/>
+      <c r="AD52" s="215"/>
+      <c r="AE52" s="215"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" s="196">
+        <v>77</v>
+      </c>
+      <c r="B53" s="215"/>
+      <c r="C53" s="215"/>
+      <c r="D53" s="215"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="215"/>
+      <c r="G53" s="215"/>
+      <c r="H53" s="215"/>
+      <c r="I53" s="215"/>
+      <c r="J53" s="215"/>
+      <c r="K53" s="215"/>
+      <c r="L53" s="215"/>
+      <c r="M53" s="215"/>
+      <c r="N53" s="215"/>
+      <c r="O53" s="215"/>
+      <c r="P53" s="215"/>
+      <c r="Q53" s="215"/>
+      <c r="R53" s="215"/>
+      <c r="S53" s="215"/>
+      <c r="T53" s="215"/>
+      <c r="U53" s="215"/>
+      <c r="V53" s="215"/>
+      <c r="W53" s="215"/>
+      <c r="X53" s="215"/>
+      <c r="Y53" s="215"/>
+      <c r="Z53" s="215"/>
+      <c r="AA53" s="215"/>
+      <c r="AB53" s="215"/>
+      <c r="AC53" s="215"/>
+      <c r="AD53" s="215"/>
+      <c r="AE53" s="215"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" s="212">
+        <v>78</v>
+      </c>
+      <c r="B54" s="215"/>
+      <c r="C54" s="215"/>
+      <c r="D54" s="215"/>
+      <c r="E54" s="215"/>
+      <c r="F54" s="215"/>
+      <c r="G54" s="215"/>
+      <c r="H54" s="215"/>
+      <c r="I54" s="215"/>
+      <c r="J54" s="215"/>
+      <c r="K54" s="215"/>
+      <c r="L54" s="215"/>
+      <c r="M54" s="215"/>
+      <c r="N54" s="215"/>
+      <c r="O54" s="215"/>
+      <c r="P54" s="215"/>
+      <c r="Q54" s="215"/>
+      <c r="R54" s="215"/>
+      <c r="S54" s="215"/>
+      <c r="T54" s="215"/>
+      <c r="U54" s="215"/>
+      <c r="V54" s="215"/>
+      <c r="W54" s="215"/>
+      <c r="X54" s="215"/>
+      <c r="Y54" s="215"/>
+      <c r="Z54" s="215"/>
+      <c r="AA54" s="215"/>
+      <c r="AB54" s="215"/>
+      <c r="AC54" s="215"/>
+      <c r="AD54" s="215"/>
+      <c r="AE54" s="215"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="212">
+        <v>79</v>
+      </c>
+      <c r="B55" s="215"/>
+      <c r="C55" s="215"/>
+      <c r="D55" s="215"/>
+      <c r="E55" s="215"/>
+      <c r="F55" s="215"/>
+      <c r="G55" s="215"/>
+      <c r="H55" s="215"/>
+      <c r="I55" s="215"/>
+      <c r="J55" s="215"/>
+      <c r="K55" s="215"/>
+      <c r="L55" s="215"/>
+      <c r="M55" s="215"/>
+      <c r="N55" s="215"/>
+      <c r="O55" s="215"/>
+      <c r="P55" s="215"/>
+      <c r="Q55" s="215"/>
+      <c r="R55" s="215"/>
+      <c r="S55" s="215"/>
+      <c r="T55" s="215"/>
+      <c r="U55" s="215"/>
+      <c r="V55" s="215"/>
+      <c r="W55" s="215"/>
+      <c r="X55" s="215"/>
+      <c r="Y55" s="215"/>
+      <c r="Z55" s="215"/>
+      <c r="AA55" s="215"/>
+      <c r="AB55" s="215"/>
+      <c r="AC55" s="215"/>
+      <c r="AD55" s="215"/>
+      <c r="AE55" s="215"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="212">
+        <v>80</v>
+      </c>
+      <c r="B56" s="215"/>
+      <c r="C56" s="215"/>
+      <c r="D56" s="215"/>
+      <c r="E56" s="215"/>
+      <c r="F56" s="215"/>
+      <c r="G56" s="215"/>
+      <c r="H56" s="215"/>
+      <c r="I56" s="215"/>
+      <c r="J56" s="215"/>
+      <c r="K56" s="215"/>
+      <c r="L56" s="215"/>
+      <c r="M56" s="215"/>
+      <c r="N56" s="215"/>
+      <c r="O56" s="215"/>
+      <c r="P56" s="215"/>
+      <c r="Q56" s="215"/>
+      <c r="R56" s="215"/>
+      <c r="S56" s="215"/>
+      <c r="T56" s="215"/>
+      <c r="U56" s="215"/>
+      <c r="V56" s="215"/>
+      <c r="W56" s="215"/>
+      <c r="X56" s="215"/>
+      <c r="Y56" s="215"/>
+      <c r="Z56" s="215"/>
+      <c r="AA56" s="215"/>
+      <c r="AB56" s="215"/>
+      <c r="AC56" s="215"/>
+      <c r="AD56" s="215"/>
+      <c r="AE56" s="215"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="212">
+        <v>81</v>
+      </c>
+      <c r="B57" s="215"/>
+      <c r="C57" s="215"/>
+      <c r="D57" s="215"/>
+      <c r="E57" s="215"/>
+      <c r="F57" s="215"/>
+      <c r="G57" s="215"/>
+      <c r="H57" s="215"/>
+      <c r="I57" s="215"/>
+      <c r="J57" s="215"/>
+      <c r="K57" s="215"/>
+      <c r="L57" s="215"/>
+      <c r="M57" s="215"/>
+      <c r="N57" s="215"/>
+      <c r="O57" s="215"/>
+      <c r="P57" s="215"/>
+      <c r="Q57" s="215"/>
+      <c r="R57" s="215"/>
+      <c r="S57" s="215"/>
+      <c r="T57" s="215"/>
+      <c r="U57" s="215"/>
+      <c r="V57" s="215"/>
+      <c r="W57" s="215"/>
+      <c r="X57" s="215"/>
+      <c r="Y57" s="215"/>
+      <c r="Z57" s="215"/>
+      <c r="AA57" s="215"/>
+      <c r="AB57" s="215"/>
+      <c r="AC57" s="215"/>
+      <c r="AD57" s="215"/>
+      <c r="AE57" s="215"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="212">
+        <v>82</v>
+      </c>
+      <c r="B58" s="215"/>
+      <c r="C58" s="215"/>
+      <c r="D58" s="215"/>
+      <c r="E58" s="215"/>
+      <c r="F58" s="215"/>
+      <c r="G58" s="215"/>
+      <c r="H58" s="215"/>
+      <c r="I58" s="215"/>
+      <c r="J58" s="215"/>
+      <c r="K58" s="215"/>
+      <c r="L58" s="215"/>
+      <c r="M58" s="215"/>
+      <c r="N58" s="215"/>
+      <c r="O58" s="215"/>
+      <c r="P58" s="215"/>
+      <c r="Q58" s="215"/>
+      <c r="R58" s="215"/>
+      <c r="S58" s="215"/>
+      <c r="T58" s="215"/>
+      <c r="U58" s="215"/>
+      <c r="V58" s="215"/>
+      <c r="W58" s="215"/>
+      <c r="X58" s="215"/>
+      <c r="Y58" s="215"/>
+      <c r="Z58" s="215"/>
+      <c r="AA58" s="215"/>
+      <c r="AB58" s="215"/>
+      <c r="AC58" s="215"/>
+      <c r="AD58" s="215"/>
+      <c r="AE58" s="215"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" s="212">
+        <v>83</v>
+      </c>
+      <c r="B59" s="215"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="215"/>
+      <c r="E59" s="215"/>
+      <c r="F59" s="215"/>
+      <c r="G59" s="215"/>
+      <c r="H59" s="215"/>
+      <c r="I59" s="215"/>
+      <c r="J59" s="215"/>
+      <c r="K59" s="215"/>
+      <c r="L59" s="215"/>
+      <c r="M59" s="215"/>
+      <c r="N59" s="215"/>
+      <c r="O59" s="215"/>
+      <c r="P59" s="215"/>
+      <c r="Q59" s="215"/>
+      <c r="R59" s="215"/>
+      <c r="S59" s="215"/>
+      <c r="T59" s="215"/>
+      <c r="U59" s="215"/>
+      <c r="V59" s="215"/>
+      <c r="W59" s="215"/>
+      <c r="X59" s="215"/>
+      <c r="Y59" s="215"/>
+      <c r="Z59" s="215"/>
+      <c r="AA59" s="215"/>
+      <c r="AB59" s="215"/>
+      <c r="AC59" s="215"/>
+      <c r="AD59" s="215"/>
+      <c r="AE59" s="215"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60" s="212">
+        <v>84</v>
+      </c>
+      <c r="B60" s="215"/>
+      <c r="C60" s="215"/>
+      <c r="D60" s="215"/>
+      <c r="E60" s="215"/>
+      <c r="F60" s="215"/>
+      <c r="G60" s="215"/>
+      <c r="H60" s="215"/>
+      <c r="I60" s="215"/>
+      <c r="J60" s="215"/>
+      <c r="K60" s="215"/>
+      <c r="L60" s="215"/>
+      <c r="M60" s="215"/>
+      <c r="N60" s="215"/>
+      <c r="O60" s="215"/>
+      <c r="P60" s="215"/>
+      <c r="Q60" s="215"/>
+      <c r="R60" s="215"/>
+      <c r="S60" s="215"/>
+      <c r="T60" s="215"/>
+      <c r="U60" s="215"/>
+      <c r="V60" s="215"/>
+      <c r="W60" s="215"/>
+      <c r="X60" s="215"/>
+      <c r="Y60" s="215"/>
+      <c r="Z60" s="215"/>
+      <c r="AA60" s="215"/>
+      <c r="AB60" s="215"/>
+      <c r="AC60" s="215"/>
+      <c r="AD60" s="215"/>
+      <c r="AE60" s="215"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="212">
+        <v>85</v>
+      </c>
+      <c r="B61" s="215"/>
+      <c r="C61" s="215"/>
+      <c r="D61" s="215"/>
+      <c r="E61" s="215"/>
+      <c r="F61" s="215"/>
+      <c r="G61" s="215"/>
+      <c r="H61" s="215"/>
+      <c r="I61" s="215"/>
+      <c r="J61" s="215"/>
+      <c r="K61" s="215"/>
+      <c r="L61" s="215"/>
+      <c r="M61" s="215"/>
+      <c r="N61" s="215"/>
+      <c r="O61" s="215"/>
+      <c r="P61" s="215"/>
+      <c r="Q61" s="215"/>
+      <c r="R61" s="215"/>
+      <c r="S61" s="215"/>
+      <c r="T61" s="215"/>
+      <c r="U61" s="215"/>
+      <c r="V61" s="215"/>
+      <c r="W61" s="215"/>
+      <c r="X61" s="215"/>
+      <c r="Y61" s="215"/>
+      <c r="Z61" s="215"/>
+      <c r="AA61" s="215"/>
+      <c r="AB61" s="215"/>
+      <c r="AC61" s="215"/>
+      <c r="AD61" s="215"/>
+      <c r="AE61" s="215"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="213"/>
+      <c r="B62" s="215"/>
+      <c r="C62" s="215"/>
+      <c r="D62" s="215"/>
+      <c r="E62" s="215"/>
+      <c r="F62" s="215"/>
+      <c r="G62" s="215"/>
+      <c r="H62" s="215"/>
+      <c r="I62" s="215"/>
+      <c r="J62" s="215"/>
+      <c r="K62" s="215"/>
+      <c r="L62" s="215"/>
+      <c r="M62" s="215"/>
+      <c r="N62" s="215"/>
+      <c r="O62" s="215"/>
+      <c r="P62" s="215"/>
+      <c r="Q62" s="215"/>
+      <c r="R62" s="215"/>
+      <c r="S62" s="215"/>
+      <c r="T62" s="215"/>
+      <c r="U62" s="215"/>
+      <c r="V62" s="215"/>
+      <c r="W62" s="215"/>
+      <c r="X62" s="215"/>
+      <c r="Y62" s="215"/>
+      <c r="Z62" s="215"/>
+      <c r="AA62" s="215"/>
+      <c r="AB62" s="215"/>
+      <c r="AC62" s="215"/>
+      <c r="AD62" s="215"/>
+      <c r="AE62" s="215"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" s="139"/>
+      <c r="B63" s="215"/>
+      <c r="C63" s="215"/>
+      <c r="D63" s="215"/>
+      <c r="E63" s="215"/>
+      <c r="F63" s="215"/>
+      <c r="G63" s="215"/>
+      <c r="H63" s="215"/>
+      <c r="I63" s="215"/>
+      <c r="J63" s="215"/>
+      <c r="K63" s="215"/>
+      <c r="L63" s="215"/>
+      <c r="M63" s="215"/>
+      <c r="N63" s="215"/>
+      <c r="O63" s="215"/>
+      <c r="P63" s="215"/>
+      <c r="Q63" s="215"/>
+      <c r="R63" s="215"/>
+      <c r="S63" s="215"/>
+      <c r="T63" s="215"/>
+      <c r="U63" s="215"/>
+      <c r="V63" s="215"/>
+      <c r="W63" s="215"/>
+      <c r="X63" s="215"/>
+      <c r="Y63" s="215"/>
+      <c r="Z63" s="215"/>
+      <c r="AA63" s="215"/>
+      <c r="AB63" s="215"/>
+      <c r="AC63" s="215"/>
+      <c r="AD63" s="215"/>
+      <c r="AE63" s="215"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" s="196">
+        <v>90</v>
+      </c>
+      <c r="B64" s="215"/>
+      <c r="C64" s="215"/>
+      <c r="D64" s="215"/>
+      <c r="E64" s="215"/>
+      <c r="F64" s="215"/>
+      <c r="G64" s="215"/>
+      <c r="H64" s="215"/>
+      <c r="I64" s="215"/>
+      <c r="J64" s="215"/>
+      <c r="K64" s="215"/>
+      <c r="L64" s="215"/>
+      <c r="M64" s="215"/>
+      <c r="N64" s="215"/>
+      <c r="O64" s="215"/>
+      <c r="P64" s="215"/>
+      <c r="Q64" s="215"/>
+      <c r="R64" s="215"/>
+      <c r="S64" s="215"/>
+      <c r="T64" s="215"/>
+      <c r="U64" s="215"/>
+      <c r="V64" s="215"/>
+      <c r="W64" s="215"/>
+      <c r="X64" s="215"/>
+      <c r="Y64" s="215"/>
+      <c r="Z64" s="215"/>
+      <c r="AA64" s="215"/>
+      <c r="AB64" s="215"/>
+      <c r="AC64" s="215"/>
+      <c r="AD64" s="215"/>
+      <c r="AE64" s="215"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65" s="196">
+        <v>91</v>
+      </c>
+      <c r="B65" s="215"/>
+      <c r="C65" s="215"/>
+      <c r="D65" s="215"/>
+      <c r="E65" s="215"/>
+      <c r="F65" s="215"/>
+      <c r="G65" s="215"/>
+      <c r="H65" s="215"/>
+      <c r="I65" s="215"/>
+      <c r="J65" s="215"/>
+      <c r="K65" s="215"/>
+      <c r="L65" s="215"/>
+      <c r="M65" s="215"/>
+      <c r="N65" s="215"/>
+      <c r="O65" s="215"/>
+      <c r="P65" s="215"/>
+      <c r="Q65" s="215"/>
+      <c r="R65" s="215"/>
+      <c r="S65" s="215"/>
+      <c r="T65" s="215"/>
+      <c r="U65" s="215"/>
+      <c r="V65" s="215"/>
+      <c r="W65" s="215"/>
+      <c r="X65" s="215"/>
+      <c r="Y65" s="215"/>
+      <c r="Z65" s="215"/>
+      <c r="AA65" s="215"/>
+      <c r="AB65" s="215"/>
+      <c r="AC65" s="215"/>
+      <c r="AD65" s="215"/>
+      <c r="AE65" s="215"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A66" s="196">
+        <v>92</v>
+      </c>
+      <c r="B66" s="215"/>
+      <c r="C66" s="215"/>
+      <c r="D66" s="215"/>
+      <c r="E66" s="215"/>
+      <c r="F66" s="215"/>
+      <c r="G66" s="215"/>
+      <c r="H66" s="215"/>
+      <c r="I66" s="215"/>
+      <c r="J66" s="215"/>
+      <c r="K66" s="215"/>
+      <c r="L66" s="215"/>
+      <c r="M66" s="215"/>
+      <c r="N66" s="215"/>
+      <c r="O66" s="215"/>
+      <c r="P66" s="215"/>
+      <c r="Q66" s="215"/>
+      <c r="R66" s="215"/>
+      <c r="S66" s="215"/>
+      <c r="T66" s="215"/>
+      <c r="U66" s="215"/>
+      <c r="V66" s="215"/>
+      <c r="W66" s="215"/>
+      <c r="X66" s="215"/>
+      <c r="Y66" s="215"/>
+      <c r="Z66" s="215"/>
+      <c r="AA66" s="215"/>
+      <c r="AB66" s="215"/>
+      <c r="AC66" s="215"/>
+      <c r="AD66" s="215"/>
+      <c r="AE66" s="215"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A67" s="196">
+        <v>93</v>
+      </c>
+      <c r="B67" s="215"/>
+      <c r="C67" s="215"/>
+      <c r="D67" s="215"/>
+      <c r="E67" s="215"/>
+      <c r="F67" s="215"/>
+      <c r="G67" s="215"/>
+      <c r="H67" s="215"/>
+      <c r="I67" s="215"/>
+      <c r="J67" s="215"/>
+      <c r="K67" s="215"/>
+      <c r="L67" s="215"/>
+      <c r="M67" s="215"/>
+      <c r="N67" s="215"/>
+      <c r="O67" s="215"/>
+      <c r="P67" s="215"/>
+      <c r="Q67" s="215"/>
+      <c r="R67" s="215"/>
+      <c r="S67" s="215"/>
+      <c r="T67" s="215"/>
+      <c r="U67" s="215"/>
+      <c r="V67" s="215"/>
+      <c r="W67" s="215"/>
+      <c r="X67" s="215"/>
+      <c r="Y67" s="215"/>
+      <c r="Z67" s="215"/>
+      <c r="AA67" s="215"/>
+      <c r="AB67" s="215"/>
+      <c r="AC67" s="215"/>
+      <c r="AD67" s="215"/>
+      <c r="AE67" s="215"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A68" s="196">
+        <v>94</v>
+      </c>
+      <c r="B68" s="215"/>
+      <c r="C68" s="215"/>
+      <c r="D68" s="215"/>
+      <c r="E68" s="215"/>
+      <c r="F68" s="215"/>
+      <c r="G68" s="215"/>
+      <c r="H68" s="215"/>
+      <c r="I68" s="215"/>
+      <c r="J68" s="215"/>
+      <c r="K68" s="215"/>
+      <c r="L68" s="215"/>
+      <c r="M68" s="215"/>
+      <c r="N68" s="215"/>
+      <c r="O68" s="215"/>
+      <c r="P68" s="215"/>
+      <c r="Q68" s="215"/>
+      <c r="R68" s="215"/>
+      <c r="S68" s="215"/>
+      <c r="T68" s="215"/>
+      <c r="U68" s="215"/>
+      <c r="V68" s="215"/>
+      <c r="W68" s="215"/>
+      <c r="X68" s="215"/>
+      <c r="Y68" s="215"/>
+      <c r="Z68" s="215"/>
+      <c r="AA68" s="215"/>
+      <c r="AB68" s="215"/>
+      <c r="AC68" s="215"/>
+      <c r="AD68" s="215"/>
+      <c r="AE68" s="215"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A69" s="196">
+        <v>95</v>
+      </c>
+      <c r="B69" s="215"/>
+      <c r="C69" s="215"/>
+      <c r="D69" s="215"/>
+      <c r="E69" s="215"/>
+      <c r="F69" s="215"/>
+      <c r="G69" s="215"/>
+      <c r="H69" s="215"/>
+      <c r="I69" s="215"/>
+      <c r="J69" s="215"/>
+      <c r="K69" s="215"/>
+      <c r="L69" s="215"/>
+      <c r="M69" s="215"/>
+      <c r="N69" s="215"/>
+      <c r="O69" s="215"/>
+      <c r="P69" s="215"/>
+      <c r="Q69" s="215"/>
+      <c r="R69" s="215"/>
+      <c r="S69" s="215"/>
+      <c r="T69" s="215"/>
+      <c r="U69" s="215"/>
+      <c r="V69" s="215"/>
+      <c r="W69" s="215"/>
+      <c r="X69" s="215"/>
+      <c r="Y69" s="215"/>
+      <c r="Z69" s="215"/>
+      <c r="AA69" s="215"/>
+      <c r="AB69" s="215"/>
+      <c r="AC69" s="215"/>
+      <c r="AD69" s="215"/>
+      <c r="AE69" s="215"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70" s="196">
+        <v>96</v>
+      </c>
+      <c r="B70" s="215"/>
+      <c r="C70" s="215"/>
+      <c r="D70" s="215"/>
+      <c r="E70" s="215"/>
+      <c r="F70" s="215"/>
+      <c r="G70" s="215"/>
+      <c r="H70" s="215"/>
+      <c r="I70" s="215"/>
+      <c r="J70" s="215"/>
+      <c r="K70" s="215"/>
+      <c r="L70" s="215"/>
+      <c r="M70" s="215"/>
+      <c r="N70" s="215"/>
+      <c r="O70" s="215"/>
+      <c r="P70" s="215"/>
+      <c r="Q70" s="215"/>
+      <c r="R70" s="215"/>
+      <c r="S70" s="215"/>
+      <c r="T70" s="215"/>
+      <c r="U70" s="215"/>
+      <c r="V70" s="215"/>
+      <c r="W70" s="215"/>
+      <c r="X70" s="215"/>
+      <c r="Y70" s="215"/>
+      <c r="Z70" s="215"/>
+      <c r="AA70" s="215"/>
+      <c r="AB70" s="215"/>
+      <c r="AC70" s="215"/>
+      <c r="AD70" s="215"/>
+      <c r="AE70" s="215"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" s="196">
+        <v>97</v>
+      </c>
+      <c r="B71" s="215"/>
+      <c r="C71" s="215"/>
+      <c r="D71" s="215"/>
+      <c r="E71" s="215"/>
+      <c r="F71" s="215"/>
+      <c r="G71" s="215"/>
+      <c r="H71" s="215"/>
+      <c r="I71" s="215"/>
+      <c r="J71" s="215"/>
+      <c r="K71" s="215"/>
+      <c r="L71" s="215"/>
+      <c r="M71" s="215"/>
+      <c r="N71" s="215"/>
+      <c r="O71" s="215"/>
+      <c r="P71" s="215"/>
+      <c r="Q71" s="215"/>
+      <c r="R71" s="215"/>
+      <c r="S71" s="215"/>
+      <c r="T71" s="215"/>
+      <c r="U71" s="215"/>
+      <c r="V71" s="215"/>
+      <c r="W71" s="215"/>
+      <c r="X71" s="215"/>
+      <c r="Y71" s="215"/>
+      <c r="Z71" s="215"/>
+      <c r="AA71" s="215"/>
+      <c r="AB71" s="215"/>
+      <c r="AC71" s="215"/>
+      <c r="AD71" s="215"/>
+      <c r="AE71" s="215"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72" s="212">
+        <v>98</v>
+      </c>
+      <c r="B72" s="215"/>
+      <c r="C72" s="215"/>
+      <c r="D72" s="215"/>
+      <c r="E72" s="215"/>
+      <c r="F72" s="215"/>
+      <c r="G72" s="215"/>
+      <c r="H72" s="215"/>
+      <c r="I72" s="215"/>
+      <c r="J72" s="215"/>
+      <c r="K72" s="215"/>
+      <c r="L72" s="215"/>
+      <c r="M72" s="215"/>
+      <c r="N72" s="215"/>
+      <c r="O72" s="215"/>
+      <c r="P72" s="215"/>
+      <c r="Q72" s="215"/>
+      <c r="R72" s="215"/>
+      <c r="S72" s="215"/>
+      <c r="T72" s="215"/>
+      <c r="U72" s="215"/>
+      <c r="V72" s="215"/>
+      <c r="W72" s="215"/>
+      <c r="X72" s="215"/>
+      <c r="Y72" s="215"/>
+      <c r="Z72" s="215"/>
+      <c r="AA72" s="215"/>
+      <c r="AB72" s="215"/>
+      <c r="AC72" s="215"/>
+      <c r="AD72" s="215"/>
+      <c r="AE72" s="215"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A73" s="212">
+        <v>99</v>
+      </c>
+      <c r="B73" s="215"/>
+      <c r="C73" s="215"/>
+      <c r="D73" s="215"/>
+      <c r="E73" s="215"/>
+      <c r="F73" s="215"/>
+      <c r="G73" s="215"/>
+      <c r="H73" s="215"/>
+      <c r="I73" s="215"/>
+      <c r="J73" s="215"/>
+      <c r="K73" s="215"/>
+      <c r="L73" s="215"/>
+      <c r="M73" s="215"/>
+      <c r="N73" s="215"/>
+      <c r="O73" s="215"/>
+      <c r="P73" s="215"/>
+      <c r="Q73" s="215"/>
+      <c r="R73" s="215"/>
+      <c r="S73" s="215"/>
+      <c r="T73" s="215"/>
+      <c r="U73" s="215"/>
+      <c r="V73" s="215"/>
+      <c r="W73" s="215"/>
+      <c r="X73" s="215"/>
+      <c r="Y73" s="215"/>
+      <c r="Z73" s="215"/>
+      <c r="AA73" s="215"/>
+      <c r="AB73" s="215"/>
+      <c r="AC73" s="215"/>
+      <c r="AD73" s="215"/>
+      <c r="AE73" s="215"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74" s="212">
+        <v>100</v>
+      </c>
+      <c r="B74" s="215"/>
+      <c r="C74" s="215"/>
+      <c r="D74" s="215"/>
+      <c r="E74" s="215"/>
+      <c r="F74" s="215"/>
+      <c r="G74" s="215"/>
+      <c r="H74" s="215"/>
+      <c r="I74" s="215"/>
+      <c r="J74" s="215"/>
+      <c r="K74" s="215"/>
+      <c r="L74" s="215"/>
+      <c r="M74" s="215"/>
+      <c r="N74" s="215"/>
+      <c r="O74" s="215"/>
+      <c r="P74" s="215"/>
+      <c r="Q74" s="215"/>
+      <c r="R74" s="215"/>
+      <c r="S74" s="215"/>
+      <c r="T74" s="215"/>
+      <c r="U74" s="215"/>
+      <c r="V74" s="215"/>
+      <c r="W74" s="215"/>
+      <c r="X74" s="215"/>
+      <c r="Y74" s="215"/>
+      <c r="Z74" s="215"/>
+      <c r="AA74" s="215"/>
+      <c r="AB74" s="215"/>
+      <c r="AC74" s="215"/>
+      <c r="AD74" s="215"/>
+      <c r="AE74" s="215"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A75" s="212">
+        <v>101</v>
+      </c>
+      <c r="B75" s="215"/>
+      <c r="C75" s="215"/>
+      <c r="D75" s="215"/>
+      <c r="E75" s="215"/>
+      <c r="F75" s="215"/>
+      <c r="G75" s="215"/>
+      <c r="H75" s="215"/>
+      <c r="I75" s="215"/>
+      <c r="J75" s="215"/>
+      <c r="K75" s="215"/>
+      <c r="L75" s="215"/>
+      <c r="M75" s="215"/>
+      <c r="N75" s="215"/>
+      <c r="O75" s="215"/>
+      <c r="P75" s="215"/>
+      <c r="Q75" s="215"/>
+      <c r="R75" s="215"/>
+      <c r="S75" s="215"/>
+      <c r="T75" s="215"/>
+      <c r="U75" s="215"/>
+      <c r="V75" s="215"/>
+      <c r="W75" s="215"/>
+      <c r="X75" s="215"/>
+      <c r="Y75" s="215"/>
+      <c r="Z75" s="215"/>
+      <c r="AA75" s="215"/>
+      <c r="AB75" s="215"/>
+      <c r="AC75" s="215"/>
+      <c r="AD75" s="215"/>
+      <c r="AE75" s="215"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A76" s="212">
+        <v>102</v>
+      </c>
+      <c r="B76" s="215"/>
+      <c r="C76" s="215"/>
+      <c r="D76" s="215"/>
+      <c r="E76" s="215"/>
+      <c r="F76" s="215"/>
+      <c r="G76" s="215"/>
+      <c r="H76" s="215"/>
+      <c r="I76" s="215"/>
+      <c r="J76" s="215"/>
+      <c r="K76" s="215"/>
+      <c r="L76" s="215"/>
+      <c r="M76" s="215"/>
+      <c r="N76" s="215"/>
+      <c r="O76" s="215"/>
+      <c r="P76" s="215"/>
+      <c r="Q76" s="215"/>
+      <c r="R76" s="215"/>
+      <c r="S76" s="215"/>
+      <c r="T76" s="215"/>
+      <c r="U76" s="215"/>
+      <c r="V76" s="215"/>
+      <c r="W76" s="215"/>
+      <c r="X76" s="215"/>
+      <c r="Y76" s="215"/>
+      <c r="Z76" s="215"/>
+      <c r="AA76" s="215"/>
+      <c r="AB76" s="215"/>
+      <c r="AC76" s="215"/>
+      <c r="AD76" s="215"/>
+      <c r="AE76" s="215"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A77" s="212">
+        <v>103</v>
+      </c>
+      <c r="B77" s="215"/>
+      <c r="C77" s="215"/>
+      <c r="D77" s="215"/>
+      <c r="E77" s="215"/>
+      <c r="F77" s="215"/>
+      <c r="G77" s="215"/>
+      <c r="H77" s="215"/>
+      <c r="I77" s="215"/>
+      <c r="J77" s="215"/>
+      <c r="K77" s="215"/>
+      <c r="L77" s="215"/>
+      <c r="M77" s="215"/>
+      <c r="N77" s="215"/>
+      <c r="O77" s="215"/>
+      <c r="P77" s="215"/>
+      <c r="Q77" s="215"/>
+      <c r="R77" s="215"/>
+      <c r="S77" s="215"/>
+      <c r="T77" s="215"/>
+      <c r="U77" s="215"/>
+      <c r="V77" s="215"/>
+      <c r="W77" s="215"/>
+      <c r="X77" s="215"/>
+      <c r="Y77" s="215"/>
+      <c r="Z77" s="215"/>
+      <c r="AA77" s="215"/>
+      <c r="AB77" s="215"/>
+      <c r="AC77" s="215"/>
+      <c r="AD77" s="215"/>
+      <c r="AE77" s="215"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A78" s="212">
+        <v>104</v>
+      </c>
+      <c r="B78" s="215"/>
+      <c r="C78" s="215"/>
+      <c r="D78" s="215"/>
+      <c r="E78" s="215"/>
+      <c r="F78" s="215"/>
+      <c r="G78" s="215"/>
+      <c r="H78" s="215"/>
+      <c r="I78" s="215"/>
+      <c r="J78" s="215"/>
+      <c r="K78" s="215"/>
+      <c r="L78" s="215"/>
+      <c r="M78" s="215"/>
+      <c r="N78" s="215"/>
+      <c r="O78" s="215"/>
+      <c r="P78" s="215"/>
+      <c r="Q78" s="215"/>
+      <c r="R78" s="215"/>
+      <c r="S78" s="215"/>
+      <c r="T78" s="215"/>
+      <c r="U78" s="215"/>
+      <c r="V78" s="215"/>
+      <c r="W78" s="215"/>
+      <c r="X78" s="215"/>
+      <c r="Y78" s="215"/>
+      <c r="Z78" s="215"/>
+      <c r="AA78" s="215"/>
+      <c r="AB78" s="215"/>
+      <c r="AC78" s="215"/>
+      <c r="AD78" s="215"/>
+      <c r="AE78" s="215"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A79" s="212">
+        <v>105</v>
+      </c>
+      <c r="B79" s="215"/>
+      <c r="C79" s="215"/>
+      <c r="D79" s="215"/>
+      <c r="E79" s="215"/>
+      <c r="F79" s="215"/>
+      <c r="G79" s="215"/>
+      <c r="H79" s="215"/>
+      <c r="I79" s="215"/>
+      <c r="J79" s="215"/>
+      <c r="K79" s="215"/>
+      <c r="L79" s="215"/>
+      <c r="M79" s="215"/>
+      <c r="N79" s="215"/>
+      <c r="O79" s="215"/>
+      <c r="P79" s="215"/>
+      <c r="Q79" s="215"/>
+      <c r="R79" s="215"/>
+      <c r="S79" s="215"/>
+      <c r="T79" s="215"/>
+      <c r="U79" s="215"/>
+      <c r="V79" s="215"/>
+      <c r="W79" s="215"/>
+      <c r="X79" s="215"/>
+      <c r="Y79" s="215"/>
+      <c r="Z79" s="215"/>
+      <c r="AA79" s="215"/>
+      <c r="AB79" s="215"/>
+      <c r="AC79" s="215"/>
+      <c r="AD79" s="215"/>
+      <c r="AE79" s="215"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A80" s="213"/>
+      <c r="B80" s="215"/>
+      <c r="C80" s="215"/>
+      <c r="D80" s="215"/>
+      <c r="E80" s="215"/>
+      <c r="F80" s="215"/>
+      <c r="G80" s="215"/>
+      <c r="H80" s="215"/>
+      <c r="I80" s="215"/>
+      <c r="J80" s="215"/>
+      <c r="K80" s="215"/>
+      <c r="L80" s="215"/>
+      <c r="M80" s="215"/>
+      <c r="N80" s="215"/>
+      <c r="O80" s="215"/>
+      <c r="P80" s="215"/>
+      <c r="Q80" s="215"/>
+      <c r="R80" s="215"/>
+      <c r="S80" s="215"/>
+      <c r="T80" s="215"/>
+      <c r="U80" s="215"/>
+      <c r="V80" s="215"/>
+      <c r="W80" s="215"/>
+      <c r="X80" s="215"/>
+      <c r="Y80" s="215"/>
+      <c r="Z80" s="215"/>
+      <c r="AA80" s="215"/>
+      <c r="AB80" s="215"/>
+      <c r="AC80" s="215"/>
+      <c r="AD80" s="215"/>
+      <c r="AE80" s="215"/>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A81" s="139"/>
+      <c r="B81" s="215"/>
+      <c r="C81" s="215"/>
+      <c r="D81" s="215"/>
+      <c r="E81" s="215"/>
+      <c r="F81" s="215"/>
+      <c r="G81" s="215"/>
+      <c r="H81" s="215"/>
+      <c r="I81" s="215"/>
+      <c r="J81" s="215"/>
+      <c r="K81" s="215"/>
+      <c r="L81" s="215"/>
+      <c r="M81" s="215"/>
+      <c r="N81" s="215"/>
+      <c r="O81" s="215"/>
+      <c r="P81" s="215"/>
+      <c r="Q81" s="215"/>
+      <c r="R81" s="215"/>
+      <c r="S81" s="215"/>
+      <c r="T81" s="215"/>
+      <c r="U81" s="215"/>
+      <c r="V81" s="215"/>
+      <c r="W81" s="215"/>
+      <c r="X81" s="215"/>
+      <c r="Y81" s="215"/>
+      <c r="Z81" s="215"/>
+      <c r="AA81" s="215"/>
+      <c r="AB81" s="215"/>
+      <c r="AC81" s="215"/>
+      <c r="AD81" s="215"/>
+      <c r="AE81" s="215"/>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A82" s="196">
+        <v>110</v>
+      </c>
+      <c r="B82" s="215"/>
+      <c r="C82" s="215"/>
+      <c r="D82" s="215"/>
+      <c r="E82" s="215"/>
+      <c r="F82" s="215"/>
+      <c r="G82" s="215"/>
+      <c r="H82" s="215"/>
+      <c r="I82" s="215"/>
+      <c r="J82" s="215"/>
+      <c r="K82" s="215"/>
+      <c r="L82" s="215"/>
+      <c r="M82" s="215"/>
+      <c r="N82" s="215"/>
+      <c r="O82" s="215"/>
+      <c r="P82" s="215"/>
+      <c r="Q82" s="215"/>
+      <c r="R82" s="215"/>
+      <c r="S82" s="215"/>
+      <c r="T82" s="215"/>
+      <c r="U82" s="215"/>
+      <c r="V82" s="215"/>
+      <c r="W82" s="215"/>
+      <c r="X82" s="215"/>
+      <c r="Y82" s="215"/>
+      <c r="Z82" s="215"/>
+      <c r="AA82" s="215"/>
+      <c r="AB82" s="215"/>
+      <c r="AC82" s="215"/>
+      <c r="AD82" s="215"/>
+      <c r="AE82" s="215"/>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A83" s="196">
+        <v>111</v>
+      </c>
+      <c r="B83" s="215"/>
+      <c r="C83" s="215"/>
+      <c r="D83" s="215"/>
+      <c r="E83" s="215"/>
+      <c r="F83" s="215"/>
+      <c r="G83" s="215"/>
+      <c r="H83" s="215"/>
+      <c r="I83" s="215"/>
+      <c r="J83" s="215"/>
+      <c r="K83" s="215"/>
+      <c r="L83" s="215"/>
+      <c r="M83" s="215"/>
+      <c r="N83" s="215"/>
+      <c r="O83" s="215"/>
+      <c r="P83" s="215"/>
+      <c r="Q83" s="215"/>
+      <c r="R83" s="215"/>
+      <c r="S83" s="215"/>
+      <c r="T83" s="215"/>
+      <c r="U83" s="215"/>
+      <c r="V83" s="215"/>
+      <c r="W83" s="215"/>
+      <c r="X83" s="215"/>
+      <c r="Y83" s="215"/>
+      <c r="Z83" s="215"/>
+      <c r="AA83" s="215"/>
+      <c r="AB83" s="215"/>
+      <c r="AC83" s="215"/>
+      <c r="AD83" s="215"/>
+      <c r="AE83" s="215"/>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A84" s="196">
+        <v>112</v>
+      </c>
+      <c r="B84" s="215"/>
+      <c r="C84" s="215"/>
+      <c r="D84" s="215"/>
+      <c r="E84" s="215"/>
+      <c r="F84" s="215"/>
+      <c r="G84" s="215"/>
+      <c r="H84" s="215"/>
+      <c r="I84" s="215"/>
+      <c r="J84" s="215"/>
+      <c r="K84" s="215"/>
+      <c r="L84" s="215"/>
+      <c r="M84" s="215"/>
+      <c r="N84" s="215"/>
+      <c r="O84" s="215"/>
+      <c r="P84" s="215"/>
+      <c r="Q84" s="215"/>
+      <c r="R84" s="215"/>
+      <c r="S84" s="215"/>
+      <c r="T84" s="215"/>
+      <c r="U84" s="215"/>
+      <c r="V84" s="215"/>
+      <c r="W84" s="215"/>
+      <c r="X84" s="215"/>
+      <c r="Y84" s="215"/>
+      <c r="Z84" s="215"/>
+      <c r="AA84" s="215"/>
+      <c r="AB84" s="215"/>
+      <c r="AC84" s="215"/>
+      <c r="AD84" s="215"/>
+      <c r="AE84" s="215"/>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A85" s="196">
+        <v>113</v>
+      </c>
+      <c r="B85" s="215"/>
+      <c r="C85" s="215"/>
+      <c r="D85" s="215"/>
+      <c r="E85" s="215"/>
+      <c r="F85" s="215"/>
+      <c r="G85" s="215"/>
+      <c r="H85" s="215"/>
+      <c r="I85" s="215"/>
+      <c r="J85" s="215"/>
+      <c r="K85" s="215"/>
+      <c r="L85" s="215"/>
+      <c r="M85" s="215"/>
+      <c r="N85" s="215"/>
+      <c r="O85" s="215"/>
+      <c r="P85" s="215"/>
+      <c r="Q85" s="215"/>
+      <c r="R85" s="215"/>
+      <c r="S85" s="215"/>
+      <c r="T85" s="215"/>
+      <c r="U85" s="215"/>
+      <c r="V85" s="215"/>
+      <c r="W85" s="215"/>
+      <c r="X85" s="215"/>
+      <c r="Y85" s="215"/>
+      <c r="Z85" s="215"/>
+      <c r="AA85" s="215"/>
+      <c r="AB85" s="215"/>
+      <c r="AC85" s="215"/>
+      <c r="AD85" s="215"/>
+      <c r="AE85" s="215"/>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A86" s="196">
+        <v>114</v>
+      </c>
+      <c r="B86" s="215"/>
+      <c r="C86" s="215"/>
+      <c r="D86" s="215"/>
+      <c r="E86" s="215"/>
+      <c r="F86" s="215"/>
+      <c r="G86" s="215"/>
+      <c r="H86" s="215"/>
+      <c r="I86" s="215"/>
+      <c r="J86" s="215"/>
+      <c r="K86" s="215"/>
+      <c r="L86" s="215"/>
+      <c r="M86" s="215"/>
+      <c r="N86" s="215"/>
+      <c r="O86" s="215"/>
+      <c r="P86" s="215"/>
+      <c r="Q86" s="215"/>
+      <c r="R86" s="215"/>
+      <c r="S86" s="215"/>
+      <c r="T86" s="215"/>
+      <c r="U86" s="215"/>
+      <c r="V86" s="215"/>
+      <c r="W86" s="215"/>
+      <c r="X86" s="215"/>
+      <c r="Y86" s="215"/>
+      <c r="Z86" s="215"/>
+      <c r="AA86" s="215"/>
+      <c r="AB86" s="215"/>
+      <c r="AC86" s="215"/>
+      <c r="AD86" s="215"/>
+      <c r="AE86" s="215"/>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A87" s="196">
+        <v>115</v>
+      </c>
+      <c r="B87" s="215"/>
+      <c r="C87" s="215"/>
+      <c r="D87" s="215"/>
+      <c r="E87" s="215"/>
+      <c r="F87" s="215"/>
+      <c r="G87" s="215"/>
+      <c r="H87" s="215"/>
+      <c r="I87" s="215"/>
+      <c r="J87" s="215"/>
+      <c r="K87" s="215"/>
+      <c r="L87" s="215"/>
+      <c r="M87" s="215"/>
+      <c r="N87" s="215"/>
+      <c r="O87" s="215"/>
+      <c r="P87" s="215"/>
+      <c r="Q87" s="215"/>
+      <c r="R87" s="215"/>
+      <c r="S87" s="215"/>
+      <c r="T87" s="215"/>
+      <c r="U87" s="215"/>
+      <c r="V87" s="215"/>
+      <c r="W87" s="215"/>
+      <c r="X87" s="215"/>
+      <c r="Y87" s="215"/>
+      <c r="Z87" s="215"/>
+      <c r="AA87" s="215"/>
+      <c r="AB87" s="215"/>
+      <c r="AC87" s="215"/>
+      <c r="AD87" s="215"/>
+      <c r="AE87" s="215"/>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A88" s="196">
+        <v>116</v>
+      </c>
+      <c r="B88" s="215"/>
+      <c r="C88" s="215"/>
+      <c r="D88" s="215"/>
+      <c r="E88" s="215"/>
+      <c r="F88" s="215"/>
+      <c r="G88" s="215"/>
+      <c r="H88" s="215"/>
+      <c r="I88" s="215"/>
+      <c r="J88" s="215"/>
+      <c r="K88" s="215"/>
+      <c r="L88" s="215"/>
+      <c r="M88" s="215"/>
+      <c r="N88" s="215"/>
+      <c r="O88" s="215"/>
+      <c r="P88" s="215"/>
+      <c r="Q88" s="215"/>
+      <c r="R88" s="215"/>
+      <c r="S88" s="215"/>
+      <c r="T88" s="215"/>
+      <c r="U88" s="215"/>
+      <c r="V88" s="215"/>
+      <c r="W88" s="215"/>
+      <c r="X88" s="215"/>
+      <c r="Y88" s="215"/>
+      <c r="Z88" s="215"/>
+      <c r="AA88" s="215"/>
+      <c r="AB88" s="215"/>
+      <c r="AC88" s="215"/>
+      <c r="AD88" s="215"/>
+      <c r="AE88" s="215"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A89" s="196">
+        <v>117</v>
+      </c>
+      <c r="B89" s="215"/>
+      <c r="C89" s="215"/>
+      <c r="D89" s="215"/>
+      <c r="E89" s="215"/>
+      <c r="F89" s="215"/>
+      <c r="G89" s="215"/>
+      <c r="H89" s="215"/>
+      <c r="I89" s="215"/>
+      <c r="J89" s="215"/>
+      <c r="K89" s="215"/>
+      <c r="L89" s="215"/>
+      <c r="M89" s="215"/>
+      <c r="N89" s="215"/>
+      <c r="O89" s="215"/>
+      <c r="P89" s="215"/>
+      <c r="Q89" s="215"/>
+      <c r="R89" s="215"/>
+      <c r="S89" s="215"/>
+      <c r="T89" s="215"/>
+      <c r="U89" s="215"/>
+      <c r="V89" s="215"/>
+      <c r="W89" s="215"/>
+      <c r="X89" s="215"/>
+      <c r="Y89" s="215"/>
+      <c r="Z89" s="215"/>
+      <c r="AA89" s="215"/>
+      <c r="AB89" s="215"/>
+      <c r="AC89" s="215"/>
+      <c r="AD89" s="215"/>
+      <c r="AE89" s="215"/>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A90" s="212">
+        <v>118</v>
+      </c>
+      <c r="B90" s="215"/>
+      <c r="C90" s="215"/>
+      <c r="D90" s="215"/>
+      <c r="E90" s="215"/>
+      <c r="F90" s="215"/>
+      <c r="G90" s="215"/>
+      <c r="H90" s="215"/>
+      <c r="I90" s="215"/>
+      <c r="J90" s="215"/>
+      <c r="K90" s="215"/>
+      <c r="L90" s="215"/>
+      <c r="M90" s="215"/>
+      <c r="N90" s="215"/>
+      <c r="O90" s="215"/>
+      <c r="P90" s="215"/>
+      <c r="Q90" s="215"/>
+      <c r="R90" s="215"/>
+      <c r="S90" s="215"/>
+      <c r="T90" s="215"/>
+      <c r="U90" s="215"/>
+      <c r="V90" s="215"/>
+      <c r="W90" s="215"/>
+      <c r="X90" s="215"/>
+      <c r="Y90" s="215"/>
+      <c r="Z90" s="215"/>
+      <c r="AA90" s="215"/>
+      <c r="AB90" s="215"/>
+      <c r="AC90" s="215"/>
+      <c r="AD90" s="215"/>
+      <c r="AE90" s="215"/>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A91" s="212">
+        <v>119</v>
+      </c>
+      <c r="B91" s="215"/>
+      <c r="C91" s="215"/>
+      <c r="D91" s="215"/>
+      <c r="E91" s="215"/>
+      <c r="F91" s="215"/>
+      <c r="G91" s="215"/>
+      <c r="H91" s="215"/>
+      <c r="I91" s="215"/>
+      <c r="J91" s="215"/>
+      <c r="K91" s="215"/>
+      <c r="L91" s="215"/>
+      <c r="M91" s="215"/>
+      <c r="N91" s="215"/>
+      <c r="O91" s="215"/>
+      <c r="P91" s="215"/>
+      <c r="Q91" s="215"/>
+      <c r="R91" s="215"/>
+      <c r="S91" s="215"/>
+      <c r="T91" s="215"/>
+      <c r="U91" s="215"/>
+      <c r="V91" s="215"/>
+      <c r="W91" s="215"/>
+      <c r="X91" s="215"/>
+      <c r="Y91" s="215"/>
+      <c r="Z91" s="215"/>
+      <c r="AA91" s="215"/>
+      <c r="AB91" s="215"/>
+      <c r="AC91" s="215"/>
+      <c r="AD91" s="215"/>
+      <c r="AE91" s="215"/>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A92" s="212">
+        <v>120</v>
+      </c>
+      <c r="B92" s="215"/>
+      <c r="C92" s="215"/>
+      <c r="D92" s="215"/>
+      <c r="E92" s="215"/>
+      <c r="F92" s="215"/>
+      <c r="G92" s="215"/>
+      <c r="H92" s="215"/>
+      <c r="I92" s="215"/>
+      <c r="J92" s="215"/>
+      <c r="K92" s="215"/>
+      <c r="L92" s="215"/>
+      <c r="M92" s="215"/>
+      <c r="N92" s="215"/>
+      <c r="O92" s="215"/>
+      <c r="P92" s="215"/>
+      <c r="Q92" s="215"/>
+      <c r="R92" s="215"/>
+      <c r="S92" s="215"/>
+      <c r="T92" s="215"/>
+      <c r="U92" s="215"/>
+      <c r="V92" s="215"/>
+      <c r="W92" s="215"/>
+      <c r="X92" s="215"/>
+      <c r="Y92" s="215"/>
+      <c r="Z92" s="215"/>
+      <c r="AA92" s="215"/>
+      <c r="AB92" s="215"/>
+      <c r="AC92" s="215"/>
+      <c r="AD92" s="215"/>
+      <c r="AE92" s="215"/>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A93" s="212">
+        <v>121</v>
+      </c>
+      <c r="B93" s="215"/>
+      <c r="C93" s="215"/>
+      <c r="D93" s="215"/>
+      <c r="E93" s="215"/>
+      <c r="F93" s="215"/>
+      <c r="G93" s="215"/>
+      <c r="H93" s="215"/>
+      <c r="I93" s="215"/>
+      <c r="J93" s="215"/>
+      <c r="K93" s="215"/>
+      <c r="L93" s="215"/>
+      <c r="M93" s="215"/>
+      <c r="N93" s="215"/>
+      <c r="O93" s="215"/>
+      <c r="P93" s="215"/>
+      <c r="Q93" s="215"/>
+      <c r="R93" s="215"/>
+      <c r="S93" s="215"/>
+      <c r="T93" s="215"/>
+      <c r="U93" s="215"/>
+      <c r="V93" s="215"/>
+      <c r="W93" s="215"/>
+      <c r="X93" s="215"/>
+      <c r="Y93" s="215"/>
+      <c r="Z93" s="215"/>
+      <c r="AA93" s="215"/>
+      <c r="AB93" s="215"/>
+      <c r="AC93" s="215"/>
+      <c r="AD93" s="215"/>
+      <c r="AE93" s="215"/>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A94" s="212">
+        <v>122</v>
+      </c>
+      <c r="B94" s="215"/>
+      <c r="C94" s="215"/>
+      <c r="D94" s="215"/>
+      <c r="E94" s="215"/>
+      <c r="F94" s="215"/>
+      <c r="G94" s="215"/>
+      <c r="H94" s="215"/>
+      <c r="I94" s="215"/>
+      <c r="J94" s="215"/>
+      <c r="K94" s="215"/>
+      <c r="L94" s="215"/>
+      <c r="M94" s="215"/>
+      <c r="N94" s="215"/>
+      <c r="O94" s="215"/>
+      <c r="P94" s="215"/>
+      <c r="Q94" s="215"/>
+      <c r="R94" s="215"/>
+      <c r="S94" s="215"/>
+      <c r="T94" s="215"/>
+      <c r="U94" s="215"/>
+      <c r="V94" s="215"/>
+      <c r="W94" s="215"/>
+      <c r="X94" s="215"/>
+      <c r="Y94" s="215"/>
+      <c r="Z94" s="215"/>
+      <c r="AA94" s="215"/>
+      <c r="AB94" s="215"/>
+      <c r="AC94" s="215"/>
+      <c r="AD94" s="215"/>
+      <c r="AE94" s="215"/>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A95" s="212">
+        <v>123</v>
+      </c>
+      <c r="B95" s="215"/>
+      <c r="C95" s="215"/>
+      <c r="D95" s="215"/>
+      <c r="E95" s="215"/>
+      <c r="F95" s="215"/>
+      <c r="G95" s="215"/>
+      <c r="H95" s="215"/>
+      <c r="I95" s="215"/>
+      <c r="J95" s="215"/>
+      <c r="K95" s="215"/>
+      <c r="L95" s="215"/>
+      <c r="M95" s="215"/>
+      <c r="N95" s="215"/>
+      <c r="O95" s="215"/>
+      <c r="P95" s="215"/>
+      <c r="Q95" s="215"/>
+      <c r="R95" s="215"/>
+      <c r="S95" s="215"/>
+      <c r="T95" s="215"/>
+      <c r="U95" s="215"/>
+      <c r="V95" s="215"/>
+      <c r="W95" s="215"/>
+      <c r="X95" s="215"/>
+      <c r="Y95" s="215"/>
+      <c r="Z95" s="215"/>
+      <c r="AA95" s="215"/>
+      <c r="AB95" s="215"/>
+      <c r="AC95" s="215"/>
+      <c r="AD95" s="215"/>
+      <c r="AE95" s="215"/>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A96" s="212">
+        <v>124</v>
+      </c>
+      <c r="B96" s="215"/>
+      <c r="C96" s="215"/>
+      <c r="D96" s="215"/>
+      <c r="E96" s="215"/>
+      <c r="F96" s="215"/>
+      <c r="G96" s="215"/>
+      <c r="H96" s="215"/>
+      <c r="I96" s="215"/>
+      <c r="J96" s="215"/>
+      <c r="K96" s="215"/>
+      <c r="L96" s="215"/>
+      <c r="M96" s="215"/>
+      <c r="N96" s="215"/>
+      <c r="O96" s="215"/>
+      <c r="P96" s="215"/>
+      <c r="Q96" s="215"/>
+      <c r="R96" s="215"/>
+      <c r="S96" s="215"/>
+      <c r="T96" s="215"/>
+      <c r="U96" s="215"/>
+      <c r="V96" s="215"/>
+      <c r="W96" s="215"/>
+      <c r="X96" s="215"/>
+      <c r="Y96" s="215"/>
+      <c r="Z96" s="215"/>
+      <c r="AA96" s="215"/>
+      <c r="AB96" s="215"/>
+      <c r="AC96" s="215"/>
+      <c r="AD96" s="215"/>
+      <c r="AE96" s="215"/>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A97" s="212">
+        <v>125</v>
+      </c>
+      <c r="B97" s="215"/>
+      <c r="C97" s="215"/>
+      <c r="D97" s="215"/>
+      <c r="E97" s="215"/>
+      <c r="F97" s="215"/>
+      <c r="G97" s="215"/>
+      <c r="H97" s="215"/>
+      <c r="I97" s="215"/>
+      <c r="J97" s="215"/>
+      <c r="K97" s="215"/>
+      <c r="L97" s="215"/>
+      <c r="M97" s="215"/>
+      <c r="N97" s="215"/>
+      <c r="O97" s="215"/>
+      <c r="P97" s="215"/>
+      <c r="Q97" s="215"/>
+      <c r="R97" s="215"/>
+      <c r="S97" s="215"/>
+      <c r="T97" s="215"/>
+      <c r="U97" s="215"/>
+      <c r="V97" s="215"/>
+      <c r="W97" s="215"/>
+      <c r="X97" s="215"/>
+      <c r="Y97" s="215"/>
+      <c r="Z97" s="215"/>
+      <c r="AA97" s="215"/>
+      <c r="AB97" s="215"/>
+      <c r="AC97" s="215"/>
+      <c r="AD97" s="215"/>
+      <c r="AE97" s="215"/>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A98" s="213"/>
+      <c r="B98" s="215"/>
+      <c r="C98" s="215"/>
+      <c r="D98" s="215"/>
+      <c r="E98" s="215"/>
+      <c r="F98" s="215"/>
+      <c r="G98" s="215"/>
+      <c r="H98" s="215"/>
+      <c r="I98" s="215"/>
+      <c r="J98" s="215"/>
+      <c r="K98" s="215"/>
+      <c r="L98" s="215"/>
+      <c r="M98" s="215"/>
+      <c r="N98" s="215"/>
+      <c r="O98" s="215"/>
+      <c r="P98" s="215"/>
+      <c r="Q98" s="215"/>
+      <c r="R98" s="215"/>
+      <c r="S98" s="215"/>
+      <c r="T98" s="215"/>
+      <c r="U98" s="215"/>
+      <c r="V98" s="215"/>
+      <c r="W98" s="215"/>
+      <c r="X98" s="215"/>
+      <c r="Y98" s="215"/>
+      <c r="Z98" s="215"/>
+      <c r="AA98" s="215"/>
+      <c r="AB98" s="215"/>
+      <c r="AC98" s="215"/>
+      <c r="AD98" s="215"/>
+      <c r="AE98" s="215"/>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A99" s="139"/>
+      <c r="B99" s="215"/>
+      <c r="C99" s="215"/>
+      <c r="D99" s="215"/>
+      <c r="E99" s="215"/>
+      <c r="F99" s="215"/>
+      <c r="G99" s="215"/>
+      <c r="H99" s="215"/>
+      <c r="I99" s="215"/>
+      <c r="J99" s="215"/>
+      <c r="K99" s="215"/>
+      <c r="L99" s="215"/>
+      <c r="M99" s="215"/>
+      <c r="N99" s="215"/>
+      <c r="O99" s="215"/>
+      <c r="P99" s="215"/>
+      <c r="Q99" s="215"/>
+      <c r="R99" s="215"/>
+      <c r="S99" s="215"/>
+      <c r="T99" s="215"/>
+      <c r="U99" s="215"/>
+      <c r="V99" s="215"/>
+      <c r="W99" s="215"/>
+      <c r="X99" s="215"/>
+      <c r="Y99" s="215"/>
+      <c r="Z99" s="215"/>
+      <c r="AA99" s="215"/>
+      <c r="AB99" s="215"/>
+      <c r="AC99" s="215"/>
+      <c r="AD99" s="215"/>
+      <c r="AE99" s="215"/>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A100" s="212">
+        <v>130</v>
+      </c>
+      <c r="B100" s="215"/>
+      <c r="C100" s="215"/>
+      <c r="D100" s="215"/>
+      <c r="E100" s="215"/>
+      <c r="F100" s="215"/>
+      <c r="G100" s="215"/>
+      <c r="H100" s="215"/>
+      <c r="I100" s="215"/>
+      <c r="J100" s="215"/>
+      <c r="K100" s="215"/>
+      <c r="L100" s="215"/>
+      <c r="M100" s="215"/>
+      <c r="N100" s="215"/>
+      <c r="O100" s="215"/>
+      <c r="P100" s="215"/>
+      <c r="Q100" s="215"/>
+      <c r="R100" s="215"/>
+      <c r="S100" s="215"/>
+      <c r="T100" s="215"/>
+      <c r="U100" s="215"/>
+      <c r="V100" s="215"/>
+      <c r="W100" s="215"/>
+      <c r="X100" s="215"/>
+      <c r="Y100" s="215"/>
+      <c r="Z100" s="215"/>
+      <c r="AA100" s="215"/>
+      <c r="AB100" s="215"/>
+      <c r="AC100" s="215"/>
+      <c r="AD100" s="215"/>
+      <c r="AE100" s="215"/>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A101" s="212">
+        <v>131</v>
+      </c>
+      <c r="B101" s="215"/>
+      <c r="C101" s="215"/>
+      <c r="D101" s="215"/>
+      <c r="E101" s="215"/>
+      <c r="F101" s="215"/>
+      <c r="G101" s="215"/>
+      <c r="H101" s="215"/>
+      <c r="I101" s="215"/>
+      <c r="J101" s="215"/>
+      <c r="K101" s="215"/>
+      <c r="L101" s="215"/>
+      <c r="M101" s="215"/>
+      <c r="N101" s="215"/>
+      <c r="O101" s="215"/>
+      <c r="P101" s="215"/>
+      <c r="Q101" s="215"/>
+      <c r="R101" s="215"/>
+      <c r="S101" s="215"/>
+      <c r="T101" s="215"/>
+      <c r="U101" s="215"/>
+      <c r="V101" s="215"/>
+      <c r="W101" s="215"/>
+      <c r="X101" s="215"/>
+      <c r="Y101" s="215"/>
+      <c r="Z101" s="215"/>
+      <c r="AA101" s="215"/>
+      <c r="AB101" s="215"/>
+      <c r="AC101" s="215"/>
+      <c r="AD101" s="215"/>
+      <c r="AE101" s="215"/>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A102" s="212">
+        <v>132</v>
+      </c>
+      <c r="B102" s="215"/>
+      <c r="C102" s="215"/>
+      <c r="D102" s="215"/>
+      <c r="E102" s="215"/>
+      <c r="F102" s="215"/>
+      <c r="G102" s="215"/>
+      <c r="H102" s="215"/>
+      <c r="I102" s="215"/>
+      <c r="J102" s="215"/>
+      <c r="K102" s="215"/>
+      <c r="L102" s="215"/>
+      <c r="M102" s="215"/>
+      <c r="N102" s="215"/>
+      <c r="O102" s="215"/>
+      <c r="P102" s="215"/>
+      <c r="Q102" s="215"/>
+      <c r="R102" s="215"/>
+      <c r="S102" s="215"/>
+      <c r="T102" s="215"/>
+      <c r="U102" s="215"/>
+      <c r="V102" s="215"/>
+      <c r="W102" s="215"/>
+      <c r="X102" s="215"/>
+      <c r="Y102" s="215"/>
+      <c r="Z102" s="215"/>
+      <c r="AA102" s="215"/>
+      <c r="AB102" s="215"/>
+      <c r="AC102" s="215"/>
+      <c r="AD102" s="215"/>
+      <c r="AE102" s="215"/>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A103" s="212">
+        <v>133</v>
+      </c>
+      <c r="B103" s="215"/>
+      <c r="C103" s="215"/>
+      <c r="D103" s="215"/>
+      <c r="E103" s="215"/>
+      <c r="F103" s="215"/>
+      <c r="G103" s="215"/>
+      <c r="H103" s="215"/>
+      <c r="I103" s="215"/>
+      <c r="J103" s="215"/>
+      <c r="K103" s="215"/>
+      <c r="L103" s="215"/>
+      <c r="M103" s="215"/>
+      <c r="N103" s="215"/>
+      <c r="O103" s="215"/>
+      <c r="P103" s="215"/>
+      <c r="Q103" s="215"/>
+      <c r="R103" s="215"/>
+      <c r="S103" s="215"/>
+      <c r="T103" s="215"/>
+      <c r="U103" s="215"/>
+      <c r="V103" s="215"/>
+      <c r="W103" s="215"/>
+      <c r="X103" s="215"/>
+      <c r="Y103" s="215"/>
+      <c r="Z103" s="215"/>
+      <c r="AA103" s="215"/>
+      <c r="AB103" s="215"/>
+      <c r="AC103" s="215"/>
+      <c r="AD103" s="215"/>
+      <c r="AE103" s="215"/>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A104" s="212">
+        <v>134</v>
+      </c>
+      <c r="B104" s="215"/>
+      <c r="C104" s="215"/>
+      <c r="D104" s="215"/>
+      <c r="E104" s="215"/>
+      <c r="F104" s="215"/>
+      <c r="G104" s="215"/>
+      <c r="H104" s="215"/>
+      <c r="I104" s="215"/>
+      <c r="J104" s="215"/>
+      <c r="K104" s="215"/>
+      <c r="L104" s="215"/>
+      <c r="M104" s="215"/>
+      <c r="N104" s="215"/>
+      <c r="O104" s="215"/>
+      <c r="P104" s="215"/>
+      <c r="Q104" s="215"/>
+      <c r="R104" s="215"/>
+      <c r="S104" s="215"/>
+      <c r="T104" s="215"/>
+      <c r="U104" s="215"/>
+      <c r="V104" s="215"/>
+      <c r="W104" s="215"/>
+      <c r="X104" s="215"/>
+      <c r="Y104" s="215"/>
+      <c r="Z104" s="215"/>
+      <c r="AA104" s="215"/>
+      <c r="AB104" s="215"/>
+      <c r="AC104" s="215"/>
+      <c r="AD104" s="215"/>
+      <c r="AE104" s="215"/>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A105" s="212">
+        <v>135</v>
+      </c>
+      <c r="B105" s="215"/>
+      <c r="C105" s="215"/>
+      <c r="D105" s="215"/>
+      <c r="E105" s="215"/>
+      <c r="F105" s="215"/>
+      <c r="G105" s="215"/>
+      <c r="H105" s="215"/>
+      <c r="I105" s="215"/>
+      <c r="J105" s="215"/>
+      <c r="K105" s="215"/>
+      <c r="L105" s="215"/>
+      <c r="M105" s="215"/>
+      <c r="N105" s="215"/>
+      <c r="O105" s="215"/>
+      <c r="P105" s="215"/>
+      <c r="Q105" s="215"/>
+      <c r="R105" s="215"/>
+      <c r="S105" s="215"/>
+      <c r="T105" s="215"/>
+      <c r="U105" s="215"/>
+      <c r="V105" s="215"/>
+      <c r="W105" s="215"/>
+      <c r="X105" s="215"/>
+      <c r="Y105" s="215"/>
+      <c r="Z105" s="215"/>
+      <c r="AA105" s="215"/>
+      <c r="AB105" s="215"/>
+      <c r="AC105" s="215"/>
+      <c r="AD105" s="215"/>
+      <c r="AE105" s="215"/>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A106" s="212">
+        <v>136</v>
+      </c>
+      <c r="B106" s="215"/>
+      <c r="C106" s="215"/>
+      <c r="D106" s="215"/>
+      <c r="E106" s="215"/>
+      <c r="F106" s="215"/>
+      <c r="G106" s="215"/>
+      <c r="H106" s="215"/>
+      <c r="I106" s="215"/>
+      <c r="J106" s="215"/>
+      <c r="K106" s="215"/>
+      <c r="L106" s="215"/>
+      <c r="M106" s="215"/>
+      <c r="N106" s="215"/>
+      <c r="O106" s="215"/>
+      <c r="P106" s="215"/>
+      <c r="Q106" s="215"/>
+      <c r="R106" s="215"/>
+      <c r="S106" s="215"/>
+      <c r="T106" s="215"/>
+      <c r="U106" s="215"/>
+      <c r="V106" s="215"/>
+      <c r="W106" s="215"/>
+      <c r="X106" s="215"/>
+      <c r="Y106" s="215"/>
+      <c r="Z106" s="215"/>
+      <c r="AA106" s="215"/>
+      <c r="AB106" s="215"/>
+      <c r="AC106" s="215"/>
+      <c r="AD106" s="215"/>
+      <c r="AE106" s="215"/>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A107" s="212">
+        <v>137</v>
+      </c>
+      <c r="B107" s="215"/>
+      <c r="C107" s="215"/>
+      <c r="D107" s="215"/>
+      <c r="E107" s="215"/>
+      <c r="F107" s="215"/>
+      <c r="G107" s="215"/>
+      <c r="H107" s="215"/>
+      <c r="I107" s="215"/>
+      <c r="J107" s="215"/>
+      <c r="K107" s="215"/>
+      <c r="L107" s="215"/>
+      <c r="M107" s="215"/>
+      <c r="N107" s="215"/>
+      <c r="O107" s="215"/>
+      <c r="P107" s="215"/>
+      <c r="Q107" s="215"/>
+      <c r="R107" s="215"/>
+      <c r="S107" s="215"/>
+      <c r="T107" s="215"/>
+      <c r="U107" s="215"/>
+      <c r="V107" s="215"/>
+      <c r="W107" s="215"/>
+      <c r="X107" s="215"/>
+      <c r="Y107" s="215"/>
+      <c r="Z107" s="215"/>
+      <c r="AA107" s="215"/>
+      <c r="AB107" s="215"/>
+      <c r="AC107" s="215"/>
+      <c r="AD107" s="215"/>
+      <c r="AE107" s="215"/>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A108" s="212">
+        <v>138</v>
+      </c>
+      <c r="B108" s="215"/>
+      <c r="C108" s="215"/>
+      <c r="D108" s="215"/>
+      <c r="E108" s="215"/>
+      <c r="F108" s="215"/>
+      <c r="G108" s="215"/>
+      <c r="H108" s="215"/>
+      <c r="I108" s="215"/>
+      <c r="J108" s="215"/>
+      <c r="K108" s="215"/>
+      <c r="L108" s="215"/>
+      <c r="M108" s="215"/>
+      <c r="N108" s="215"/>
+      <c r="O108" s="215"/>
+      <c r="P108" s="215"/>
+      <c r="Q108" s="215"/>
+      <c r="R108" s="215"/>
+      <c r="S108" s="215"/>
+      <c r="T108" s="215"/>
+      <c r="U108" s="215"/>
+      <c r="V108" s="215"/>
+      <c r="W108" s="215"/>
+      <c r="X108" s="215"/>
+      <c r="Y108" s="215"/>
+      <c r="Z108" s="215"/>
+      <c r="AA108" s="215"/>
+      <c r="AB108" s="215"/>
+      <c r="AC108" s="215"/>
+      <c r="AD108" s="215"/>
+      <c r="AE108" s="215"/>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A109" s="212">
+        <v>139</v>
+      </c>
+      <c r="B109" s="215"/>
+      <c r="C109" s="215"/>
+      <c r="D109" s="215"/>
+      <c r="E109" s="215"/>
+      <c r="F109" s="215"/>
+      <c r="G109" s="215"/>
+      <c r="H109" s="215"/>
+      <c r="I109" s="215"/>
+      <c r="J109" s="215"/>
+      <c r="K109" s="215"/>
+      <c r="L109" s="215"/>
+      <c r="M109" s="215"/>
+      <c r="N109" s="215"/>
+      <c r="O109" s="215"/>
+      <c r="P109" s="215"/>
+      <c r="Q109" s="215"/>
+      <c r="R109" s="215"/>
+      <c r="S109" s="215"/>
+      <c r="T109" s="215"/>
+      <c r="U109" s="215"/>
+      <c r="V109" s="215"/>
+      <c r="W109" s="215"/>
+      <c r="X109" s="215"/>
+      <c r="Y109" s="215"/>
+      <c r="Z109" s="215"/>
+      <c r="AA109" s="215"/>
+      <c r="AB109" s="215"/>
+      <c r="AC109" s="215"/>
+      <c r="AD109" s="215"/>
+      <c r="AE109" s="215"/>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A110" s="212">
+        <v>140</v>
+      </c>
+      <c r="B110" s="215"/>
+      <c r="C110" s="215"/>
+      <c r="D110" s="215"/>
+      <c r="E110" s="215"/>
+      <c r="F110" s="215"/>
+      <c r="G110" s="215"/>
+      <c r="H110" s="215"/>
+      <c r="I110" s="215"/>
+      <c r="J110" s="215"/>
+      <c r="K110" s="215"/>
+      <c r="L110" s="215"/>
+      <c r="M110" s="215"/>
+      <c r="N110" s="215"/>
+      <c r="O110" s="215"/>
+      <c r="P110" s="215"/>
+      <c r="Q110" s="215"/>
+      <c r="R110" s="215"/>
+      <c r="S110" s="215"/>
+      <c r="T110" s="215"/>
+      <c r="U110" s="215"/>
+      <c r="V110" s="215"/>
+      <c r="W110" s="215"/>
+      <c r="X110" s="215"/>
+      <c r="Y110" s="215"/>
+      <c r="Z110" s="215"/>
+      <c r="AA110" s="215"/>
+      <c r="AB110" s="215"/>
+      <c r="AC110" s="215"/>
+      <c r="AD110" s="215"/>
+      <c r="AE110" s="215"/>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A111" s="212">
+        <v>141</v>
+      </c>
+      <c r="B111" s="215"/>
+      <c r="C111" s="215"/>
+      <c r="D111" s="215"/>
+      <c r="E111" s="215"/>
+      <c r="F111" s="215"/>
+      <c r="G111" s="215"/>
+      <c r="H111" s="215"/>
+      <c r="I111" s="215"/>
+      <c r="J111" s="215"/>
+      <c r="K111" s="215"/>
+      <c r="L111" s="215"/>
+      <c r="M111" s="215"/>
+      <c r="N111" s="215"/>
+      <c r="O111" s="215"/>
+      <c r="P111" s="215"/>
+      <c r="Q111" s="215"/>
+      <c r="R111" s="215"/>
+      <c r="S111" s="215"/>
+      <c r="T111" s="215"/>
+      <c r="U111" s="215"/>
+      <c r="V111" s="215"/>
+      <c r="W111" s="215"/>
+      <c r="X111" s="215"/>
+      <c r="Y111" s="215"/>
+      <c r="Z111" s="215"/>
+      <c r="AA111" s="215"/>
+      <c r="AB111" s="215"/>
+      <c r="AC111" s="215"/>
+      <c r="AD111" s="215"/>
+      <c r="AE111" s="215"/>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A112" s="212">
+        <v>142</v>
+      </c>
+      <c r="B112" s="215"/>
+      <c r="C112" s="215"/>
+      <c r="D112" s="215"/>
+      <c r="E112" s="215"/>
+      <c r="F112" s="215"/>
+      <c r="G112" s="215"/>
+      <c r="H112" s="215"/>
+      <c r="I112" s="215"/>
+      <c r="J112" s="215"/>
+      <c r="K112" s="215"/>
+      <c r="L112" s="215"/>
+      <c r="M112" s="215"/>
+      <c r="N112" s="215"/>
+      <c r="O112" s="215"/>
+      <c r="P112" s="215"/>
+      <c r="Q112" s="215"/>
+      <c r="R112" s="215"/>
+      <c r="S112" s="215"/>
+      <c r="T112" s="215"/>
+      <c r="U112" s="215"/>
+      <c r="V112" s="215"/>
+      <c r="W112" s="215"/>
+      <c r="X112" s="215"/>
+      <c r="Y112" s="215"/>
+      <c r="Z112" s="215"/>
+      <c r="AA112" s="215"/>
+      <c r="AB112" s="215"/>
+      <c r="AC112" s="215"/>
+      <c r="AD112" s="215"/>
+      <c r="AE112" s="215"/>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A113" s="212">
+        <v>143</v>
+      </c>
+      <c r="B113" s="215"/>
+      <c r="C113" s="215"/>
+      <c r="D113" s="215"/>
+      <c r="E113" s="215"/>
+      <c r="F113" s="215"/>
+      <c r="G113" s="215"/>
+      <c r="H113" s="215"/>
+      <c r="I113" s="215"/>
+      <c r="J113" s="215"/>
+      <c r="K113" s="215"/>
+      <c r="L113" s="215"/>
+      <c r="M113" s="215"/>
+      <c r="N113" s="215"/>
+      <c r="O113" s="215"/>
+      <c r="P113" s="215"/>
+      <c r="Q113" s="215"/>
+      <c r="R113" s="215"/>
+      <c r="S113" s="215"/>
+      <c r="T113" s="215"/>
+      <c r="U113" s="215"/>
+      <c r="V113" s="215"/>
+      <c r="W113" s="215"/>
+      <c r="X113" s="215"/>
+      <c r="Y113" s="215"/>
+      <c r="Z113" s="215"/>
+      <c r="AA113" s="215"/>
+      <c r="AB113" s="215"/>
+      <c r="AC113" s="215"/>
+      <c r="AD113" s="215"/>
+      <c r="AE113" s="215"/>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A114" s="212">
+        <v>144</v>
+      </c>
+      <c r="B114" s="215"/>
+      <c r="C114" s="215"/>
+      <c r="D114" s="215"/>
+      <c r="E114" s="215"/>
+      <c r="F114" s="215"/>
+      <c r="G114" s="215"/>
+      <c r="H114" s="215"/>
+      <c r="I114" s="215"/>
+      <c r="J114" s="215"/>
+      <c r="K114" s="215"/>
+      <c r="L114" s="215"/>
+      <c r="M114" s="215"/>
+      <c r="N114" s="215"/>
+      <c r="O114" s="215"/>
+      <c r="P114" s="215"/>
+      <c r="Q114" s="215"/>
+      <c r="R114" s="215"/>
+      <c r="S114" s="215"/>
+      <c r="T114" s="215"/>
+      <c r="U114" s="215"/>
+      <c r="V114" s="215"/>
+      <c r="W114" s="215"/>
+      <c r="X114" s="215"/>
+      <c r="Y114" s="215"/>
+      <c r="Z114" s="215"/>
+      <c r="AA114" s="215"/>
+      <c r="AB114" s="215"/>
+      <c r="AC114" s="215"/>
+      <c r="AD114" s="215"/>
+      <c r="AE114" s="215"/>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A115" s="212">
+        <v>145</v>
+      </c>
+      <c r="B115" s="215"/>
+      <c r="C115" s="215"/>
+      <c r="D115" s="215"/>
+      <c r="E115" s="215"/>
+      <c r="F115" s="215"/>
+      <c r="G115" s="215"/>
+      <c r="H115" s="215"/>
+      <c r="I115" s="215"/>
+      <c r="J115" s="215"/>
+      <c r="K115" s="215"/>
+      <c r="L115" s="215"/>
+      <c r="M115" s="215"/>
+      <c r="N115" s="215"/>
+      <c r="O115" s="215"/>
+      <c r="P115" s="215"/>
+      <c r="Q115" s="215"/>
+      <c r="R115" s="215"/>
+      <c r="S115" s="215"/>
+      <c r="T115" s="215"/>
+      <c r="U115" s="215"/>
+      <c r="V115" s="215"/>
+      <c r="W115" s="215"/>
+      <c r="X115" s="215"/>
+      <c r="Y115" s="215"/>
+      <c r="Z115" s="215"/>
+      <c r="AA115" s="215"/>
+      <c r="AB115" s="215"/>
+      <c r="AC115" s="215"/>
+      <c r="AD115" s="215"/>
+      <c r="AE115" s="215"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6637,44 +10906,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="215" t="s">
+      <c r="J1" s="220" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="215"/>
-      <c r="T1" s="215" t="s">
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="220"/>
+      <c r="T1" s="220" t="s">
         <v>187</v>
       </c>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="215"/>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="215"/>
-      <c r="AA1" s="215"/>
-      <c r="AB1" s="215"/>
-      <c r="AC1" s="216" t="s">
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="220"/>
+      <c r="AA1" s="220"/>
+      <c r="AB1" s="220"/>
+      <c r="AC1" s="221" t="s">
         <v>188</v>
       </c>
-      <c r="AD1" s="216"/>
-      <c r="AE1" s="216"/>
-      <c r="AF1" s="216"/>
-      <c r="AG1" s="216"/>
-      <c r="AH1" s="216"/>
-      <c r="AI1" s="216"/>
-      <c r="AJ1" s="216"/>
-      <c r="AK1" s="216"/>
-      <c r="AL1" s="216"/>
-      <c r="AM1" s="216"/>
-      <c r="AN1" s="216"/>
-      <c r="AO1" s="216"/>
+      <c r="AD1" s="221"/>
+      <c r="AE1" s="221"/>
+      <c r="AF1" s="221"/>
+      <c r="AG1" s="221"/>
+      <c r="AH1" s="221"/>
+      <c r="AI1" s="221"/>
+      <c r="AJ1" s="221"/>
+      <c r="AK1" s="221"/>
+      <c r="AL1" s="221"/>
+      <c r="AM1" s="221"/>
+      <c r="AN1" s="221"/>
+      <c r="AO1" s="221"/>
     </row>
     <row r="2" spans="1:66" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -16832,7 +21101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16889,7 +21158,7 @@
   <dimension ref="A1:DB153"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="L116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D117" sqref="D117"/>
@@ -25121,11 +29390,11 @@
       <c r="DB26" s="170"/>
     </row>
     <row r="27" spans="1:106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="220" t="s">
+      <c r="A27" s="225" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="218"/>
-      <c r="C27" s="219"/>
+      <c r="B27" s="223"/>
+      <c r="C27" s="224"/>
       <c r="D27" s="64"/>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
@@ -29262,11 +33531,11 @@
       <c r="DB44" s="170"/>
     </row>
     <row r="45" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A45" s="217" t="s">
+      <c r="A45" s="222" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="218"/>
-      <c r="C45" s="219"/>
+      <c r="B45" s="223"/>
+      <c r="C45" s="224"/>
       <c r="D45" s="64"/>
       <c r="E45" s="64"/>
       <c r="F45" s="64"/>
@@ -33358,11 +37627,11 @@
       <c r="DB62" s="170"/>
     </row>
     <row r="63" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A63" s="217" t="s">
+      <c r="A63" s="222" t="s">
         <v>235</v>
       </c>
-      <c r="B63" s="218"/>
-      <c r="C63" s="219"/>
+      <c r="B63" s="223"/>
+      <c r="C63" s="224"/>
       <c r="D63" s="64"/>
       <c r="E63" s="64"/>
       <c r="F63" s="64"/>
@@ -37517,11 +41786,11 @@
       <c r="DB80" s="170"/>
     </row>
     <row r="81" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A81" s="217" t="s">
+      <c r="A81" s="222" t="s">
         <v>236</v>
       </c>
-      <c r="B81" s="218"/>
-      <c r="C81" s="219"/>
+      <c r="B81" s="223"/>
+      <c r="C81" s="224"/>
       <c r="D81" s="64"/>
       <c r="E81" s="64"/>
       <c r="F81" s="64"/>
@@ -41979,11 +46248,11 @@
       <c r="DB98" s="170"/>
     </row>
     <row r="99" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A99" s="217" t="s">
+      <c r="A99" s="222" t="s">
         <v>237</v>
       </c>
-      <c r="B99" s="218"/>
-      <c r="C99" s="219"/>
+      <c r="B99" s="223"/>
+      <c r="C99" s="224"/>
       <c r="D99" s="64"/>
       <c r="E99" s="64"/>
       <c r="F99" s="64"/>
@@ -46366,11 +50635,11 @@
       <c r="Z26" s="141"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="217" t="s">
+      <c r="A27" s="222" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="218"/>
-      <c r="C27" s="219"/>
+      <c r="B27" s="223"/>
+      <c r="C27" s="224"/>
       <c r="D27" s="182"/>
       <c r="E27" s="141"/>
       <c r="F27" s="182"/>
@@ -47320,11 +51589,11 @@
       <c r="Z44" s="141"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="217" t="s">
+      <c r="A45" s="222" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="218"/>
-      <c r="C45" s="219"/>
+      <c r="B45" s="223"/>
+      <c r="C45" s="224"/>
       <c r="D45" s="182"/>
       <c r="E45" s="141"/>
       <c r="F45" s="182"/>
@@ -48255,11 +52524,11 @@
       <c r="Z62" s="141"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="217" t="s">
+      <c r="A63" s="222" t="s">
         <v>235</v>
       </c>
-      <c r="B63" s="218"/>
-      <c r="C63" s="219"/>
+      <c r="B63" s="223"/>
+      <c r="C63" s="224"/>
       <c r="D63" s="182"/>
       <c r="E63" s="141"/>
       <c r="F63" s="182"/>
@@ -49191,11 +53460,11 @@
       <c r="Z80" s="141"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="217" t="s">
+      <c r="A81" s="222" t="s">
         <v>236</v>
       </c>
-      <c r="B81" s="218"/>
-      <c r="C81" s="219"/>
+      <c r="B81" s="223"/>
+      <c r="C81" s="224"/>
       <c r="D81" s="182"/>
       <c r="E81" s="141"/>
       <c r="F81" s="182"/>
@@ -50142,11 +54411,11 @@
       <c r="Z98" s="141"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A99" s="217" t="s">
+      <c r="A99" s="222" t="s">
         <v>237</v>
       </c>
-      <c r="B99" s="218"/>
-      <c r="C99" s="219"/>
+      <c r="B99" s="223"/>
+      <c r="C99" s="224"/>
       <c r="D99" s="182"/>
       <c r="E99" s="182"/>
       <c r="F99" s="182"/>
@@ -51232,12 +55501,12 @@
       <c r="F26" s="153"/>
     </row>
     <row r="27" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="217" t="s">
+      <c r="A27" s="222" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="218"/>
-      <c r="C27" s="218"/>
-      <c r="D27" s="219"/>
+      <c r="B27" s="223"/>
+      <c r="C27" s="223"/>
+      <c r="D27" s="224"/>
       <c r="E27" s="153"/>
       <c r="F27" s="153"/>
     </row>
@@ -51410,12 +55679,12 @@
       <c r="F44" s="153"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="217" t="s">
+      <c r="A45" s="222" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="218"/>
-      <c r="C45" s="218"/>
-      <c r="D45" s="219"/>
+      <c r="B45" s="223"/>
+      <c r="C45" s="223"/>
+      <c r="D45" s="224"/>
       <c r="E45" s="153"/>
       <c r="F45" s="153"/>
       <c r="G45" s="152"/>
@@ -51797,12 +56066,12 @@
       <c r="F62" s="153"/>
     </row>
     <row r="63" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="217" t="s">
+      <c r="A63" s="222" t="s">
         <v>233</v>
       </c>
-      <c r="B63" s="218"/>
-      <c r="C63" s="218"/>
-      <c r="D63" s="219"/>
+      <c r="B63" s="223"/>
+      <c r="C63" s="223"/>
+      <c r="D63" s="224"/>
       <c r="E63" s="153"/>
       <c r="F63" s="153"/>
     </row>
@@ -51974,12 +56243,12 @@
       <c r="F80" s="153"/>
     </row>
     <row r="81" spans="1:7" s="151" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="217" t="s">
+      <c r="A81" s="222" t="s">
         <v>236</v>
       </c>
-      <c r="B81" s="218"/>
-      <c r="C81" s="218"/>
-      <c r="D81" s="219"/>
+      <c r="B81" s="223"/>
+      <c r="C81" s="223"/>
+      <c r="D81" s="224"/>
       <c r="E81" s="153"/>
       <c r="F81" s="153"/>
     </row>
@@ -52255,12 +56524,12 @@
       <c r="F98" s="153"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="217" t="s">
+      <c r="A99" s="222" t="s">
         <v>237</v>
       </c>
-      <c r="B99" s="218"/>
-      <c r="C99" s="218"/>
-      <c r="D99" s="219"/>
+      <c r="B99" s="223"/>
+      <c r="C99" s="223"/>
+      <c r="D99" s="224"/>
       <c r="E99" s="153"/>
       <c r="F99" s="153"/>
     </row>
